--- a/Outputs/1. Budget/Output Files/750000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Output Files/750000/Output_8_31.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2284693.217581803</v>
+        <v>2265654.046837841</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1895380.508738762</v>
+        <v>1895380.508738763</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9003866.474556327</v>
+        <v>9003866.474556329</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>190.3453970742848</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
@@ -676,7 +676,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11.25416062114206</v>
+        <v>89.18947935324522</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>110.9174757594851</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>202.9517980872222</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>35.16424083254483</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>241.0142888776591</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -1025,13 +1025,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>144.6060349495346</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>48.16522454442876</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>51.87748497259537</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>20.05153280550059</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>319.2315751380541</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>2.711160881483528</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.2197470510665</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>112.4773236358129</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,10 +1615,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>228.6248567589823</v>
       </c>
       <c r="F14" t="n">
-        <v>320.7513850155704</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>412.9169039459368</v>
@@ -1666,13 +1666,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>88.13750067967277</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>193.4260588574892</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,16 +1900,16 @@
         <v>210.9096792620724</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1229473397806</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>229.5579366149378</v>
       </c>
       <c r="X17" t="n">
-        <v>20.41383148349207</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>97.85025341825342</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1142768463252</v>
+        <v>38.11427684632522</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.679740954165126</v>
+        <v>7.67974095416514</v>
       </c>
       <c r="S18" t="n">
         <v>144.0168299979072</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>125.9554379630297</v>
       </c>
       <c r="I19" t="n">
-        <v>60.25703536732421</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.074277618880387</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>202.2547158088293</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>11.92786222122476</v>
       </c>
       <c r="C20" t="n">
-        <v>21.39769547930057</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2140,7 +2140,7 @@
         <v>251.1229473397806</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>104.3120569747178</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>151.1248663941773</v>
       </c>
       <c r="I22" t="n">
-        <v>117.897889423504</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>222.6101253452209</v>
       </c>
       <c r="U22" t="n">
-        <v>37.75199980468077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>96.69452166552679</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>25.85590438676093</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>412.5189179144363</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>310.9650096301107</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2481,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.8950369382083306</v>
       </c>
       <c r="G25" t="n">
         <v>166.7422537219978</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.1248663941773</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>121.1461459413869</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.2547158088293</v>
       </c>
       <c r="T25" t="n">
         <v>222.6101253452209</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2509170490476</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>14.06276445918501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>95.89105007430818</v>
+        <v>412.5189179144363</v>
       </c>
       <c r="H26" t="n">
         <v>310.9650096301107</v>
       </c>
       <c r="I26" t="n">
-        <v>103.1526844144657</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>251.1229473397806</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>87.02974659289276</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,13 +2730,13 @@
         <v>166.7422537219978</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.1248663941773</v>
       </c>
       <c r="I28" t="n">
         <v>117.897889423504</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>5.074277618880387</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>121.1461459413869</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>222.6101253452209</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>199.4794839670143</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>21.0386906582535</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>11.92786222122566</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2851,7 +2851,7 @@
         <v>251.1229473397806</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>70.41354240714331</v>
       </c>
     </row>
     <row r="30">
@@ -2955,25 +2955,25 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>25.98878920573961</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>5.074277618880387</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>222.6101253452209</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2509170490476</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>271.0323153926318</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3037,10 +3037,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>90.24817790158247</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>412.5189179144363</v>
@@ -3049,7 +3049,7 @@
         <v>310.9650096301107</v>
       </c>
       <c r="I32" t="n">
-        <v>103.1526844144657</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>145.5837804353216</v>
       </c>
       <c r="T32" t="n">
-        <v>210.9096792620724</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.1229473397806</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>292.4973529516959</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3195,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7422537219978</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.1248663941773</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>25.78009743504746</v>
+        <v>23.47939582977523</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>222.6101253452209</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2509170490476</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>11.92786222122476</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3283,7 +3283,7 @@
         <v>412.5189179144363</v>
       </c>
       <c r="H35" t="n">
-        <v>85.74281062317696</v>
+        <v>310.9650096301107</v>
       </c>
       <c r="I35" t="n">
         <v>103.1526844144657</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>145.5837804353216</v>
       </c>
       <c r="T35" t="n">
         <v>210.9096792620724</v>
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>130.74004490951</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.7422537219978</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>151.1248663941773</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.074277618880387</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>202.2547158088293</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>113.2067732617461</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>412.5189179144363</v>
@@ -3556,16 +3556,16 @@
         <v>145.5837804353216</v>
       </c>
       <c r="T38" t="n">
-        <v>210.9096792620724</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1229473397806</v>
+        <v>112.7153574068752</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>57.55877654673356</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>96.58289242078766</v>
       </c>
       <c r="E40" t="n">
-        <v>84.85567552475121</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,25 +3742,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.5189179144363</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>310.9650096301107</v>
       </c>
       <c r="I41" t="n">
-        <v>103.1526844144657</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>145.5837804353216</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>137.9844150277202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1229473397806</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>323.6496152495111</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3918,10 +3918,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>27.16488109891187</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.074277618880387</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>202.2547158088293</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2509170490476</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>210.4669401261598</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>313.9451013586456</v>
       </c>
       <c r="D44" t="n">
-        <v>66.37623463443612</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3994,10 +3994,10 @@
         <v>412.5189179144363</v>
       </c>
       <c r="H44" t="n">
-        <v>310.9650096301107</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>103.1526844144657</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>145.5837804353216</v>
       </c>
       <c r="T44" t="n">
         <v>210.9096792620724</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,19 +4146,19 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>112.5132247999344</v>
+        <v>151.1248663941773</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>117.897889423504</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>5.074277618880387</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>222.6101253452209</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>44.39304233027813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="C2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="D2" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="E2" t="n">
+        <v>761.6974622895962</v>
+      </c>
+      <c r="F2" t="n">
         <v>518.2486856454962</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>274.7999090013961</v>
-      </c>
-      <c r="G2" t="n">
-        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
         <v>31.35113235729608</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.0683498528888</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C3" t="n">
-        <v>307.7005108416342</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D3" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
         <v>20.03527576299844</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V3" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W3" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X3" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y3" t="n">
-        <v>487.2836868729568</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>852.019301208126</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.2572196227447</v>
+        <v>251.810259228364</v>
       </c>
       <c r="C5" t="n">
-        <v>290.2572196227447</v>
+        <v>251.810259228364</v>
       </c>
       <c r="D5" t="n">
-        <v>290.2572196227447</v>
+        <v>251.810259228364</v>
       </c>
       <c r="E5" t="n">
-        <v>290.2572196227447</v>
+        <v>251.810259228364</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4591,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>777.1547729109448</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>777.1547729109448</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U5" t="n">
-        <v>777.1547729109448</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V5" t="n">
-        <v>533.7059962668447</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W5" t="n">
-        <v>533.7059962668447</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X5" t="n">
-        <v>533.7059962668447</v>
+        <v>251.810259228364</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.2572196227447</v>
+        <v>251.810259228364</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>508.9694238887622</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C6" t="n">
-        <v>508.9694238887622</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D6" t="n">
-        <v>508.9694238887622</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
         <v>508.9694238887622</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>716.820924094295</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>716.820924094295</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>716.820924094295</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X6" t="n">
-        <v>508.9694238887622</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.9694238887622</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="7">
@@ -4755,22 +4755,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>333.7844730889342</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C8" t="n">
-        <v>333.7844730889342</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D8" t="n">
-        <v>285.1327311248648</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E8" t="n">
-        <v>285.1327311248648</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F8" t="n">
-        <v>278.1872303756613</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X8" t="n">
-        <v>333.7844730889342</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y8" t="n">
-        <v>333.7844730889342</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>279.5233881080029</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C9" t="n">
-        <v>279.5233881080029</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D9" t="n">
-        <v>130.5889784467516</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>130.5889784467516</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>130.5889784467516</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>248.2447175439888</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>487.2836868729568</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y9" t="n">
-        <v>279.5233881080029</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="10">
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1967.081094457219</v>
+        <v>1614.312439187104</v>
       </c>
       <c r="C11" t="n">
-        <v>1967.081094457219</v>
+        <v>1245.349922246693</v>
       </c>
       <c r="D11" t="n">
-        <v>1608.815395850468</v>
+        <v>922.8937857436079</v>
       </c>
       <c r="E11" t="n">
-        <v>1223.027143252224</v>
+        <v>922.8937857436079</v>
       </c>
       <c r="F11" t="n">
-        <v>812.0412384626165</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="G11" t="n">
-        <v>394.953456699044</v>
+        <v>511.9078809540003</v>
       </c>
       <c r="H11" t="n">
-        <v>76.73034147155352</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I11" t="n">
         <v>73.99179512662066</v>
@@ -5080,13 +5080,13 @@
         <v>2743.820266497152</v>
       </c>
       <c r="W11" t="n">
-        <v>2743.820266497152</v>
+        <v>2391.051611227038</v>
       </c>
       <c r="X11" t="n">
-        <v>2743.820266497152</v>
+        <v>2391.051611227038</v>
       </c>
       <c r="Y11" t="n">
-        <v>2353.680934521341</v>
+        <v>2000.912279251226</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>73.99179512662066</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835163</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K12" t="n">
-        <v>260.2588666468733</v>
+        <v>403.4201994324305</v>
       </c>
       <c r="L12" t="n">
-        <v>764.6204065129918</v>
+        <v>907.7817392985492</v>
       </c>
       <c r="M12" t="n">
-        <v>944.1177428675967</v>
+        <v>1087.279075653154</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273623</v>
+        <v>1760.484767905937</v>
       </c>
       <c r="O12" t="n">
         <v>2001.655628026346</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.9279780545276</v>
+        <v>556.7847492656279</v>
       </c>
       <c r="C13" t="n">
-        <v>73.99179512662066</v>
+        <v>556.7847492656279</v>
       </c>
       <c r="D13" t="n">
-        <v>73.99179512662066</v>
+        <v>406.6681098532921</v>
       </c>
       <c r="E13" t="n">
-        <v>73.99179512662066</v>
+        <v>258.755016270899</v>
       </c>
       <c r="F13" t="n">
-        <v>73.99179512662066</v>
+        <v>258.755016270899</v>
       </c>
       <c r="G13" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="H13" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662066</v>
+        <v>91.86638288598327</v>
       </c>
       <c r="J13" t="n">
         <v>73.99179512662066</v>
@@ -5226,25 +5226,25 @@
         <v>1073.926476585965</v>
       </c>
       <c r="S13" t="n">
-        <v>866.4861918383708</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="T13" t="n">
-        <v>866.4861918383708</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="U13" t="n">
-        <v>577.3340154160505</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="V13" t="n">
-        <v>577.3340154160505</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="W13" t="n">
-        <v>463.7205571980577</v>
+        <v>784.7743001636452</v>
       </c>
       <c r="X13" t="n">
-        <v>463.7205571980577</v>
+        <v>556.7847492656279</v>
       </c>
       <c r="Y13" t="n">
-        <v>242.9279780545276</v>
+        <v>556.7847492656279</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1980.215176260261</v>
+        <v>2298.143981800789</v>
       </c>
       <c r="C14" t="n">
-        <v>1611.252659319849</v>
+        <v>1929.181464860378</v>
       </c>
       <c r="D14" t="n">
-        <v>1252.986960713099</v>
+        <v>1570.915766253627</v>
       </c>
       <c r="E14" t="n">
-        <v>1252.986960713099</v>
+        <v>1339.98156750718</v>
       </c>
       <c r="F14" t="n">
         <v>928.9956627175729</v>
@@ -5314,16 +5314,16 @@
         <v>3074.883153840723</v>
       </c>
       <c r="V14" t="n">
-        <v>2743.820266497152</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="W14" t="n">
-        <v>2743.820266497152</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="X14" t="n">
-        <v>2370.354508236072</v>
+        <v>3074.883153840723</v>
       </c>
       <c r="Y14" t="n">
-        <v>1980.215176260261</v>
+        <v>2684.743821864911</v>
       </c>
     </row>
     <row r="15">
@@ -5366,7 +5366,7 @@
         <v>1026.440991155445</v>
       </c>
       <c r="M15" t="n">
-        <v>1253.562877620958</v>
+        <v>1205.93832751005</v>
       </c>
       <c r="N15" t="n">
         <v>1452.219619273623</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>540.6283731259662</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="C16" t="n">
-        <v>540.6283731259662</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="D16" t="n">
-        <v>390.5117337136304</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="E16" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="F16" t="n">
-        <v>242.5986401312373</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="G16" t="n">
         <v>73.99179512662066</v>
@@ -5460,28 +5460,28 @@
         <v>1073.926476585965</v>
       </c>
       <c r="R16" t="n">
-        <v>943.4485153053681</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S16" t="n">
-        <v>736.0082305577735</v>
+        <v>866.4861918383708</v>
       </c>
       <c r="T16" t="n">
-        <v>736.0082305577735</v>
+        <v>777.4584133740549</v>
       </c>
       <c r="U16" t="n">
-        <v>736.0082305577735</v>
+        <v>777.4584133740549</v>
       </c>
       <c r="V16" t="n">
-        <v>736.0082305577735</v>
+        <v>522.773925168168</v>
       </c>
       <c r="W16" t="n">
-        <v>736.0082305577735</v>
+        <v>522.773925168168</v>
       </c>
       <c r="X16" t="n">
-        <v>736.0082305577735</v>
+        <v>294.7843742701507</v>
       </c>
       <c r="Y16" t="n">
-        <v>540.6283731259662</v>
+        <v>73.99179512662066</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>187.8918733206314</v>
       </c>
       <c r="I17" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J17" t="n">
         <v>305.7779228843438</v>
@@ -5524,7 +5524,7 @@
         <v>1374.354485507892</v>
       </c>
       <c r="M17" t="n">
-        <v>2075.256332597386</v>
+        <v>2075.256332597387</v>
       </c>
       <c r="N17" t="n">
         <v>2772.867506797296</v>
@@ -5533,28 +5533,28 @@
         <v>3386.414318839711</v>
       </c>
       <c r="P17" t="n">
-        <v>3872.3879451032</v>
+        <v>3872.387945103199</v>
       </c>
       <c r="Q17" t="n">
-        <v>4160.112139796713</v>
+        <v>4160.112139796712</v>
       </c>
       <c r="R17" t="n">
-        <v>4184.862129947446</v>
+        <v>4184.862129947445</v>
       </c>
       <c r="S17" t="n">
-        <v>4037.807806275404</v>
+        <v>4037.807806275403</v>
       </c>
       <c r="T17" t="n">
-        <v>3824.767726212705</v>
+        <v>3824.767726212704</v>
       </c>
       <c r="U17" t="n">
-        <v>3571.10818344525</v>
+        <v>3824.767726212704</v>
       </c>
       <c r="V17" t="n">
-        <v>3240.045296101679</v>
+        <v>3824.767726212704</v>
       </c>
       <c r="W17" t="n">
-        <v>3240.045296101679</v>
+        <v>3592.891022561252</v>
       </c>
       <c r="X17" t="n">
         <v>3219.425264300172</v>
@@ -5591,7 +5591,7 @@
         <v>122.1965121406916</v>
       </c>
       <c r="I18" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J18" t="n">
         <v>222.273594688958</v>
@@ -5600,13 +5600,13 @@
         <v>585.7434956422094</v>
       </c>
       <c r="L18" t="n">
-        <v>768.7460868820008</v>
+        <v>1135.878028732425</v>
       </c>
       <c r="M18" t="n">
-        <v>1453.111105351556</v>
+        <v>1368.790289206939</v>
       </c>
       <c r="N18" t="n">
-        <v>1706.596505224516</v>
+        <v>1622.2756890799</v>
       </c>
       <c r="O18" t="n">
         <v>1916.266328517004</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>299.8051072498752</v>
+        <v>527.7742342234203</v>
       </c>
       <c r="C19" t="n">
-        <v>299.8051072498752</v>
+        <v>358.8380512955134</v>
       </c>
       <c r="D19" t="n">
-        <v>149.6884678375394</v>
+        <v>358.8380512955134</v>
       </c>
       <c r="E19" t="n">
-        <v>149.6884678375394</v>
+        <v>210.9249577131203</v>
       </c>
       <c r="F19" t="n">
-        <v>149.6884678375394</v>
+        <v>210.9249577131203</v>
       </c>
       <c r="G19" t="n">
-        <v>149.6884678375394</v>
+        <v>210.9249577131203</v>
       </c>
       <c r="H19" t="n">
-        <v>149.6884678375394</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="I19" t="n">
-        <v>88.82277554731296</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J19" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="K19" t="n">
-        <v>205.2788683970686</v>
+        <v>205.2788683970685</v>
       </c>
       <c r="L19" t="n">
         <v>416.3879249329296</v>
       </c>
       <c r="M19" t="n">
-        <v>649.3619484706244</v>
+        <v>649.3619484706243</v>
       </c>
       <c r="N19" t="n">
-        <v>882.2309868729923</v>
+        <v>882.2309868729922</v>
       </c>
       <c r="O19" t="n">
-        <v>1081.306939269152</v>
+        <v>1081.306939269151</v>
       </c>
       <c r="P19" t="n">
         <v>1228.13012574869</v>
@@ -5700,25 +5700,25 @@
         <v>1246.347809466492</v>
       </c>
       <c r="S19" t="n">
-        <v>1246.347809466492</v>
+        <v>1042.050116730301</v>
       </c>
       <c r="T19" t="n">
-        <v>1246.347809466492</v>
+        <v>817.1914042603809</v>
       </c>
       <c r="U19" t="n">
-        <v>1246.347809466492</v>
+        <v>817.1914042603809</v>
       </c>
       <c r="V19" t="n">
-        <v>991.6633212606056</v>
+        <v>817.1914042603809</v>
       </c>
       <c r="W19" t="n">
-        <v>702.246151223645</v>
+        <v>527.7742342234203</v>
       </c>
       <c r="X19" t="n">
-        <v>702.246151223645</v>
+        <v>527.7742342234203</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.4535720801149</v>
+        <v>527.7742342234203</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1737.071710530551</v>
+        <v>2442.686092260238</v>
       </c>
       <c r="C20" t="n">
-        <v>1715.457876713076</v>
+        <v>2073.723575319827</v>
       </c>
       <c r="D20" t="n">
         <v>1715.457876713076</v>
@@ -5743,61 +5743,61 @@
         <v>918.6837193252243</v>
       </c>
       <c r="G20" t="n">
-        <v>501.9979436540766</v>
+        <v>501.9979436540765</v>
       </c>
       <c r="H20" t="n">
         <v>187.8918733206314</v>
       </c>
       <c r="I20" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J20" t="n">
-        <v>305.7779228843442</v>
+        <v>305.7779228843438</v>
       </c>
       <c r="K20" t="n">
-        <v>759.3640984023318</v>
+        <v>759.3640984023314</v>
       </c>
       <c r="L20" t="n">
-        <v>1374.354485507893</v>
+        <v>1374.354485507892</v>
       </c>
       <c r="M20" t="n">
-        <v>2075.256332597387</v>
+        <v>2075.256332597386</v>
       </c>
       <c r="N20" t="n">
-        <v>2772.867506797297</v>
+        <v>2772.867506797296</v>
       </c>
       <c r="O20" t="n">
-        <v>3386.414318839711</v>
+        <v>3386.41431883971</v>
       </c>
       <c r="P20" t="n">
-        <v>3872.3879451032</v>
+        <v>3872.387945103199</v>
       </c>
       <c r="Q20" t="n">
-        <v>4160.112139796713</v>
+        <v>4160.112139796712</v>
       </c>
       <c r="R20" t="n">
-        <v>4184.862129947446</v>
+        <v>4184.862129947445</v>
       </c>
       <c r="S20" t="n">
-        <v>4037.807806275404</v>
+        <v>4037.807806275403</v>
       </c>
       <c r="T20" t="n">
-        <v>3824.767726212705</v>
+        <v>3824.767726212704</v>
       </c>
       <c r="U20" t="n">
-        <v>3571.10818344525</v>
+        <v>3571.108183445249</v>
       </c>
       <c r="V20" t="n">
-        <v>3240.045296101679</v>
+        <v>3571.108183445249</v>
       </c>
       <c r="W20" t="n">
-        <v>2887.276640831565</v>
+        <v>3218.339528175135</v>
       </c>
       <c r="X20" t="n">
-        <v>2513.810882570485</v>
+        <v>2844.873769914055</v>
       </c>
       <c r="Y20" t="n">
-        <v>2123.671550594673</v>
+        <v>2454.734437938243</v>
       </c>
     </row>
     <row r="21">
@@ -5822,28 +5822,28 @@
         <v>358.2614573758884</v>
       </c>
       <c r="G21" t="n">
-        <v>221.0351519571092</v>
+        <v>221.0351519571091</v>
       </c>
       <c r="H21" t="n">
-        <v>122.1965121406916</v>
+        <v>122.1965121406915</v>
       </c>
       <c r="I21" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J21" t="n">
-        <v>97.44346970195329</v>
+        <v>222.273594688958</v>
       </c>
       <c r="K21" t="n">
-        <v>199.0927860127518</v>
+        <v>585.7434956422094</v>
       </c>
       <c r="L21" t="n">
-        <v>382.0953772525432</v>
+        <v>1135.878028732425</v>
       </c>
       <c r="M21" t="n">
-        <v>615.0076377270573</v>
+        <v>1368.790289206939</v>
       </c>
       <c r="N21" t="n">
-        <v>1316.672809140554</v>
+        <v>1622.2756890799</v>
       </c>
       <c r="O21" t="n">
         <v>1916.266328517004</v>
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>524.3735829184531</v>
+        <v>341.7143369109641</v>
       </c>
       <c r="C22" t="n">
-        <v>355.4373999905462</v>
+        <v>236.3486227950876</v>
       </c>
       <c r="D22" t="n">
-        <v>355.4373999905462</v>
+        <v>236.3486227950876</v>
       </c>
       <c r="E22" t="n">
-        <v>355.4373999905462</v>
+        <v>236.3486227950876</v>
       </c>
       <c r="F22" t="n">
-        <v>355.4373999905462</v>
+        <v>236.3486227950876</v>
       </c>
       <c r="G22" t="n">
-        <v>355.4373999905462</v>
+        <v>236.3486227950876</v>
       </c>
       <c r="H22" t="n">
-        <v>202.7860197944075</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="I22" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J22" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="K22" t="n">
-        <v>205.2788683970686</v>
+        <v>205.2788683970685</v>
       </c>
       <c r="L22" t="n">
         <v>416.3879249329296</v>
@@ -5943,19 +5943,19 @@
         <v>817.1914042603811</v>
       </c>
       <c r="U22" t="n">
-        <v>779.0580711243399</v>
+        <v>817.1914042603811</v>
       </c>
       <c r="V22" t="n">
-        <v>524.3735829184531</v>
+        <v>562.5069160544942</v>
       </c>
       <c r="W22" t="n">
-        <v>524.3735829184531</v>
+        <v>562.5069160544942</v>
       </c>
       <c r="X22" t="n">
-        <v>524.3735829184531</v>
+        <v>562.5069160544942</v>
       </c>
       <c r="Y22" t="n">
-        <v>524.3735829184531</v>
+        <v>341.7143369109641</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2110.53746879163</v>
+        <v>2026.000316589091</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.574951851218</v>
+        <v>1657.037799648679</v>
       </c>
       <c r="D23" t="n">
-        <v>1715.457876713076</v>
+        <v>1298.772101041928</v>
       </c>
       <c r="E23" t="n">
-        <v>1329.669624114832</v>
+        <v>912.9838484436841</v>
       </c>
       <c r="F23" t="n">
-        <v>918.6837193252243</v>
+        <v>501.9979436540766</v>
       </c>
       <c r="G23" t="n">
-        <v>501.9979436540765</v>
+        <v>501.9979436540766</v>
       </c>
       <c r="H23" t="n">
         <v>187.8918733206314</v>
       </c>
       <c r="I23" t="n">
-        <v>83.6972425989489</v>
+        <v>83.69724259894893</v>
       </c>
       <c r="J23" t="n">
-        <v>305.7779228843438</v>
+        <v>305.7779228843442</v>
       </c>
       <c r="K23" t="n">
-        <v>759.3640984023314</v>
+        <v>759.3640984023318</v>
       </c>
       <c r="L23" t="n">
-        <v>1374.354485507892</v>
+        <v>1374.354485507893</v>
       </c>
       <c r="M23" t="n">
-        <v>2075.256332597386</v>
+        <v>2075.256332597387</v>
       </c>
       <c r="N23" t="n">
-        <v>2772.867506797296</v>
+        <v>2772.867506797297</v>
       </c>
       <c r="O23" t="n">
         <v>3386.414318839711</v>
       </c>
       <c r="P23" t="n">
-        <v>3872.387945103199</v>
+        <v>3872.3879451032</v>
       </c>
       <c r="Q23" t="n">
-        <v>4160.112139796712</v>
+        <v>4160.112139796713</v>
       </c>
       <c r="R23" t="n">
-        <v>4184.862129947445</v>
+        <v>4184.862129947446</v>
       </c>
       <c r="S23" t="n">
-        <v>4037.807806275403</v>
+        <v>4037.807806275404</v>
       </c>
       <c r="T23" t="n">
-        <v>3824.767726212704</v>
+        <v>3824.767726212705</v>
       </c>
       <c r="U23" t="n">
-        <v>3571.108183445249</v>
+        <v>3571.10818344525</v>
       </c>
       <c r="V23" t="n">
-        <v>3240.045296101678</v>
+        <v>3240.045296101679</v>
       </c>
       <c r="W23" t="n">
-        <v>2887.276640831564</v>
+        <v>2887.276640831565</v>
       </c>
       <c r="X23" t="n">
-        <v>2887.276640831564</v>
+        <v>2513.810882570485</v>
       </c>
       <c r="Y23" t="n">
-        <v>2497.137308855752</v>
+        <v>2123.671550594673</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>358.2614573758884</v>
       </c>
       <c r="G24" t="n">
-        <v>221.0351519571091</v>
+        <v>221.0351519571092</v>
       </c>
       <c r="H24" t="n">
-        <v>122.1965121406915</v>
+        <v>122.1965121406916</v>
       </c>
       <c r="I24" t="n">
-        <v>83.6972425989489</v>
+        <v>83.69724259894893</v>
       </c>
       <c r="J24" t="n">
-        <v>222.273594688958</v>
+        <v>133.2809333419004</v>
       </c>
       <c r="K24" t="n">
-        <v>585.7434956422094</v>
+        <v>234.9302496526989</v>
       </c>
       <c r="L24" t="n">
-        <v>1135.878028732425</v>
+        <v>417.9328408924903</v>
       </c>
       <c r="M24" t="n">
-        <v>1368.790289206939</v>
+        <v>1111.893114479504</v>
       </c>
       <c r="N24" t="n">
-        <v>1622.2756890799</v>
+        <v>1839.927464952583</v>
       </c>
       <c r="O24" t="n">
-        <v>1916.266328517004</v>
+        <v>2439.520984329033</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.48992123763</v>
+        <v>2588.466436096121</v>
       </c>
       <c r="Q24" t="n">
         <v>2638.113329722987</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>402.2404009223935</v>
+        <v>405.6792194215584</v>
       </c>
       <c r="C25" t="n">
-        <v>402.2404009223935</v>
+        <v>405.6792194215584</v>
       </c>
       <c r="D25" t="n">
-        <v>252.1237615100578</v>
+        <v>405.6792194215584</v>
       </c>
       <c r="E25" t="n">
-        <v>252.1237615100578</v>
+        <v>405.6792194215584</v>
       </c>
       <c r="F25" t="n">
-        <v>252.1237615100578</v>
+        <v>404.7751417061965</v>
       </c>
       <c r="G25" t="n">
-        <v>83.6972425989489</v>
+        <v>236.3486227950876</v>
       </c>
       <c r="H25" t="n">
-        <v>83.6972425989489</v>
+        <v>83.69724259894893</v>
       </c>
       <c r="I25" t="n">
-        <v>83.6972425989489</v>
+        <v>83.69724259894893</v>
       </c>
       <c r="J25" t="n">
-        <v>83.6972425989489</v>
+        <v>83.69724259894893</v>
       </c>
       <c r="K25" t="n">
-        <v>205.2788683970685</v>
+        <v>205.2788683970686</v>
       </c>
       <c r="L25" t="n">
         <v>416.3879249329296</v>
@@ -6174,25 +6174,25 @@
         <v>1123.977965081253</v>
       </c>
       <c r="S25" t="n">
-        <v>1123.977965081253</v>
+        <v>919.6802723450619</v>
       </c>
       <c r="T25" t="n">
-        <v>899.1192526113331</v>
+        <v>694.8215598751418</v>
       </c>
       <c r="U25" t="n">
-        <v>899.1192526113331</v>
+        <v>405.6792194215584</v>
       </c>
       <c r="V25" t="n">
-        <v>644.4347644054462</v>
+        <v>405.6792194215584</v>
       </c>
       <c r="W25" t="n">
-        <v>644.4347644054462</v>
+        <v>405.6792194215584</v>
       </c>
       <c r="X25" t="n">
-        <v>416.4452135074289</v>
+        <v>405.6792194215584</v>
       </c>
       <c r="Y25" t="n">
-        <v>402.2404009223935</v>
+        <v>405.6792194215584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1737.071710530551</v>
+        <v>1980.225762931805</v>
       </c>
       <c r="C26" t="n">
-        <v>1368.10919359014</v>
+        <v>1611.263245991394</v>
       </c>
       <c r="D26" t="n">
-        <v>1009.843494983389</v>
+        <v>1611.263245991394</v>
       </c>
       <c r="E26" t="n">
-        <v>1009.843494983389</v>
+        <v>1225.474993393149</v>
       </c>
       <c r="F26" t="n">
-        <v>598.8575901937818</v>
+        <v>814.4890886035419</v>
       </c>
       <c r="G26" t="n">
-        <v>501.9979436540766</v>
+        <v>397.803312932394</v>
       </c>
       <c r="H26" t="n">
-        <v>187.8918733206314</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="I26" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J26" t="n">
         <v>305.7779228843438</v>
@@ -6244,34 +6244,34 @@
         <v>3386.414318839711</v>
       </c>
       <c r="P26" t="n">
-        <v>3872.3879451032</v>
+        <v>3872.387945103199</v>
       </c>
       <c r="Q26" t="n">
-        <v>4160.112139796713</v>
+        <v>4160.112139796712</v>
       </c>
       <c r="R26" t="n">
-        <v>4184.862129947446</v>
+        <v>4184.862129947445</v>
       </c>
       <c r="S26" t="n">
-        <v>4037.807806275404</v>
+        <v>4037.807806275403</v>
       </c>
       <c r="T26" t="n">
-        <v>3824.767726212705</v>
+        <v>3824.767726212704</v>
       </c>
       <c r="U26" t="n">
-        <v>3571.10818344525</v>
+        <v>3571.108183445249</v>
       </c>
       <c r="V26" t="n">
-        <v>3240.045296101679</v>
+        <v>3483.199348502933</v>
       </c>
       <c r="W26" t="n">
-        <v>2887.276640831565</v>
+        <v>3130.430693232819</v>
       </c>
       <c r="X26" t="n">
-        <v>2513.810882570485</v>
+        <v>2756.964934971739</v>
       </c>
       <c r="Y26" t="n">
-        <v>2123.671550594673</v>
+        <v>2366.825602995927</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>358.2614573758884</v>
       </c>
       <c r="G27" t="n">
-        <v>221.0351519571092</v>
+        <v>221.0351519571091</v>
       </c>
       <c r="H27" t="n">
-        <v>122.1965121406916</v>
+        <v>122.1965121406915</v>
       </c>
       <c r="I27" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J27" t="n">
-        <v>97.44346970195329</v>
+        <v>133.2809333419004</v>
       </c>
       <c r="K27" t="n">
-        <v>460.9133706552047</v>
+        <v>234.9302496526989</v>
       </c>
       <c r="L27" t="n">
-        <v>643.915961894996</v>
+        <v>417.9328408924903</v>
       </c>
       <c r="M27" t="n">
-        <v>1063.187409267594</v>
+        <v>1111.893114479504</v>
       </c>
       <c r="N27" t="n">
-        <v>1316.672809140554</v>
+        <v>1839.927464952583</v>
       </c>
       <c r="O27" t="n">
-        <v>1916.266328517004</v>
+        <v>2439.520984329033</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.48992123763</v>
+        <v>2588.466436096121</v>
       </c>
       <c r="Q27" t="n">
         <v>2638.113329722987</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3309.726859186469</v>
+        <v>848.0422741902618</v>
       </c>
       <c r="C28" t="n">
-        <v>3309.726859186469</v>
+        <v>679.1060912623549</v>
       </c>
       <c r="D28" t="n">
-        <v>3309.726859186469</v>
+        <v>528.9894518500191</v>
       </c>
       <c r="E28" t="n">
-        <v>3309.726859186469</v>
+        <v>528.9894518500191</v>
       </c>
       <c r="F28" t="n">
-        <v>3309.726859186469</v>
+        <v>528.9894518500191</v>
       </c>
       <c r="G28" t="n">
-        <v>3141.30034027536</v>
+        <v>360.5629329389102</v>
       </c>
       <c r="H28" t="n">
-        <v>3141.30034027536</v>
+        <v>207.9115527427715</v>
       </c>
       <c r="I28" t="n">
-        <v>3022.211563079902</v>
+        <v>88.82277554731293</v>
       </c>
       <c r="J28" t="n">
-        <v>3022.211563079902</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="K28" t="n">
-        <v>3143.793188878021</v>
+        <v>205.2788683970685</v>
       </c>
       <c r="L28" t="n">
-        <v>3354.902245413883</v>
+        <v>416.3879249329296</v>
       </c>
       <c r="M28" t="n">
-        <v>3587.876268951577</v>
+        <v>649.3619484706244</v>
       </c>
       <c r="N28" t="n">
-        <v>3820.745307353945</v>
+        <v>882.2309868729923</v>
       </c>
       <c r="O28" t="n">
-        <v>4019.821259750105</v>
+        <v>1081.306939269152</v>
       </c>
       <c r="P28" t="n">
-        <v>4166.644446229643</v>
+        <v>1228.13012574869</v>
       </c>
       <c r="Q28" t="n">
-        <v>4184.862129947446</v>
+        <v>1246.347809466492</v>
       </c>
       <c r="R28" t="n">
-        <v>4184.862129947446</v>
+        <v>1123.977965081253</v>
       </c>
       <c r="S28" t="n">
-        <v>4184.862129947446</v>
+        <v>1123.977965081253</v>
       </c>
       <c r="T28" t="n">
-        <v>3960.003417477526</v>
+        <v>1123.977965081253</v>
       </c>
       <c r="U28" t="n">
-        <v>3960.003417477526</v>
+        <v>1123.977965081253</v>
       </c>
       <c r="V28" t="n">
-        <v>3758.508989228017</v>
+        <v>869.2934768753663</v>
       </c>
       <c r="W28" t="n">
-        <v>3758.508989228017</v>
+        <v>869.2934768753663</v>
       </c>
       <c r="X28" t="n">
-        <v>3530.519438329999</v>
+        <v>848.0422741902618</v>
       </c>
       <c r="Y28" t="n">
-        <v>3309.726859186469</v>
+        <v>848.0422741902618</v>
       </c>
     </row>
     <row r="29">
@@ -6454,61 +6454,61 @@
         <v>918.6837193252243</v>
       </c>
       <c r="G29" t="n">
-        <v>501.9979436540766</v>
+        <v>501.9979436540765</v>
       </c>
       <c r="H29" t="n">
         <v>187.8918733206314</v>
       </c>
       <c r="I29" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J29" t="n">
-        <v>305.7779228843442</v>
+        <v>305.7779228843438</v>
       </c>
       <c r="K29" t="n">
-        <v>759.3640984023318</v>
+        <v>759.3640984023314</v>
       </c>
       <c r="L29" t="n">
-        <v>1374.354485507893</v>
+        <v>1374.354485507892</v>
       </c>
       <c r="M29" t="n">
-        <v>2075.256332597387</v>
+        <v>2075.256332597386</v>
       </c>
       <c r="N29" t="n">
-        <v>2772.867506797297</v>
+        <v>2772.867506797296</v>
       </c>
       <c r="O29" t="n">
-        <v>3386.414318839711</v>
+        <v>3386.41431883971</v>
       </c>
       <c r="P29" t="n">
-        <v>3872.3879451032</v>
+        <v>3872.387945103199</v>
       </c>
       <c r="Q29" t="n">
-        <v>4160.112139796713</v>
+        <v>4160.112139796712</v>
       </c>
       <c r="R29" t="n">
-        <v>4184.862129947446</v>
+        <v>4184.862129947445</v>
       </c>
       <c r="S29" t="n">
-        <v>4037.807806275404</v>
+        <v>4037.807806275403</v>
       </c>
       <c r="T29" t="n">
-        <v>3824.767726212705</v>
+        <v>3824.767726212704</v>
       </c>
       <c r="U29" t="n">
-        <v>3571.10818344525</v>
+        <v>3571.108183445249</v>
       </c>
       <c r="V29" t="n">
-        <v>3571.10818344525</v>
+        <v>3240.045296101678</v>
       </c>
       <c r="W29" t="n">
-        <v>3218.339528175135</v>
+        <v>2887.276640831564</v>
       </c>
       <c r="X29" t="n">
-        <v>2844.873769914056</v>
+        <v>2513.810882570484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2454.734437938244</v>
+        <v>2442.686092260238</v>
       </c>
     </row>
     <row r="30">
@@ -6533,34 +6533,34 @@
         <v>358.2614573758884</v>
       </c>
       <c r="G30" t="n">
-        <v>221.0351519571092</v>
+        <v>221.0351519571091</v>
       </c>
       <c r="H30" t="n">
-        <v>122.1965121406916</v>
+        <v>122.1965121406915</v>
       </c>
       <c r="I30" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J30" t="n">
-        <v>97.44346970195329</v>
+        <v>133.2809333419004</v>
       </c>
       <c r="K30" t="n">
-        <v>460.9133706552047</v>
+        <v>234.9302496526989</v>
       </c>
       <c r="L30" t="n">
-        <v>643.915961894996</v>
+        <v>417.9328408924903</v>
       </c>
       <c r="M30" t="n">
-        <v>876.8282223695101</v>
+        <v>1111.893114479504</v>
       </c>
       <c r="N30" t="n">
-        <v>1316.672809140554</v>
+        <v>1839.927464952583</v>
       </c>
       <c r="O30" t="n">
-        <v>1916.266328517004</v>
+        <v>2439.520984329033</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.48992123763</v>
+        <v>2588.466436096121</v>
       </c>
       <c r="Q30" t="n">
         <v>2638.113329722987</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3169.101510577812</v>
+        <v>413.1038107700616</v>
       </c>
       <c r="C31" t="n">
-        <v>3169.101510577812</v>
+        <v>413.1038107700616</v>
       </c>
       <c r="D31" t="n">
-        <v>3169.101510577812</v>
+        <v>262.9871713577259</v>
       </c>
       <c r="E31" t="n">
-        <v>3169.101510577812</v>
+        <v>115.0740777753327</v>
       </c>
       <c r="F31" t="n">
-        <v>3022.211563079902</v>
+        <v>115.0740777753327</v>
       </c>
       <c r="G31" t="n">
-        <v>3022.211563079902</v>
+        <v>115.0740777753327</v>
       </c>
       <c r="H31" t="n">
-        <v>3022.211563079902</v>
+        <v>88.82277554731293</v>
       </c>
       <c r="I31" t="n">
-        <v>3022.211563079902</v>
+        <v>88.82277554731293</v>
       </c>
       <c r="J31" t="n">
-        <v>3022.211563079902</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="K31" t="n">
-        <v>3143.793188878021</v>
+        <v>205.2788683970685</v>
       </c>
       <c r="L31" t="n">
-        <v>3354.902245413883</v>
+        <v>416.3879249329296</v>
       </c>
       <c r="M31" t="n">
-        <v>3587.876268951577</v>
+        <v>649.3619484706244</v>
       </c>
       <c r="N31" t="n">
-        <v>3820.745307353945</v>
+        <v>882.2309868729923</v>
       </c>
       <c r="O31" t="n">
-        <v>4019.821259750105</v>
+        <v>1081.306939269152</v>
       </c>
       <c r="P31" t="n">
-        <v>4166.644446229643</v>
+        <v>1228.13012574869</v>
       </c>
       <c r="Q31" t="n">
-        <v>4184.862129947446</v>
+        <v>1246.347809466492</v>
       </c>
       <c r="R31" t="n">
-        <v>4184.862129947446</v>
+        <v>1246.347809466492</v>
       </c>
       <c r="S31" t="n">
-        <v>4184.862129947446</v>
+        <v>1246.347809466492</v>
       </c>
       <c r="T31" t="n">
-        <v>3960.003417477526</v>
+        <v>1246.347809466492</v>
       </c>
       <c r="U31" t="n">
-        <v>3670.861077023942</v>
+        <v>957.205469012909</v>
       </c>
       <c r="V31" t="n">
-        <v>3670.861077023942</v>
+        <v>702.5209808070222</v>
       </c>
       <c r="W31" t="n">
-        <v>3397.09106147583</v>
+        <v>413.1038107700616</v>
       </c>
       <c r="X31" t="n">
-        <v>3169.101510577812</v>
+        <v>413.1038107700616</v>
       </c>
       <c r="Y31" t="n">
-        <v>3169.101510577812</v>
+        <v>413.1038107700616</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1737.07171053055</v>
+        <v>2338.491461538556</v>
       </c>
       <c r="C32" t="n">
-        <v>1368.109193590139</v>
+        <v>1969.528944598144</v>
       </c>
       <c r="D32" t="n">
-        <v>1009.843494983388</v>
+        <v>1611.263245991394</v>
       </c>
       <c r="E32" t="n">
-        <v>918.6837193252243</v>
+        <v>1225.474993393149</v>
       </c>
       <c r="F32" t="n">
-        <v>918.6837193252243</v>
+        <v>814.4890886035419</v>
       </c>
       <c r="G32" t="n">
-        <v>501.9979436540765</v>
+        <v>397.8033129323941</v>
       </c>
       <c r="H32" t="n">
-        <v>187.8918733206314</v>
+        <v>83.69724259894893</v>
       </c>
       <c r="I32" t="n">
-        <v>83.6972425989489</v>
+        <v>83.69724259894893</v>
       </c>
       <c r="J32" t="n">
-        <v>305.7779228843438</v>
+        <v>305.7779228843442</v>
       </c>
       <c r="K32" t="n">
-        <v>759.3640984023314</v>
+        <v>759.3640984023318</v>
       </c>
       <c r="L32" t="n">
-        <v>1374.354485507892</v>
+        <v>1374.354485507893</v>
       </c>
       <c r="M32" t="n">
-        <v>2075.256332597386</v>
+        <v>2075.256332597387</v>
       </c>
       <c r="N32" t="n">
-        <v>2772.867506797296</v>
+        <v>2772.867506797297</v>
       </c>
       <c r="O32" t="n">
-        <v>3386.41431883971</v>
+        <v>3386.414318839711</v>
       </c>
       <c r="P32" t="n">
-        <v>3872.387945103199</v>
+        <v>3872.3879451032</v>
       </c>
       <c r="Q32" t="n">
-        <v>4160.112139796712</v>
+        <v>4160.112139796713</v>
       </c>
       <c r="R32" t="n">
-        <v>4184.862129947445</v>
+        <v>4184.862129947446</v>
       </c>
       <c r="S32" t="n">
-        <v>4037.807806275403</v>
+        <v>4037.807806275404</v>
       </c>
       <c r="T32" t="n">
-        <v>3824.767726212704</v>
+        <v>4037.807806275404</v>
       </c>
       <c r="U32" t="n">
-        <v>3571.108183445249</v>
+        <v>3784.148263507949</v>
       </c>
       <c r="V32" t="n">
-        <v>3240.045296101678</v>
+        <v>3784.148263507949</v>
       </c>
       <c r="W32" t="n">
-        <v>2887.276640831564</v>
+        <v>3488.69639183957</v>
       </c>
       <c r="X32" t="n">
-        <v>2513.810882570484</v>
+        <v>3115.23063357849</v>
       </c>
       <c r="Y32" t="n">
-        <v>2123.671550594672</v>
+        <v>2725.091301602678</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>358.2614573758884</v>
       </c>
       <c r="G33" t="n">
-        <v>221.0351519571091</v>
+        <v>221.0351519571092</v>
       </c>
       <c r="H33" t="n">
-        <v>122.1965121406915</v>
+        <v>122.1965121406916</v>
       </c>
       <c r="I33" t="n">
-        <v>83.6972425989489</v>
+        <v>83.69724259894893</v>
       </c>
       <c r="J33" t="n">
         <v>222.273594688958</v>
       </c>
       <c r="K33" t="n">
-        <v>323.9229109997565</v>
+        <v>323.9229109997566</v>
       </c>
       <c r="L33" t="n">
-        <v>577.2036505390706</v>
+        <v>874.0574440899725</v>
       </c>
       <c r="M33" t="n">
-        <v>1271.163924126085</v>
+        <v>1568.017717676986</v>
       </c>
       <c r="N33" t="n">
-        <v>1524.649323999045</v>
+        <v>1821.503117549947</v>
       </c>
       <c r="O33" t="n">
-        <v>2124.242843375495</v>
+        <v>2421.096636926397</v>
       </c>
       <c r="P33" t="n">
-        <v>2588.466436096121</v>
+        <v>2570.042088693485</v>
       </c>
       <c r="Q33" t="n">
         <v>2638.113329722987</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3195.763614939374</v>
+        <v>3327.901569806798</v>
       </c>
       <c r="C34" t="n">
-        <v>3195.763614939374</v>
+        <v>3327.901569806798</v>
       </c>
       <c r="D34" t="n">
-        <v>3195.763614939374</v>
+        <v>3327.901569806798</v>
       </c>
       <c r="E34" t="n">
-        <v>3195.763614939374</v>
+        <v>3179.988476224405</v>
       </c>
       <c r="F34" t="n">
-        <v>3195.763614939374</v>
+        <v>3179.988476224405</v>
       </c>
       <c r="G34" t="n">
-        <v>3027.337096028265</v>
+        <v>3179.988476224405</v>
       </c>
       <c r="H34" t="n">
-        <v>3027.337096028265</v>
+        <v>3027.337096028266</v>
       </c>
       <c r="I34" t="n">
-        <v>3027.337096028265</v>
+        <v>3027.337096028266</v>
       </c>
       <c r="J34" t="n">
-        <v>3022.211563079901</v>
+        <v>3022.211563079902</v>
       </c>
       <c r="K34" t="n">
-        <v>3143.79318887802</v>
+        <v>3143.793188878021</v>
       </c>
       <c r="L34" t="n">
-        <v>3354.902245413882</v>
+        <v>3354.902245413883</v>
       </c>
       <c r="M34" t="n">
         <v>3587.876268951577</v>
@@ -6873,37 +6873,37 @@
         <v>3820.745307353945</v>
       </c>
       <c r="O34" t="n">
-        <v>4019.821259750104</v>
+        <v>4019.821259750105</v>
       </c>
       <c r="P34" t="n">
-        <v>4166.644446229642</v>
+        <v>4166.644446229643</v>
       </c>
       <c r="Q34" t="n">
-        <v>4184.862129947445</v>
+        <v>4184.862129947446</v>
       </c>
       <c r="R34" t="n">
-        <v>4158.821627487801</v>
+        <v>4161.145568503229</v>
       </c>
       <c r="S34" t="n">
-        <v>4158.821627487801</v>
+        <v>4161.145568503229</v>
       </c>
       <c r="T34" t="n">
-        <v>3933.962915017882</v>
+        <v>4161.145568503229</v>
       </c>
       <c r="U34" t="n">
-        <v>3933.962915017882</v>
+        <v>3872.003228049645</v>
       </c>
       <c r="V34" t="n">
-        <v>3933.962915017882</v>
+        <v>3617.318739843759</v>
       </c>
       <c r="W34" t="n">
-        <v>3644.545744980921</v>
+        <v>3327.901569806798</v>
       </c>
       <c r="X34" t="n">
-        <v>3416.556194082904</v>
+        <v>3327.901569806798</v>
       </c>
       <c r="Y34" t="n">
-        <v>3195.763614939374</v>
+        <v>3327.901569806798</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2215.188921546164</v>
+        <v>2442.686092260238</v>
       </c>
       <c r="C35" t="n">
-        <v>1846.226404605752</v>
+        <v>2073.723575319827</v>
       </c>
       <c r="D35" t="n">
-        <v>1487.960705999002</v>
+        <v>1715.457876713076</v>
       </c>
       <c r="E35" t="n">
-        <v>1102.172453400757</v>
+        <v>1329.669624114832</v>
       </c>
       <c r="F35" t="n">
-        <v>691.1865486111499</v>
+        <v>918.6837193252243</v>
       </c>
       <c r="G35" t="n">
-        <v>274.5007729400021</v>
+        <v>501.9979436540765</v>
       </c>
       <c r="H35" t="n">
         <v>187.8918733206314</v>
       </c>
       <c r="I35" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J35" t="n">
-        <v>305.7779228843442</v>
+        <v>305.7779228843438</v>
       </c>
       <c r="K35" t="n">
-        <v>759.3640984023318</v>
+        <v>759.3640984023314</v>
       </c>
       <c r="L35" t="n">
-        <v>1374.354485507893</v>
+        <v>1374.354485507892</v>
       </c>
       <c r="M35" t="n">
-        <v>2075.256332597387</v>
+        <v>2075.256332597386</v>
       </c>
       <c r="N35" t="n">
-        <v>2772.867506797297</v>
+        <v>2772.867506797296</v>
       </c>
       <c r="O35" t="n">
         <v>3386.414318839711</v>
       </c>
       <c r="P35" t="n">
-        <v>3872.3879451032</v>
+        <v>3872.387945103199</v>
       </c>
       <c r="Q35" t="n">
-        <v>4160.112139796713</v>
+        <v>4160.112139796712</v>
       </c>
       <c r="R35" t="n">
-        <v>4184.862129947446</v>
+        <v>4184.862129947445</v>
       </c>
       <c r="S35" t="n">
-        <v>4184.862129947446</v>
+        <v>4037.807806275403</v>
       </c>
       <c r="T35" t="n">
-        <v>3971.822049884747</v>
+        <v>3824.767726212704</v>
       </c>
       <c r="U35" t="n">
-        <v>3718.162507117292</v>
+        <v>3571.108183445249</v>
       </c>
       <c r="V35" t="n">
-        <v>3718.162507117292</v>
+        <v>3571.108183445249</v>
       </c>
       <c r="W35" t="n">
-        <v>3365.393851847177</v>
+        <v>3218.339528175135</v>
       </c>
       <c r="X35" t="n">
-        <v>2991.928093586097</v>
+        <v>2844.873769914055</v>
       </c>
       <c r="Y35" t="n">
-        <v>2601.788761610286</v>
+        <v>2454.734437938243</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>358.2614573758884</v>
       </c>
       <c r="G36" t="n">
-        <v>221.0351519571092</v>
+        <v>221.0351519571091</v>
       </c>
       <c r="H36" t="n">
-        <v>122.1965121406916</v>
+        <v>122.1965121406915</v>
       </c>
       <c r="I36" t="n">
-        <v>83.69724259894893</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="J36" t="n">
-        <v>97.44346970195329</v>
+        <v>222.273594688958</v>
       </c>
       <c r="K36" t="n">
-        <v>199.0927860127518</v>
+        <v>323.9229109997565</v>
       </c>
       <c r="L36" t="n">
-        <v>749.2273191029677</v>
+        <v>874.0574440899725</v>
       </c>
       <c r="M36" t="n">
-        <v>1443.187592689982</v>
+        <v>1568.017717676986</v>
       </c>
       <c r="N36" t="n">
-        <v>1696.672992562942</v>
+        <v>2229.851161036545</v>
       </c>
       <c r="O36" t="n">
-        <v>1916.266328517004</v>
+        <v>2439.520984329033</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.48992123763</v>
+        <v>2588.466436096121</v>
       </c>
       <c r="Q36" t="n">
         <v>2638.113329722987</v>
@@ -7071,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3645.421582045759</v>
+        <v>3306.923594699787</v>
       </c>
       <c r="C37" t="n">
-        <v>3645.421582045759</v>
+        <v>3306.923594699787</v>
       </c>
       <c r="D37" t="n">
-        <v>3495.304942633424</v>
+        <v>3174.862943276039</v>
       </c>
       <c r="E37" t="n">
-        <v>3495.304942633424</v>
+        <v>3174.862943276039</v>
       </c>
       <c r="F37" t="n">
-        <v>3348.414995135513</v>
+        <v>3174.862943276039</v>
       </c>
       <c r="G37" t="n">
-        <v>3179.988476224405</v>
+        <v>3174.862943276039</v>
       </c>
       <c r="H37" t="n">
-        <v>3027.337096028266</v>
+        <v>3022.211563079901</v>
       </c>
       <c r="I37" t="n">
-        <v>3027.337096028266</v>
+        <v>3022.211563079901</v>
       </c>
       <c r="J37" t="n">
-        <v>3022.211563079902</v>
+        <v>3022.211563079901</v>
       </c>
       <c r="K37" t="n">
-        <v>3143.793188878021</v>
+        <v>3143.79318887802</v>
       </c>
       <c r="L37" t="n">
-        <v>3354.902245413883</v>
+        <v>3354.902245413882</v>
       </c>
       <c r="M37" t="n">
         <v>3587.876268951577</v>
@@ -7110,37 +7110,37 @@
         <v>3820.745307353945</v>
       </c>
       <c r="O37" t="n">
-        <v>4019.821259750105</v>
+        <v>4019.821259750104</v>
       </c>
       <c r="P37" t="n">
-        <v>4166.644446229643</v>
+        <v>4166.644446229642</v>
       </c>
       <c r="Q37" t="n">
-        <v>4184.862129947446</v>
+        <v>4184.862129947445</v>
       </c>
       <c r="R37" t="n">
-        <v>4184.862129947446</v>
+        <v>4184.862129947445</v>
       </c>
       <c r="S37" t="n">
-        <v>3980.564437211255</v>
+        <v>3980.564437211254</v>
       </c>
       <c r="T37" t="n">
-        <v>3980.564437211255</v>
+        <v>3755.705724741334</v>
       </c>
       <c r="U37" t="n">
-        <v>3980.564437211255</v>
+        <v>3755.705724741334</v>
       </c>
       <c r="V37" t="n">
-        <v>3980.564437211255</v>
+        <v>3755.705724741334</v>
       </c>
       <c r="W37" t="n">
-        <v>3980.564437211255</v>
+        <v>3755.705724741334</v>
       </c>
       <c r="X37" t="n">
-        <v>3866.214161189289</v>
+        <v>3527.716173843317</v>
       </c>
       <c r="Y37" t="n">
-        <v>3645.421582045759</v>
+        <v>3306.923594699787</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2031.700187470631</v>
+        <v>2442.686092260238</v>
       </c>
       <c r="C38" t="n">
-        <v>1662.737670530219</v>
+        <v>2073.723575319827</v>
       </c>
       <c r="D38" t="n">
-        <v>1304.471971923469</v>
+        <v>1715.457876713076</v>
       </c>
       <c r="E38" t="n">
-        <v>918.6837193252243</v>
+        <v>1329.669624114832</v>
       </c>
       <c r="F38" t="n">
         <v>918.6837193252243</v>
@@ -7174,7 +7174,7 @@
         <v>83.6972425989489</v>
       </c>
       <c r="J38" t="n">
-        <v>305.7779228843438</v>
+        <v>305.7779228843437</v>
       </c>
       <c r="K38" t="n">
         <v>759.3640984023314</v>
@@ -7195,7 +7195,7 @@
         <v>3872.387945103199</v>
       </c>
       <c r="Q38" t="n">
-        <v>4160.112139796712</v>
+        <v>4160.112139796713</v>
       </c>
       <c r="R38" t="n">
         <v>4184.862129947445</v>
@@ -7204,22 +7204,22 @@
         <v>4037.807806275403</v>
       </c>
       <c r="T38" t="n">
-        <v>3824.767726212704</v>
+        <v>4037.807806275403</v>
       </c>
       <c r="U38" t="n">
-        <v>3571.108183445249</v>
+        <v>3923.953909904822</v>
       </c>
       <c r="V38" t="n">
-        <v>3240.045296101678</v>
+        <v>3592.891022561252</v>
       </c>
       <c r="W38" t="n">
-        <v>3181.905117771644</v>
+        <v>3592.891022561252</v>
       </c>
       <c r="X38" t="n">
-        <v>2808.439359510564</v>
+        <v>3219.425264300172</v>
       </c>
       <c r="Y38" t="n">
-        <v>2418.300027534753</v>
+        <v>2829.28593232436</v>
       </c>
     </row>
     <row r="39">
@@ -7253,19 +7253,19 @@
         <v>83.6972425989489</v>
       </c>
       <c r="J39" t="n">
-        <v>97.44346970195326</v>
+        <v>222.273594688958</v>
       </c>
       <c r="K39" t="n">
-        <v>199.0927860127518</v>
+        <v>323.9229109997565</v>
       </c>
       <c r="L39" t="n">
-        <v>749.2273191029677</v>
+        <v>874.0574440899725</v>
       </c>
       <c r="M39" t="n">
-        <v>1443.187592689982</v>
+        <v>1501.816810563466</v>
       </c>
       <c r="N39" t="n">
-        <v>2171.22194316306</v>
+        <v>2229.851161036545</v>
       </c>
       <c r="O39" t="n">
         <v>2439.520984329033</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>316.299993657214</v>
+        <v>350.1919027195706</v>
       </c>
       <c r="C40" t="n">
-        <v>316.299993657214</v>
+        <v>181.2557197916637</v>
       </c>
       <c r="D40" t="n">
-        <v>316.299993657214</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="E40" t="n">
-        <v>230.5871900968593</v>
+        <v>83.6972425989489</v>
       </c>
       <c r="F40" t="n">
         <v>83.6972425989489</v>
@@ -7368,16 +7368,16 @@
         <v>1042.050116730301</v>
       </c>
       <c r="V40" t="n">
-        <v>787.3656285244143</v>
+        <v>1042.050116730301</v>
       </c>
       <c r="W40" t="n">
-        <v>497.9484584874537</v>
+        <v>752.6329466933405</v>
       </c>
       <c r="X40" t="n">
-        <v>497.9484584874537</v>
+        <v>752.6329466933405</v>
       </c>
       <c r="Y40" t="n">
-        <v>497.9484584874537</v>
+        <v>531.8403675498104</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1678.229875249254</v>
+        <v>1912.10023839508</v>
       </c>
       <c r="C41" t="n">
-        <v>1678.229875249254</v>
+        <v>1543.137721454668</v>
       </c>
       <c r="D41" t="n">
-        <v>1319.964176642504</v>
+        <v>1184.872022847918</v>
       </c>
       <c r="E41" t="n">
-        <v>1319.964176642504</v>
+        <v>799.0837702496733</v>
       </c>
       <c r="F41" t="n">
-        <v>908.9782718528961</v>
+        <v>388.0978654600658</v>
       </c>
       <c r="G41" t="n">
-        <v>492.2924961817483</v>
+        <v>388.0978654600658</v>
       </c>
       <c r="H41" t="n">
-        <v>178.1864258483031</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I41" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J41" t="n">
         <v>128.6668263916624</v>
       </c>
       <c r="K41" t="n">
-        <v>582.25300190965</v>
+        <v>509.0335556899581</v>
       </c>
       <c r="L41" t="n">
-        <v>1124.023942795518</v>
+        <v>1124.023942795519</v>
       </c>
       <c r="M41" t="n">
-        <v>1824.925789885012</v>
+        <v>1824.925789885013</v>
       </c>
       <c r="N41" t="n">
-        <v>2522.536964084922</v>
+        <v>2522.536964084923</v>
       </c>
       <c r="O41" t="n">
         <v>3136.083776127337</v>
       </c>
       <c r="P41" t="n">
-        <v>3622.057402390825</v>
+        <v>3622.057402390826</v>
       </c>
       <c r="Q41" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R41" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S41" t="n">
-        <v>3552.53543265899</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T41" t="n">
-        <v>3413.157235661293</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="U41" t="n">
-        <v>3159.497692893838</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="V41" t="n">
-        <v>2828.434805550267</v>
+        <v>3368.526868987462</v>
       </c>
       <c r="W41" t="n">
-        <v>2828.434805550267</v>
+        <v>3015.758213717348</v>
       </c>
       <c r="X41" t="n">
-        <v>2454.969047289188</v>
+        <v>2688.839410435013</v>
       </c>
       <c r="Y41" t="n">
-        <v>2064.829715313376</v>
+        <v>2298.700078459201</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>112.4910646683633</v>
       </c>
       <c r="I42" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J42" t="n">
-        <v>212.5681472166297</v>
+        <v>212.5681472166298</v>
       </c>
       <c r="K42" t="n">
-        <v>576.0380481698811</v>
+        <v>314.2174635274283</v>
       </c>
       <c r="L42" t="n">
-        <v>759.0406394096724</v>
+        <v>497.2200547672197</v>
       </c>
       <c r="M42" t="n">
-        <v>1053.481961795266</v>
+        <v>1191.180328354234</v>
       </c>
       <c r="N42" t="n">
-        <v>1306.967361668226</v>
+        <v>1919.214678827312</v>
       </c>
       <c r="O42" t="n">
-        <v>1906.560881044676</v>
+        <v>2429.815536856705</v>
       </c>
       <c r="P42" t="n">
-        <v>2370.784473765302</v>
+        <v>2578.760988623792</v>
       </c>
       <c r="Q42" t="n">
         <v>2628.407882250659</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>221.9048887090138</v>
+        <v>106.5566019122694</v>
       </c>
       <c r="C43" t="n">
-        <v>221.9048887090138</v>
+        <v>106.5566019122694</v>
       </c>
       <c r="D43" t="n">
-        <v>221.9048887090138</v>
+        <v>106.5566019122694</v>
       </c>
       <c r="E43" t="n">
-        <v>73.99179512662064</v>
+        <v>106.5566019122694</v>
       </c>
       <c r="F43" t="n">
-        <v>73.99179512662064</v>
+        <v>106.5566019122694</v>
       </c>
       <c r="G43" t="n">
-        <v>73.99179512662064</v>
+        <v>106.5566019122694</v>
       </c>
       <c r="H43" t="n">
-        <v>73.99179512662064</v>
+        <v>106.5566019122694</v>
       </c>
       <c r="I43" t="n">
-        <v>73.99179512662064</v>
+        <v>79.11732807498468</v>
       </c>
       <c r="J43" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K43" t="n">
         <v>195.5734209247403</v>
@@ -7599,22 +7599,22 @@
         <v>909.9748248727335</v>
       </c>
       <c r="T43" t="n">
-        <v>909.9748248727335</v>
+        <v>685.1161124028134</v>
       </c>
       <c r="U43" t="n">
-        <v>909.9748248727335</v>
+        <v>395.97377194923</v>
       </c>
       <c r="V43" t="n">
-        <v>655.2903366668467</v>
+        <v>395.97377194923</v>
       </c>
       <c r="W43" t="n">
-        <v>655.2903366668467</v>
+        <v>106.5566019122694</v>
       </c>
       <c r="X43" t="n">
-        <v>442.6974678525439</v>
+        <v>106.5566019122694</v>
       </c>
       <c r="Y43" t="n">
-        <v>221.9048887090138</v>
+        <v>106.5566019122694</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2141.761647832105</v>
+        <v>1604.567992184252</v>
       </c>
       <c r="C44" t="n">
-        <v>1772.799130891693</v>
+        <v>1287.45172818562</v>
       </c>
       <c r="D44" t="n">
-        <v>1705.752429240748</v>
+        <v>1287.45172818562</v>
       </c>
       <c r="E44" t="n">
-        <v>1319.964176642504</v>
+        <v>901.6634755873761</v>
       </c>
       <c r="F44" t="n">
-        <v>908.9782718528961</v>
+        <v>490.6775707977685</v>
       </c>
       <c r="G44" t="n">
-        <v>492.2924961817483</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H44" t="n">
-        <v>178.1864258483031</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I44" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J44" t="n">
-        <v>296.0724754120154</v>
+        <v>265.5239474258353</v>
       </c>
       <c r="K44" t="n">
-        <v>749.658650930003</v>
+        <v>719.1101229438229</v>
       </c>
       <c r="L44" t="n">
-        <v>1364.649038035564</v>
+        <v>1334.100510049384</v>
       </c>
       <c r="M44" t="n">
-        <v>1620.532486967154</v>
+        <v>1589.983958980974</v>
       </c>
       <c r="N44" t="n">
-        <v>2318.143661167064</v>
+        <v>2287.595133180884</v>
       </c>
       <c r="O44" t="n">
-        <v>2931.690473209478</v>
+        <v>2901.141945223298</v>
       </c>
       <c r="P44" t="n">
-        <v>3417.664099472966</v>
+        <v>3387.115571486786</v>
       </c>
       <c r="Q44" t="n">
         <v>3674.839766180299</v>
       </c>
       <c r="R44" t="n">
-        <v>3699.589756331032</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S44" t="n">
-        <v>3699.589756331032</v>
+        <v>3552.535432658991</v>
       </c>
       <c r="T44" t="n">
-        <v>3486.549676268333</v>
+        <v>3339.495352596291</v>
       </c>
       <c r="U44" t="n">
-        <v>3232.890133500878</v>
+        <v>3085.835809828836</v>
       </c>
       <c r="V44" t="n">
-        <v>2901.827246157307</v>
+        <v>2754.772922485266</v>
       </c>
       <c r="W44" t="n">
-        <v>2901.827246157307</v>
+        <v>2754.772922485266</v>
       </c>
       <c r="X44" t="n">
-        <v>2528.361487896227</v>
+        <v>2381.307164224186</v>
       </c>
       <c r="Y44" t="n">
-        <v>2528.361487896227</v>
+        <v>1991.167832248374</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>112.4910646683633</v>
       </c>
       <c r="I45" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J45" t="n">
-        <v>87.738022229625</v>
+        <v>87.73802222962502</v>
       </c>
       <c r="K45" t="n">
-        <v>189.3873385404236</v>
+        <v>451.2079231828764</v>
       </c>
       <c r="L45" t="n">
-        <v>372.3899297802149</v>
+        <v>820.5697013207517</v>
       </c>
       <c r="M45" t="n">
-        <v>1066.350203367229</v>
+        <v>1053.481961795266</v>
       </c>
       <c r="N45" t="n">
-        <v>1794.384553840307</v>
+        <v>1306.967361668226</v>
       </c>
       <c r="O45" t="n">
-        <v>2393.978073216757</v>
+        <v>1906.560881044676</v>
       </c>
       <c r="P45" t="n">
-        <v>2542.923524983845</v>
+        <v>2370.784473765302</v>
       </c>
       <c r="Q45" t="n">
         <v>2628.407882250659</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>503.4676475725737</v>
+        <v>350.8574854665819</v>
       </c>
       <c r="C46" t="n">
-        <v>334.5314646446668</v>
+        <v>350.8574854665819</v>
       </c>
       <c r="D46" t="n">
-        <v>334.5314646446668</v>
+        <v>350.8574854665819</v>
       </c>
       <c r="E46" t="n">
-        <v>334.5314646446668</v>
+        <v>350.8574854665819</v>
       </c>
       <c r="F46" t="n">
-        <v>187.6415171467565</v>
+        <v>350.8574854665819</v>
       </c>
       <c r="G46" t="n">
-        <v>187.6415171467565</v>
+        <v>350.8574854665819</v>
       </c>
       <c r="H46" t="n">
-        <v>73.99179512662064</v>
+        <v>198.2061052704432</v>
       </c>
       <c r="I46" t="n">
-        <v>73.99179512662064</v>
+        <v>79.11732807498468</v>
       </c>
       <c r="J46" t="n">
-        <v>73.99179512662064</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K46" t="n">
         <v>195.5734209247403</v>
@@ -7839,19 +7839,19 @@
         <v>685.1161124028134</v>
       </c>
       <c r="U46" t="n">
-        <v>685.1161124028134</v>
+        <v>640.2746555035426</v>
       </c>
       <c r="V46" t="n">
-        <v>685.1161124028134</v>
+        <v>640.2746555035426</v>
       </c>
       <c r="W46" t="n">
-        <v>685.1161124028134</v>
+        <v>350.8574854665819</v>
       </c>
       <c r="X46" t="n">
-        <v>685.1161124028134</v>
+        <v>350.8574854665819</v>
       </c>
       <c r="Y46" t="n">
-        <v>685.1161124028134</v>
+        <v>350.8574854665819</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M3" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>369.8307175917693</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,10 +8780,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>312.5708431852136</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>82.48338126429135</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617263471</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>48.10560617263477</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9248,16 +9248,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>456.012886863678</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>85.17254156021937</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9479,22 +9479,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>452.7068399399359</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>85.17254156021863</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>36.19945822216878</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>85.17254156021863</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>36.19945822216881</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>188.2416029273574</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>36.19945822216881</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>188.2416029273573</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>70.9880285853765</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>18.61045192185441</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>412.4727711985838</v>
       </c>
       <c r="O36" t="n">
-        <v>10.02375016320656</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298159</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>398.8354606050301</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>59.22143219543921</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>250.1863759856173</v>
       </c>
       <c r="L41" t="n">
-        <v>343.7021779649022</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>62.1505675869488</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>303.9707421584895</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>138.2395161961343</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>181.4578916839647</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,25 +11378,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>188.2416029273575</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>36.199458222169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>35.45146648262886</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>115.7848800124068</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23418,19 +23418,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>1.701029503503918</v>
       </c>
       <c r="H13" t="n">
         <v>152.7120966692326</v>
@@ -23439,7 +23439,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
         <v>223.3729047207587</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>174.0456747007781</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,10 +23503,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>153.3055133132795</v>
       </c>
       <c r="F14" t="n">
-        <v>86.12466072614103</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>152.7120966692326</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>135.2354040410859</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>25.15859449460558</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23788,16 +23788,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1229473397806</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>119.6830321024752</v>
       </c>
       <c r="X17" t="n">
-        <v>349.317269194977</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,13 +23907,13 @@
         <v>166.7422537219978</v>
       </c>
       <c r="H19" t="n">
-        <v>151.1248663941773</v>
+        <v>25.16942843114759</v>
       </c>
       <c r="I19" t="n">
-        <v>57.64085405617976</v>
+        <v>117.897889423504</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.074277618880402</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,16 +23940,16 @@
         <v>121.1461459413869</v>
       </c>
       <c r="S19" t="n">
-        <v>202.2547158088293</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.6101253452209</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2509170490476</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>370.8059794422558</v>
       </c>
       <c r="C20" t="n">
-        <v>343.875196291707</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24028,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>62.93476412391007</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>117.897889423504</v>
       </c>
       <c r="J22" t="n">
         <v>5.074277618880387</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>248.4989172443668</v>
+        <v>286.2509170490476</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>286.0393199979538</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>328.827137233922</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>412.5189179144363</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5260110847229</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.1248663941773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>117.897889423504</v>
@@ -24414,25 +24414,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>202.2547158088293</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2509170490476</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>204.5218888929098</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>316.6278678401281</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>103.1526844144657</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>240.7225118772421</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,13 +24618,13 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>151.1248663941773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>5.074277618880387</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>121.1461459413869</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>202.2547158088293</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U28" t="n">
         <v>286.2509170490476</v>
       </c>
       <c r="V28" t="n">
-        <v>52.65815935681371</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>204.6709647307837</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>370.8059794422549</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>315.8243962489103</v>
       </c>
     </row>
     <row r="30">
@@ -24843,25 +24843,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.7422537219978</v>
       </c>
       <c r="H31" t="n">
-        <v>151.1248663941773</v>
+        <v>125.1360771884377</v>
       </c>
       <c r="I31" t="n">
         <v>117.897889423504</v>
       </c>
       <c r="J31" t="n">
-        <v>5.074277618880387</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>202.2547158088293</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>15.4906829439592</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>291.6821921706793</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>103.1526844144657</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.9096792620724</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>56.74361576571715</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.7422537219978</v>
       </c>
       <c r="H34" t="n">
-        <v>151.1248663941773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>117.897889423504</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>95.36604850633945</v>
+        <v>97.66675011161169</v>
       </c>
       <c r="S34" t="n">
         <v>202.2547158088293</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2509170490476</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>370.8059794422558</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>225.2221990069337</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>145.5837804353216</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25317,16 +25317,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>17.87542810870238</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.7422537219978</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25335,7 +25335,7 @@
         <v>117.897889423504</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.074277618880387</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6101253452209</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2509170490476</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>112.502882127291</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.9096792620724</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>138.4075899329054</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>291.6821921706795</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>52.0325805974247</v>
       </c>
       <c r="E40" t="n">
-        <v>61.57828712181797</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.7422537219978</v>
@@ -25608,7 +25608,7 @@
         <v>286.2509170490476</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.5189179144363</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>103.1526844144657</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>145.5837804353216</v>
       </c>
       <c r="T41" t="n">
-        <v>72.9252642343522</v>
+        <v>210.9096792620724</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1229473397806</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>46.08148542895793</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25806,10 +25806,10 @@
         <v>151.1248663941773</v>
       </c>
       <c r="I43" t="n">
-        <v>117.897889423504</v>
+        <v>90.73300832459211</v>
       </c>
       <c r="J43" t="n">
-        <v>5.074277618880387</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6101253452209</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2509170490476</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>15.2427152628774</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>51.32779041236199</v>
       </c>
       <c r="D44" t="n">
-        <v>288.3068069862468</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>310.9650096301107</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>103.1526844144657</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.5837804353216</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.7422537219978</v>
       </c>
       <c r="H46" t="n">
-        <v>38.61164159424283</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>117.897889423504</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.074277618880387</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2509170490476</v>
+        <v>241.8578747187695</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>763258.6172679834</v>
+        <v>763258.6172679835</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>763258.6172679835</v>
+        <v>763258.6172679834</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>763258.6172679834</v>
+        <v>763258.6172679835</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>763258.6172679835</v>
+        <v>763258.6172679834</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>763258.6172679836</v>
+        <v>763258.6172679835</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763258.6172679834</v>
+        <v>763258.6172679835</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>719071.4551524187</v>
+        <v>719071.4551524185</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
         <v>523490.2663246516</v>
       </c>
       <c r="F2" t="n">
-        <v>523490.2663246514</v>
+        <v>523490.2663246517</v>
       </c>
       <c r="G2" t="n">
-        <v>558011.3005501877</v>
+        <v>558011.3005501876</v>
       </c>
       <c r="H2" t="n">
-        <v>558011.3005501874</v>
+        <v>558011.3005501872</v>
       </c>
       <c r="I2" t="n">
         <v>558011.3005501874</v>
@@ -26340,22 +26340,22 @@
         <v>558011.3005501875</v>
       </c>
       <c r="K2" t="n">
-        <v>558011.3005501876</v>
+        <v>558011.3005501878</v>
       </c>
       <c r="L2" t="n">
-        <v>558011.3005501876</v>
+        <v>558011.3005501878</v>
       </c>
       <c r="M2" t="n">
-        <v>558011.3005501878</v>
+        <v>558011.3005501874</v>
       </c>
       <c r="N2" t="n">
-        <v>558011.3005501877</v>
+        <v>558011.3005501875</v>
       </c>
       <c r="O2" t="n">
-        <v>528966.9541130975</v>
+        <v>528966.9541130976</v>
       </c>
       <c r="P2" t="n">
-        <v>528966.9541130974</v>
+        <v>528966.9541130976</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>110221.9248418876</v>
+        <v>110221.9248418874</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910611</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>170426.4165637116</v>
+        <v>170426.4165637115</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>347243.6246152678</v>
+        <v>349656.9559677007</v>
       </c>
       <c r="C4" t="n">
-        <v>347243.6246152677</v>
+        <v>349656.9559677007</v>
       </c>
       <c r="D4" t="n">
-        <v>347243.6246152677</v>
+        <v>349656.9559677007</v>
       </c>
       <c r="E4" t="n">
-        <v>66040.49379302106</v>
+        <v>68357.54504260661</v>
       </c>
       <c r="F4" t="n">
-        <v>66040.49379302106</v>
+        <v>68357.54504260662</v>
       </c>
       <c r="G4" t="n">
-        <v>63023.10681564188</v>
+        <v>65231.07878886219</v>
       </c>
       <c r="H4" t="n">
-        <v>63023.10681564188</v>
+        <v>65231.07878886219</v>
       </c>
       <c r="I4" t="n">
-        <v>63023.10681564188</v>
+        <v>65231.07878886219</v>
       </c>
       <c r="J4" t="n">
-        <v>63023.10681564188</v>
+        <v>65231.07878886219</v>
       </c>
       <c r="K4" t="n">
-        <v>63023.10681564188</v>
+        <v>65231.07878886219</v>
       </c>
       <c r="L4" t="n">
-        <v>63023.10681564188</v>
+        <v>65231.07878886219</v>
       </c>
       <c r="M4" t="n">
-        <v>63023.10681564188</v>
+        <v>65231.0787888622</v>
       </c>
       <c r="N4" t="n">
-        <v>63023.10681564188</v>
+        <v>65231.07878886218</v>
       </c>
       <c r="O4" t="n">
-        <v>55183.67912166048</v>
+        <v>57115.94480047107</v>
       </c>
       <c r="P4" t="n">
-        <v>55183.67912166048</v>
+        <v>57115.94480047107</v>
       </c>
     </row>
     <row r="5">
@@ -26484,25 +26484,25 @@
         <v>69171.54328360151</v>
       </c>
       <c r="G5" t="n">
+        <v>78705.86211489054</v>
+      </c>
+      <c r="H5" t="n">
+        <v>78705.86211489055</v>
+      </c>
+      <c r="I5" t="n">
         <v>78705.86211489057</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
+        <v>78705.86211489055</v>
+      </c>
+      <c r="K5" t="n">
+        <v>78705.86211489055</v>
+      </c>
+      <c r="L5" t="n">
         <v>78705.86211489057</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
         <v>78705.86211489055</v>
-      </c>
-      <c r="J5" t="n">
-        <v>78705.86211489057</v>
-      </c>
-      <c r="K5" t="n">
-        <v>78705.86211489057</v>
-      </c>
-      <c r="L5" t="n">
-        <v>78705.86211489055</v>
-      </c>
-      <c r="M5" t="n">
-        <v>78705.86211489057</v>
       </c>
       <c r="N5" t="n">
         <v>78705.86211489055</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160013.0467342426</v>
+        <v>157599.7153818097</v>
       </c>
       <c r="C6" t="n">
-        <v>240782.4782657903</v>
+        <v>238369.1469133571</v>
       </c>
       <c r="D6" t="n">
-        <v>240782.4782657904</v>
+        <v>238369.1469133572</v>
       </c>
       <c r="E6" t="n">
-        <v>-292714.7134138117</v>
+        <v>-295031.7646633972</v>
       </c>
       <c r="F6" t="n">
-        <v>388278.2292480288</v>
+        <v>385961.1779984435</v>
       </c>
       <c r="G6" t="n">
-        <v>306060.4067777677</v>
+        <v>303852.4348045475</v>
       </c>
       <c r="H6" t="n">
-        <v>416282.3316196549</v>
+        <v>414074.3596464345</v>
       </c>
       <c r="I6" t="n">
-        <v>416282.331619655</v>
+        <v>414074.3596464345</v>
       </c>
       <c r="J6" t="n">
-        <v>353222.3890205488</v>
+        <v>351014.4170473286</v>
       </c>
       <c r="K6" t="n">
-        <v>416282.3316196551</v>
+        <v>414074.3596464351</v>
       </c>
       <c r="L6" t="n">
-        <v>416282.3316196552</v>
+        <v>414074.3596464351</v>
       </c>
       <c r="M6" t="n">
-        <v>245855.9150559438</v>
+        <v>243647.9430827231</v>
       </c>
       <c r="N6" t="n">
-        <v>416282.3316196553</v>
+        <v>414074.3596464348</v>
       </c>
       <c r="O6" t="n">
-        <v>402453.552955516</v>
+        <v>400521.2872767055</v>
       </c>
       <c r="P6" t="n">
-        <v>402453.5529555159</v>
+        <v>400521.2872767055</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="G3" t="n">
-        <v>692.4751256738249</v>
+        <v>692.4751256738248</v>
       </c>
       <c r="H3" t="n">
         <v>692.4751256738249</v>
@@ -26804,34 +26804,34 @@
         <v>924.8974390827582</v>
       </c>
       <c r="G4" t="n">
+        <v>1046.215532486861</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1046.215532486861</v>
+      </c>
+      <c r="I4" t="n">
         <v>1046.215532486862</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>1046.215532486861</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1046.215532486861</v>
+      </c>
+      <c r="L4" t="n">
         <v>1046.215532486862</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>1046.215532486861</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1046.215532486862</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1046.215532486862</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1046.215532486861</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1046.215532486862</v>
       </c>
       <c r="N4" t="n">
         <v>1046.215532486861</v>
       </c>
       <c r="O4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="P4" t="n">
-        <v>924.8974390827581</v>
+        <v>924.8974390827582</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>98.99902533575982</v>
+        <v>98.99902533575971</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>121.3180934041033</v>
+        <v>121.3180934041031</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776586</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>683.8831502050994</v>
+        <v>683.8831502050989</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>121.3180934041033</v>
+        <v>121.3180934041031</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>191.584972997977</v>
+        <v>341.4540909391266</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
@@ -27396,7 +27396,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>161.4543383671737</v>
+        <v>83.51901963507052</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27472,7 +27472,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>175.6055225771059</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>203.9242476544893</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,16 +27663,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>173.8558287537005</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>86.73796959247585</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27700,10 +27700,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27745,13 +27745,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>81.33534713144022</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27858,25 +27858,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>306.5178170762542</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>184.536429376013</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27937,19 +27937,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>95.56758059204338</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>117.29198435771</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28070,7 +28070,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -32232,28 +32232,28 @@
         <v>28.5097924856565</v>
       </c>
       <c r="I17" t="n">
-        <v>107.3232051559403</v>
+        <v>107.3232051559402</v>
       </c>
       <c r="J17" t="n">
-        <v>236.2732088348093</v>
+        <v>236.2732088348092</v>
       </c>
       <c r="K17" t="n">
-        <v>354.1122925323892</v>
+        <v>354.1122925323891</v>
       </c>
       <c r="L17" t="n">
-        <v>439.3076116372749</v>
+        <v>439.3076116372748</v>
       </c>
       <c r="M17" t="n">
-        <v>488.814363461202</v>
+        <v>488.8143634612019</v>
       </c>
       <c r="N17" t="n">
-        <v>496.7238909016875</v>
+        <v>496.7238909016874</v>
       </c>
       <c r="O17" t="n">
-        <v>469.0422847472389</v>
+        <v>469.0422847472388</v>
       </c>
       <c r="P17" t="n">
-        <v>400.3167383549874</v>
+        <v>400.3167383549873</v>
       </c>
       <c r="Q17" t="n">
         <v>300.6211989049618</v>
@@ -32262,13 +32262,13 @@
         <v>174.8691079923956</v>
       </c>
       <c r="S17" t="n">
-        <v>63.43628915092377</v>
+        <v>63.43628915092376</v>
       </c>
       <c r="T17" t="n">
-        <v>12.18617030205897</v>
+        <v>12.18617030205896</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2227055680559033</v>
+        <v>0.2227055680559032</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,13 +32305,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.489474798619171</v>
+        <v>1.48947479861917</v>
       </c>
       <c r="H18" t="n">
         <v>14.38519081824304</v>
       </c>
       <c r="I18" t="n">
-        <v>51.28235600508987</v>
+        <v>51.28235600508986</v>
       </c>
       <c r="J18" t="n">
         <v>140.7227045484893</v>
@@ -32320,34 +32320,34 @@
         <v>240.5175160559737</v>
       </c>
       <c r="L18" t="n">
-        <v>323.4054820422897</v>
+        <v>323.4054820422896</v>
       </c>
       <c r="M18" t="n">
         <v>377.3989434922345</v>
       </c>
       <c r="N18" t="n">
-        <v>387.3875705408693</v>
+        <v>387.3875705408692</v>
       </c>
       <c r="O18" t="n">
-        <v>354.3839447398866</v>
+        <v>354.3839447398865</v>
       </c>
       <c r="P18" t="n">
-        <v>284.4243586942169</v>
+        <v>284.4243586942168</v>
       </c>
       <c r="Q18" t="n">
         <v>190.1301514868962</v>
       </c>
       <c r="R18" t="n">
-        <v>92.47809319847801</v>
+        <v>92.47809319847799</v>
       </c>
       <c r="S18" t="n">
-        <v>27.66634110593063</v>
+        <v>27.66634110593062</v>
       </c>
       <c r="T18" t="n">
-        <v>6.00362868390797</v>
+        <v>6.003628683907969</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09799176306705074</v>
+        <v>0.09799176306705072</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.248725636460996</v>
+        <v>1.248725636460995</v>
       </c>
       <c r="H19" t="n">
         <v>11.10230611326231</v>
       </c>
       <c r="I19" t="n">
-        <v>37.55258550375432</v>
+        <v>37.55258550375431</v>
       </c>
       <c r="J19" t="n">
-        <v>88.28490249779239</v>
+        <v>88.28490249779237</v>
       </c>
       <c r="K19" t="n">
         <v>145.0792148542865</v>
@@ -32414,19 +32414,19 @@
         <v>151.0276897043371</v>
       </c>
       <c r="Q19" t="n">
-        <v>104.5637439767476</v>
+        <v>104.5637439767475</v>
       </c>
       <c r="R19" t="n">
-        <v>56.14724543578257</v>
+        <v>56.14724543578256</v>
       </c>
       <c r="S19" t="n">
         <v>21.76188222814298</v>
       </c>
       <c r="T19" t="n">
-        <v>5.335464083060616</v>
+        <v>5.335464083060615</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06811230744332711</v>
+        <v>0.06811230744332709</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M3" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35017,19 +35017,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>231.276337811895</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L12" t="n">
         <v>509.4561008748672</v>
@@ -35500,10 +35500,10 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
-        <v>513.2342185919456</v>
+        <v>680.0057497502855</v>
       </c>
       <c r="O12" t="n">
-        <v>554.9858674269929</v>
+        <v>243.6069294145546</v>
       </c>
       <c r="P12" t="n">
         <v>428.2502711927643</v>
@@ -35734,10 +35734,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>229.4160469348618</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793668</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
@@ -35886,28 +35886,28 @@
         <v>224.3239194801967</v>
       </c>
       <c r="K17" t="n">
-        <v>458.1678540585734</v>
+        <v>458.1678540585733</v>
       </c>
       <c r="L17" t="n">
-        <v>621.2024112177381</v>
+        <v>621.202411217738</v>
       </c>
       <c r="M17" t="n">
-        <v>707.9816637267618</v>
+        <v>707.9816637267617</v>
       </c>
       <c r="N17" t="n">
-        <v>704.6577517170808</v>
+        <v>704.6577517170806</v>
       </c>
       <c r="O17" t="n">
-        <v>619.7442545882975</v>
+        <v>619.7442545882974</v>
       </c>
       <c r="P17" t="n">
-        <v>490.8824507712005</v>
+        <v>490.8824507712004</v>
       </c>
       <c r="Q17" t="n">
         <v>290.630499690417</v>
       </c>
       <c r="R17" t="n">
-        <v>24.99999005124593</v>
+        <v>24.9999900512459</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,16 +35968,16 @@
         <v>367.1413140941933</v>
       </c>
       <c r="L18" t="n">
-        <v>184.8511022624155</v>
+        <v>555.6914475658746</v>
       </c>
       <c r="M18" t="n">
-        <v>691.2777964338942</v>
+        <v>235.2649095702162</v>
       </c>
       <c r="N18" t="n">
         <v>256.0458584575359</v>
       </c>
       <c r="O18" t="n">
-        <v>211.7877002954422</v>
+        <v>296.9602418556615</v>
       </c>
       <c r="P18" t="n">
         <v>468.9127199198238</v>
@@ -36056,13 +36056,13 @@
         <v>235.2212509114827</v>
       </c>
       <c r="O19" t="n">
-        <v>201.0868206021812</v>
+        <v>201.0868206021811</v>
       </c>
       <c r="P19" t="n">
         <v>148.3062489692306</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.40170072505317</v>
+        <v>18.40170072505315</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>13.88507788182258</v>
+        <v>139.9761132222314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.6760770816147</v>
+        <v>367.1413140941933</v>
       </c>
       <c r="L21" t="n">
-        <v>184.8511022624155</v>
+        <v>555.6914475658747</v>
       </c>
       <c r="M21" t="n">
         <v>235.2649095702162</v>
       </c>
       <c r="N21" t="n">
-        <v>708.7526983974718</v>
+        <v>256.0458584575359</v>
       </c>
       <c r="O21" t="n">
-        <v>605.6500195721717</v>
+        <v>296.9602418556608</v>
       </c>
       <c r="P21" t="n">
         <v>468.9127199198238</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>139.9761132222314</v>
+        <v>50.08453610399136</v>
       </c>
       <c r="K24" t="n">
-        <v>367.1413140941933</v>
+        <v>102.6760770816147</v>
       </c>
       <c r="L24" t="n">
-        <v>555.6914475658747</v>
+        <v>184.8511022624155</v>
       </c>
       <c r="M24" t="n">
-        <v>235.2649095702162</v>
+        <v>700.9699733202161</v>
       </c>
       <c r="N24" t="n">
-        <v>256.0458584575359</v>
+        <v>735.3882328010895</v>
       </c>
       <c r="O24" t="n">
-        <v>296.9602418556608</v>
+        <v>605.6500195721717</v>
       </c>
       <c r="P24" t="n">
-        <v>468.9127199198238</v>
+        <v>150.4499512798866</v>
       </c>
       <c r="Q24" t="n">
-        <v>260.2256651367238</v>
+        <v>50.14837740087472</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.88507788182258</v>
+        <v>50.08453610399139</v>
       </c>
       <c r="K27" t="n">
-        <v>367.1413140941933</v>
+        <v>102.6760770816147</v>
       </c>
       <c r="L27" t="n">
         <v>184.8511022624155</v>
       </c>
       <c r="M27" t="n">
-        <v>423.5065124975736</v>
+        <v>700.9699733202161</v>
       </c>
       <c r="N27" t="n">
-        <v>256.0458584575359</v>
+        <v>735.3882328010895</v>
       </c>
       <c r="O27" t="n">
         <v>605.6500195721717</v>
       </c>
       <c r="P27" t="n">
-        <v>468.9127199198238</v>
+        <v>150.4499512798866</v>
       </c>
       <c r="Q27" t="n">
-        <v>260.2256651367238</v>
+        <v>50.14837740087472</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>13.88507788182258</v>
+        <v>50.08453610399139</v>
       </c>
       <c r="K30" t="n">
-        <v>367.1413140941933</v>
+        <v>102.6760770816147</v>
       </c>
       <c r="L30" t="n">
         <v>184.8511022624155</v>
       </c>
       <c r="M30" t="n">
-        <v>235.2649095702162</v>
+        <v>700.9699733202161</v>
       </c>
       <c r="N30" t="n">
-        <v>444.2874613848932</v>
+        <v>735.3882328010895</v>
       </c>
       <c r="O30" t="n">
         <v>605.6500195721717</v>
       </c>
       <c r="P30" t="n">
-        <v>468.9127199198238</v>
+        <v>150.4499512798866</v>
       </c>
       <c r="Q30" t="n">
-        <v>260.2256651367238</v>
+        <v>50.14837740087472</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>102.6760770816147</v>
       </c>
       <c r="L33" t="n">
-        <v>255.839130847792</v>
+        <v>555.6914475658747</v>
       </c>
       <c r="M33" t="n">
         <v>700.9699733202161</v>
@@ -37165,10 +37165,10 @@
         <v>605.6500195721717</v>
       </c>
       <c r="P33" t="n">
-        <v>468.9127199198238</v>
+        <v>150.4499512798866</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.14837740087472</v>
+        <v>68.75882932272913</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13.88507788182258</v>
+        <v>139.9761132222314</v>
       </c>
       <c r="K36" t="n">
         <v>102.6760770816147</v>
@@ -37396,16 +37396,16 @@
         <v>700.9699733202161</v>
       </c>
       <c r="N36" t="n">
-        <v>256.0458584575359</v>
+        <v>668.5186296561197</v>
       </c>
       <c r="O36" t="n">
-        <v>221.8114504586487</v>
+        <v>211.7877002954422</v>
       </c>
       <c r="P36" t="n">
-        <v>468.9127199198238</v>
+        <v>150.4499512798866</v>
       </c>
       <c r="Q36" t="n">
-        <v>260.2256651367238</v>
+        <v>50.14837740087472</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>290.630499690417</v>
       </c>
       <c r="R38" t="n">
-        <v>24.99999005124593</v>
+        <v>24.99999005124508</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>13.88507788182258</v>
+        <v>139.9761132222314</v>
       </c>
       <c r="K39" t="n">
         <v>102.6760770816147</v>
@@ -37630,13 +37630,13 @@
         <v>555.6914475658747</v>
       </c>
       <c r="M39" t="n">
-        <v>700.9699733202161</v>
+        <v>634.1003701752463</v>
       </c>
       <c r="N39" t="n">
         <v>735.3882328010895</v>
       </c>
       <c r="O39" t="n">
-        <v>271.0091324908814</v>
+        <v>211.7877002954422</v>
       </c>
       <c r="P39" t="n">
         <v>150.4499512798866</v>
@@ -37782,10 +37782,10 @@
         <v>55.22730430812297</v>
       </c>
       <c r="K41" t="n">
-        <v>458.1678540585734</v>
+        <v>384.2088174730259</v>
       </c>
       <c r="L41" t="n">
-        <v>547.2433746321899</v>
+        <v>621.2024112177381</v>
       </c>
       <c r="M41" t="n">
         <v>707.9816637267618</v>
@@ -37861,25 +37861,25 @@
         <v>139.9761132222314</v>
       </c>
       <c r="K42" t="n">
-        <v>367.1413140941933</v>
+        <v>102.6760770816147</v>
       </c>
       <c r="L42" t="n">
         <v>184.8511022624155</v>
       </c>
       <c r="M42" t="n">
-        <v>297.415477157165</v>
+        <v>700.9699733202161</v>
       </c>
       <c r="N42" t="n">
-        <v>256.0458584575359</v>
+        <v>735.3882328010895</v>
       </c>
       <c r="O42" t="n">
-        <v>605.6500195721717</v>
+        <v>515.7584424539317</v>
       </c>
       <c r="P42" t="n">
-        <v>468.9127199198238</v>
+        <v>150.4499512798866</v>
       </c>
       <c r="Q42" t="n">
-        <v>260.2256651367238</v>
+        <v>50.14837740087472</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>224.3239194801967</v>
+        <v>193.4668205042572</v>
       </c>
       <c r="K44" t="n">
         <v>458.1678540585734</v>
@@ -38037,7 +38037,7 @@
         <v>490.8824507712005</v>
       </c>
       <c r="Q44" t="n">
-        <v>259.7734007144771</v>
+        <v>290.630499690417</v>
       </c>
       <c r="R44" t="n">
         <v>24.99999005124593</v>
@@ -38098,25 +38098,25 @@
         <v>13.88507788182258</v>
       </c>
       <c r="K45" t="n">
-        <v>102.6760770816147</v>
+        <v>367.1413140941933</v>
       </c>
       <c r="L45" t="n">
-        <v>184.8511022624155</v>
+        <v>373.092705189773</v>
       </c>
       <c r="M45" t="n">
-        <v>700.9699733202161</v>
+        <v>235.2649095702162</v>
       </c>
       <c r="N45" t="n">
-        <v>735.3882328010895</v>
+        <v>256.0458584575359</v>
       </c>
       <c r="O45" t="n">
         <v>605.6500195721717</v>
       </c>
       <c r="P45" t="n">
-        <v>150.4499512798866</v>
+        <v>468.9127199198238</v>
       </c>
       <c r="Q45" t="n">
-        <v>86.34783562304372</v>
+        <v>260.2256651367238</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/750000/Output_8_31.xlsx
+++ b/Outputs/1. Budget/Output Files/750000/Output_8_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2247815.980512829</v>
+        <v>2262520.03051003</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1895380.508738771</v>
+        <v>1895380.50873877</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3440914.885357528</v>
+        <v>3440914.885357527</v>
       </c>
     </row>
     <row r="9">
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71.01467844038824</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>98.74855378848305</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>105.8834760595872</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>175.0426595591497</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>10.27068583523948</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>7.83710273534405</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>222.3396163656984</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>146.175361316945</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>247.4118363136088</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>23.67620776652137</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>22.12051600373999</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>123.5496956143922</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>341.4809964489797</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>75.29799929299494</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>165.0140383262331</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.260654658097</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>131.5781188949635</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>12.21085353925508</v>
+        <v>145.5837804353215</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.9096792620724</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>4.958362559273505</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>7.67974095416497</v>
+        <v>7.679740954164984</v>
       </c>
       <c r="S18" t="n">
-        <v>144.0168299979071</v>
+        <v>144.0168299979072</v>
       </c>
       <c r="T18" t="n">
         <v>194.1611000109136</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>100.4028471003662</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2509170490476</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>207.119442401263</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>412.5189179144363</v>
       </c>
       <c r="H20" t="n">
-        <v>72.05291582958529</v>
+        <v>310.9650096301106</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>126.3607979704816</v>
       </c>
       <c r="U20" t="n">
         <v>251.1229473397806</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.67974095416497</v>
+        <v>7.679740954164984</v>
       </c>
       <c r="S21" t="n">
-        <v>144.0168299979071</v>
+        <v>144.0168299979072</v>
       </c>
       <c r="T21" t="n">
         <v>194.1611000109136</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7422537219978</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>117.8978894235039</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>43.46217743911765</v>
       </c>
       <c r="T22" t="n">
-        <v>40.96779196727157</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2509170490476</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>122.4355018739022</v>
       </c>
       <c r="G23" t="n">
         <v>412.5189179144363</v>
       </c>
       <c r="H23" t="n">
-        <v>310.9650096301106</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>12.21085353925439</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>145.5837804353215</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.9096792620724</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1229473397806</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>7.67974095416497</v>
+        <v>7.679740954164984</v>
       </c>
       <c r="S24" t="n">
-        <v>144.0168299979071</v>
+        <v>144.0168299979072</v>
       </c>
       <c r="T24" t="n">
         <v>194.1611000109136</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>164.043638804193</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7422537219978</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>222.6101253452209</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2509170490476</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>47.47661356996451</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>80.88233152619712</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2608,13 +2608,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.9096792620724</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>236.8104275949248</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>7.67974095416497</v>
+        <v>7.679740954164984</v>
       </c>
       <c r="S27" t="n">
-        <v>144.0168299979071</v>
+        <v>144.0168299979072</v>
       </c>
       <c r="T27" t="n">
         <v>194.1611000109136</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>202.2547158088292</v>
+        <v>103.5023771441826</v>
       </c>
       <c r="T28" t="n">
         <v>222.6101253452209</v>
       </c>
       <c r="U28" t="n">
-        <v>259.8042415262914</v>
+        <v>286.2509170490476</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>70.2424977528738</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>412.5189179144363</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>310.9650096301106</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>145.5837804353215</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.9096792620724</v>
@@ -2851,13 +2851,13 @@
         <v>251.1229473397806</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>247.6615860860052</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>7.67974095416497</v>
+        <v>7.679740954164984</v>
       </c>
       <c r="S30" t="n">
-        <v>144.0168299979071</v>
+        <v>144.0168299979072</v>
       </c>
       <c r="T30" t="n">
         <v>194.1611000109136</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7422537219978</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>117.8978894235039</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U31" t="n">
-        <v>260.4571733016064</v>
+        <v>187.2476996943488</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>310.9650096301106</v>
       </c>
       <c r="I32" t="n">
-        <v>12.21085353925527</v>
+        <v>103.1526844144655</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>145.5837804353215</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>91.22664715960153</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>7.67974095416497</v>
+        <v>7.679740954164984</v>
       </c>
       <c r="S33" t="n">
-        <v>144.0168299979071</v>
+        <v>144.0168299979072</v>
       </c>
       <c r="T33" t="n">
         <v>194.1611000109136</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>121.1461459413868</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>43.16957415034936</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>222.6101253452209</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2509170490476</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>164.043638804193</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>377.0709834534685</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>412.5189179144363</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>247.3811752235656</v>
       </c>
       <c r="I35" t="n">
-        <v>103.1526844144655</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>145.5837804353215</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>210.9096792620724</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.67974095416497</v>
+        <v>7.679740954164984</v>
       </c>
       <c r="S36" t="n">
-        <v>144.0168299979071</v>
+        <v>144.0168299979072</v>
       </c>
       <c r="T36" t="n">
         <v>194.1611000109136</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>73.62272461380682</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>117.8978894235039</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.074277618880245</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>121.1461459413868</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U37" t="n">
         <v>286.2509170490476</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>103.5023771441826</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>310.9650096301106</v>
       </c>
       <c r="I38" t="n">
-        <v>103.1526844144655</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>145.5837804353215</v>
       </c>
       <c r="T38" t="n">
-        <v>210.9096792620724</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.1229473397806</v>
@@ -3565,13 +3565,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>36.92066946108115</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1.742064420205761</v>
       </c>
     </row>
     <row r="39">
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>7.67974095416497</v>
+        <v>7.679740954164984</v>
       </c>
       <c r="S39" t="n">
-        <v>144.0168299979071</v>
+        <v>144.0168299979072</v>
       </c>
       <c r="T39" t="n">
         <v>194.1611000109136</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>53.9950464272343</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>117.8978894235039</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2509170490476</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>103.5023771441826</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>310.9650096301106</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>103.1526844144655</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>115.2401394296809</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>218.3928238441453</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>7.67974095416497</v>
+        <v>7.679740954164984</v>
       </c>
       <c r="S42" t="n">
-        <v>144.0168299979071</v>
+        <v>144.0168299979072</v>
       </c>
       <c r="T42" t="n">
         <v>194.1611000109136</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>151.1248663941772</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U43" t="n">
         <v>286.2509170490476</v>
       </c>
       <c r="V43" t="n">
-        <v>41.29380496833149</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>103.5023771441825</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3994,7 +3994,7 @@
         <v>412.5189179144363</v>
       </c>
       <c r="H44" t="n">
-        <v>180.1168647568429</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>145.5837804353215</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1229473397806</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>190.6618709610837</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>7.67974095416497</v>
+        <v>7.679740954164984</v>
       </c>
       <c r="S45" t="n">
-        <v>144.0168299979071</v>
+        <v>144.0168299979072</v>
       </c>
       <c r="T45" t="n">
         <v>194.1611000109136</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>52.15000360675175</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>222.6101253452209</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2509170490476</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>103.5023771441825</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
         <v>243.9530410142718</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>405.8038725402083</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C3" t="n">
-        <v>405.8038725402083</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>256.869462878957</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>256.869462878957</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>726.4525409563269</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="V3" t="n">
-        <v>857.104149389841</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="W3" t="n">
-        <v>613.655372745741</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="X3" t="n">
-        <v>405.8038725402083</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="Y3" t="n">
-        <v>405.8038725402083</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4533,7 +4533,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>113.583345248266</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>223.6192102101089</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>208.1618995887604</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>795.8418184905681</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>621.3887892094411</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>472.4543795481899</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>313.2169245427344</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>166.6823665696193</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>27.95154115223485</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4649,49 +4649,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>30.40970589960398</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
         <v>41.77557929797318</v>
@@ -4767,10 +4767,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>499.3853800778592</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D8" t="n">
-        <v>499.3853800778592</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>499.3853800778592</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.4405950311615</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4895,10 +4895,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>816.6559320512295</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>816.6559320512295</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>816.6559320512295</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>816.6559320512295</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>816.6559320512295</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y9" t="n">
-        <v>816.6559320512295</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5004,10 +5004,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5035,13 +5035,13 @@
         <v>392.2149103541111</v>
       </c>
       <c r="H11" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I11" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403561</v>
+        <v>262.6316941403563</v>
       </c>
       <c r="K11" t="n">
         <v>666.098807160401</v>
@@ -5056,10 +5056,10 @@
         <v>2477.937544449755</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q11" t="n">
         <v>3699.589756331025</v>
@@ -5068,25 +5068,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331025</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U11" t="n">
-        <v>3699.589756331025</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V11" t="n">
-        <v>3449.678810559703</v>
+        <v>2743.820266497144</v>
       </c>
       <c r="W11" t="n">
-        <v>3096.910155289589</v>
+        <v>2743.820266497144</v>
       </c>
       <c r="X11" t="n">
-        <v>2723.444397028509</v>
+        <v>2743.820266497144</v>
       </c>
       <c r="Y11" t="n">
-        <v>2333.305065052698</v>
+        <v>2719.904905116819</v>
       </c>
     </row>
     <row r="12">
@@ -5108,7 +5108,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G12" t="n">
         <v>220.8126299914996</v>
@@ -5117,28 +5117,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835159</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K12" t="n">
-        <v>522.0794512893251</v>
+        <v>141.599614789977</v>
       </c>
       <c r="L12" t="n">
-        <v>1026.440991155443</v>
+        <v>645.9611546560948</v>
       </c>
       <c r="M12" t="n">
-        <v>1253.562877620961</v>
+        <v>1286.506504123199</v>
       </c>
       <c r="N12" t="n">
-        <v>1452.219619273625</v>
+        <v>1959.712196375981</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026347</v>
+        <v>2509.148205128703</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507183</v>
+        <v>2633.599911365674</v>
       </c>
       <c r="Q12" t="n">
         <v>2656.336852567651</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.5100566625405</v>
+        <v>264.9425956905704</v>
       </c>
       <c r="C13" t="n">
-        <v>495.5100566625405</v>
+        <v>264.9425956905704</v>
       </c>
       <c r="D13" t="n">
-        <v>345.3934172502047</v>
+        <v>264.9425956905704</v>
       </c>
       <c r="E13" t="n">
-        <v>345.3934172502047</v>
+        <v>264.9425956905704</v>
       </c>
       <c r="F13" t="n">
-        <v>198.5034697522943</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G13" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H13" t="n">
-        <v>198.5034697522943</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I13" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J13" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K13" t="n">
         <v>175.03972472223</v>
@@ -5223,28 +5223,28 @@
         <v>1073.926476585963</v>
       </c>
       <c r="R13" t="n">
-        <v>949.1288042481929</v>
+        <v>943.4485153053654</v>
       </c>
       <c r="S13" t="n">
-        <v>949.1288042481929</v>
+        <v>736.0082305577707</v>
       </c>
       <c r="T13" t="n">
-        <v>723.4996075605578</v>
+        <v>736.0082305577707</v>
       </c>
       <c r="U13" t="n">
-        <v>723.4996075605578</v>
+        <v>736.0082305577707</v>
       </c>
       <c r="V13" t="n">
-        <v>723.4996075605578</v>
+        <v>736.0082305577707</v>
       </c>
       <c r="W13" t="n">
-        <v>723.4996075605578</v>
+        <v>446.5910605208101</v>
       </c>
       <c r="X13" t="n">
-        <v>495.5100566625405</v>
+        <v>446.5910605208101</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.5100566625405</v>
+        <v>446.5910605208101</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1942.924467505048</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="C14" t="n">
-        <v>1573.961950564637</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D14" t="n">
-        <v>1215.696251957886</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E14" t="n">
-        <v>829.907999359642</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F14" t="n">
-        <v>418.9220945700344</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G14" t="n">
-        <v>73.9917951266205</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H14" t="n">
         <v>73.9917951266205</v>
@@ -5305,25 +5305,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U14" t="n">
-        <v>3445.898053076176</v>
+        <v>3467.316133683414</v>
       </c>
       <c r="V14" t="n">
-        <v>3445.898053076176</v>
+        <v>3467.316133683414</v>
       </c>
       <c r="W14" t="n">
-        <v>3093.129397806062</v>
+        <v>3114.547478413299</v>
       </c>
       <c r="X14" t="n">
-        <v>2719.663639544982</v>
+        <v>2741.08172015222</v>
       </c>
       <c r="Y14" t="n">
-        <v>2329.52430756917</v>
+        <v>2350.942388176408</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.9917951266205</v>
+        <v>397.1826211547624</v>
       </c>
       <c r="C16" t="n">
-        <v>73.9917951266205</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="D16" t="n">
-        <v>73.9917951266205</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9917951266205</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266205</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266205</v>
+        <v>228.2464382268554</v>
       </c>
       <c r="H16" t="n">
         <v>73.9917951266205</v>
@@ -5466,22 +5466,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>907.2456297917881</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="U16" t="n">
-        <v>618.093453369468</v>
+        <v>784.7743001636427</v>
       </c>
       <c r="V16" t="n">
-        <v>363.4089651635811</v>
+        <v>530.0898119577558</v>
       </c>
       <c r="W16" t="n">
-        <v>73.9917951266205</v>
+        <v>397.1826211547624</v>
       </c>
       <c r="X16" t="n">
-        <v>73.9917951266205</v>
+        <v>397.1826211547624</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.9917951266205</v>
+        <v>397.1826211547624</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>397.8033129323941</v>
       </c>
       <c r="H17" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="I17" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J17" t="n">
-        <v>305.7779228843442</v>
+        <v>305.7779228843447</v>
       </c>
       <c r="K17" t="n">
-        <v>759.3640984023327</v>
+        <v>759.3640984023332</v>
       </c>
       <c r="L17" t="n">
         <v>1374.354485507894</v>
@@ -5536,22 +5536,22 @@
         <v>3872.387945103204</v>
       </c>
       <c r="Q17" t="n">
-        <v>4160.112139796718</v>
+        <v>4160.112139796717</v>
       </c>
       <c r="R17" t="n">
-        <v>4184.862129947452</v>
+        <v>4184.862129947451</v>
       </c>
       <c r="S17" t="n">
-        <v>4172.527934453255</v>
+        <v>4037.807806275409</v>
       </c>
       <c r="T17" t="n">
-        <v>4172.527934453255</v>
+        <v>3824.767726212709</v>
       </c>
       <c r="U17" t="n">
-        <v>4172.527934453255</v>
+        <v>3824.767726212709</v>
       </c>
       <c r="V17" t="n">
-        <v>3841.465047109684</v>
+        <v>3493.704838869139</v>
       </c>
       <c r="W17" t="n">
         <v>3488.69639183957</v>
@@ -5591,16 +5591,16 @@
         <v>122.1965121406916</v>
       </c>
       <c r="I18" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J18" t="n">
-        <v>222.2735946889584</v>
+        <v>222.2735946889583</v>
       </c>
       <c r="K18" t="n">
-        <v>585.7434956422102</v>
+        <v>585.7434956422101</v>
       </c>
       <c r="L18" t="n">
-        <v>1135.878028732427</v>
+        <v>1135.878028732426</v>
       </c>
       <c r="M18" t="n">
         <v>1368.790289206941</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>83.69724259894903</v>
+        <v>230.5871900968594</v>
       </c>
       <c r="C19" t="n">
-        <v>83.69724259894903</v>
+        <v>230.5871900968594</v>
       </c>
       <c r="D19" t="n">
-        <v>83.69724259894903</v>
+        <v>230.5871900968594</v>
       </c>
       <c r="E19" t="n">
-        <v>83.69724259894903</v>
+        <v>230.5871900968594</v>
       </c>
       <c r="F19" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="G19" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="H19" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="I19" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J19" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="K19" t="n">
         <v>205.2788683970689</v>
@@ -5703,22 +5703,22 @@
         <v>1246.347809466494</v>
       </c>
       <c r="T19" t="n">
-        <v>1144.930792193397</v>
+        <v>1246.347809466494</v>
       </c>
       <c r="U19" t="n">
-        <v>855.7884517398139</v>
+        <v>957.2054690129111</v>
       </c>
       <c r="V19" t="n">
-        <v>601.1039635339271</v>
+        <v>957.2054690129111</v>
       </c>
       <c r="W19" t="n">
-        <v>311.6867934969664</v>
+        <v>667.7882989759505</v>
       </c>
       <c r="X19" t="n">
-        <v>83.69724259894903</v>
+        <v>439.7987480779332</v>
       </c>
       <c r="Y19" t="n">
-        <v>83.69724259894903</v>
+        <v>230.5871900968594</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2097.166114265298</v>
+        <v>1969.528944598144</v>
       </c>
       <c r="C20" t="n">
-        <v>1728.203597324886</v>
+        <v>1969.528944598144</v>
       </c>
       <c r="D20" t="n">
-        <v>1369.937898718136</v>
+        <v>1611.263245991394</v>
       </c>
       <c r="E20" t="n">
-        <v>984.1496461198915</v>
+        <v>1225.474993393149</v>
       </c>
       <c r="F20" t="n">
-        <v>573.163741330284</v>
+        <v>814.4890886035419</v>
       </c>
       <c r="G20" t="n">
-        <v>156.4779656591362</v>
+        <v>397.8033129323941</v>
       </c>
       <c r="H20" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="I20" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J20" t="n">
-        <v>305.7779228843447</v>
+        <v>305.7779228843438</v>
       </c>
       <c r="K20" t="n">
-        <v>759.3640984023327</v>
+        <v>759.3640984023322</v>
       </c>
       <c r="L20" t="n">
         <v>1374.354485507894</v>
       </c>
       <c r="M20" t="n">
-        <v>2075.256332597389</v>
+        <v>2075.256332597388</v>
       </c>
       <c r="N20" t="n">
-        <v>2772.8675067973</v>
+        <v>2772.867506797299</v>
       </c>
       <c r="O20" t="n">
         <v>3386.414318839715</v>
       </c>
       <c r="P20" t="n">
-        <v>3872.387945103204</v>
+        <v>3872.387945103203</v>
       </c>
       <c r="Q20" t="n">
-        <v>4160.112139796718</v>
+        <v>4160.112139796717</v>
       </c>
       <c r="R20" t="n">
-        <v>4184.862129947452</v>
+        <v>4184.862129947451</v>
       </c>
       <c r="S20" t="n">
-        <v>4184.862129947452</v>
+        <v>4184.862129947451</v>
       </c>
       <c r="T20" t="n">
-        <v>4184.862129947452</v>
+        <v>4057.224960280298</v>
       </c>
       <c r="U20" t="n">
-        <v>3931.202587179996</v>
+        <v>3803.565417512842</v>
       </c>
       <c r="V20" t="n">
-        <v>3600.139699836426</v>
+        <v>3472.502530169272</v>
       </c>
       <c r="W20" t="n">
-        <v>3247.371044566311</v>
+        <v>3119.733874899157</v>
       </c>
       <c r="X20" t="n">
-        <v>2873.905286305232</v>
+        <v>2746.268116638078</v>
       </c>
       <c r="Y20" t="n">
-        <v>2483.76595432942</v>
+        <v>2356.128784662266</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>122.1965121406916</v>
       </c>
       <c r="I21" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J21" t="n">
-        <v>222.2735946889584</v>
+        <v>222.2735946889583</v>
       </c>
       <c r="K21" t="n">
-        <v>585.7434956422102</v>
+        <v>585.7434956422101</v>
       </c>
       <c r="L21" t="n">
-        <v>1135.878028732427</v>
+        <v>1135.878028732426</v>
       </c>
       <c r="M21" t="n">
-        <v>1829.838302319441</v>
+        <v>1453.111105351554</v>
       </c>
       <c r="N21" t="n">
-        <v>2083.323702192402</v>
+        <v>1706.596505224516</v>
       </c>
       <c r="O21" t="n">
-        <v>2292.993525484891</v>
+        <v>1916.266328517004</v>
       </c>
       <c r="P21" t="n">
-        <v>2441.938977251979</v>
+        <v>2380.48992123763</v>
       </c>
       <c r="Q21" t="n">
         <v>2638.113329722987</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>371.7222027223145</v>
+        <v>567.9498919358751</v>
       </c>
       <c r="C22" t="n">
-        <v>202.7860197944075</v>
+        <v>399.0137090079683</v>
       </c>
       <c r="D22" t="n">
-        <v>202.7860197944075</v>
+        <v>399.0137090079683</v>
       </c>
       <c r="E22" t="n">
-        <v>202.7860197944075</v>
+        <v>399.0137090079683</v>
       </c>
       <c r="F22" t="n">
-        <v>202.7860197944075</v>
+        <v>252.1237615100579</v>
       </c>
       <c r="G22" t="n">
-        <v>202.7860197944075</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="H22" t="n">
-        <v>202.7860197944075</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="I22" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J22" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="K22" t="n">
         <v>205.2788683970689</v>
@@ -5937,25 +5937,25 @@
         <v>1246.347809466494</v>
       </c>
       <c r="S22" t="n">
-        <v>1246.347809466494</v>
+        <v>1202.446620134052</v>
       </c>
       <c r="T22" t="n">
-        <v>1204.966201418745</v>
+        <v>977.5879076641322</v>
       </c>
       <c r="U22" t="n">
-        <v>915.823860965162</v>
+        <v>977.5879076641322</v>
       </c>
       <c r="V22" t="n">
-        <v>661.1393727592751</v>
+        <v>977.5879076641322</v>
       </c>
       <c r="W22" t="n">
-        <v>371.7222027223145</v>
+        <v>977.5879076641322</v>
       </c>
       <c r="X22" t="n">
-        <v>371.7222027223145</v>
+        <v>749.5983567661149</v>
       </c>
       <c r="Y22" t="n">
-        <v>371.7222027223145</v>
+        <v>749.5983567661149</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2350.825657032752</v>
+        <v>1737.071710530556</v>
       </c>
       <c r="C23" t="n">
-        <v>1981.86314009234</v>
+        <v>1368.109193590144</v>
       </c>
       <c r="D23" t="n">
-        <v>1623.59744148559</v>
+        <v>1009.843494983394</v>
       </c>
       <c r="E23" t="n">
-        <v>1237.809188887346</v>
+        <v>624.0552423851495</v>
       </c>
       <c r="F23" t="n">
-        <v>826.8232840977382</v>
+        <v>500.3830182700968</v>
       </c>
       <c r="G23" t="n">
-        <v>410.1375084265904</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="H23" t="n">
-        <v>96.03143809314537</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="I23" t="n">
         <v>83.69724259894902</v>
       </c>
       <c r="J23" t="n">
-        <v>305.7779228843443</v>
+        <v>305.7779228843442</v>
       </c>
       <c r="K23" t="n">
-        <v>759.3640984023325</v>
+        <v>759.3640984023323</v>
       </c>
       <c r="L23" t="n">
-        <v>1374.354485507893</v>
+        <v>1374.354485507894</v>
       </c>
       <c r="M23" t="n">
         <v>2075.256332597388</v>
@@ -6004,7 +6004,7 @@
         <v>2772.867506797299</v>
       </c>
       <c r="O23" t="n">
-        <v>3386.414318839715</v>
+        <v>3386.414318839714</v>
       </c>
       <c r="P23" t="n">
         <v>3872.387945103203</v>
@@ -6016,25 +6016,25 @@
         <v>4184.862129947451</v>
       </c>
       <c r="S23" t="n">
-        <v>4184.862129947451</v>
+        <v>4037.807806275409</v>
       </c>
       <c r="T23" t="n">
-        <v>4184.862129947451</v>
+        <v>3824.767726212709</v>
       </c>
       <c r="U23" t="n">
-        <v>4184.862129947451</v>
+        <v>3571.108183445254</v>
       </c>
       <c r="V23" t="n">
-        <v>3853.79924260388</v>
+        <v>3240.045296101684</v>
       </c>
       <c r="W23" t="n">
-        <v>3501.030587333766</v>
+        <v>2887.276640831569</v>
       </c>
       <c r="X23" t="n">
-        <v>3127.564829072686</v>
+        <v>2513.810882570489</v>
       </c>
       <c r="Y23" t="n">
-        <v>2737.425497096874</v>
+        <v>2123.671550594678</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>83.69724259894902</v>
       </c>
       <c r="J24" t="n">
-        <v>97.44346970195363</v>
+        <v>222.2735946889583</v>
       </c>
       <c r="K24" t="n">
-        <v>460.9133706552054</v>
+        <v>585.7434956422101</v>
       </c>
       <c r="L24" t="n">
-        <v>1011.047903745422</v>
+        <v>830.2751487930775</v>
       </c>
       <c r="M24" t="n">
-        <v>1243.960164219937</v>
+        <v>1063.187409267592</v>
       </c>
       <c r="N24" t="n">
-        <v>1497.445564092898</v>
+        <v>1316.672809140553</v>
       </c>
       <c r="O24" t="n">
-        <v>2097.039083469348</v>
+        <v>1916.266328517004</v>
       </c>
       <c r="P24" t="n">
-        <v>2561.262676189974</v>
+        <v>2380.48992123763</v>
       </c>
       <c r="Q24" t="n">
         <v>2638.113329722987</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83.69724259894902</v>
+        <v>252.1237615100579</v>
       </c>
       <c r="C25" t="n">
-        <v>83.69724259894902</v>
+        <v>252.1237615100579</v>
       </c>
       <c r="D25" t="n">
-        <v>83.69724259894902</v>
+        <v>252.1237615100579</v>
       </c>
       <c r="E25" t="n">
-        <v>83.69724259894902</v>
+        <v>252.1237615100579</v>
       </c>
       <c r="F25" t="n">
-        <v>83.69724259894902</v>
+        <v>252.1237615100579</v>
       </c>
       <c r="G25" t="n">
         <v>83.69724259894902</v>
@@ -6177,22 +6177,22 @@
         <v>1246.347809466494</v>
       </c>
       <c r="T25" t="n">
-        <v>1021.489096996574</v>
+        <v>1246.347809466494</v>
       </c>
       <c r="U25" t="n">
-        <v>1021.489096996574</v>
+        <v>957.2054690129111</v>
       </c>
       <c r="V25" t="n">
-        <v>766.8046087906876</v>
+        <v>702.5209808070242</v>
       </c>
       <c r="W25" t="n">
-        <v>477.3874387537269</v>
+        <v>654.5648054838277</v>
       </c>
       <c r="X25" t="n">
-        <v>249.3978878557096</v>
+        <v>654.5648054838277</v>
       </c>
       <c r="Y25" t="n">
-        <v>249.3978878557096</v>
+        <v>433.7722263402976</v>
       </c>
     </row>
     <row r="26">
@@ -6214,64 +6214,64 @@
         <v>1329.669624114832</v>
       </c>
       <c r="F26" t="n">
-        <v>918.6837193252242</v>
+        <v>918.6837193252243</v>
       </c>
       <c r="G26" t="n">
         <v>501.9979436540764</v>
       </c>
       <c r="H26" t="n">
-        <v>187.8918733206313</v>
+        <v>187.8918733206314</v>
       </c>
       <c r="I26" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J26" t="n">
-        <v>305.7779228843447</v>
+        <v>305.7779228843442</v>
       </c>
       <c r="K26" t="n">
-        <v>759.3640984023327</v>
+        <v>759.3640984023323</v>
       </c>
       <c r="L26" t="n">
         <v>1374.354485507894</v>
       </c>
       <c r="M26" t="n">
-        <v>2075.256332597389</v>
+        <v>2075.256332597388</v>
       </c>
       <c r="N26" t="n">
-        <v>2772.8675067973</v>
+        <v>2772.867506797299</v>
       </c>
       <c r="O26" t="n">
-        <v>3386.414318839715</v>
+        <v>3386.414318839714</v>
       </c>
       <c r="P26" t="n">
-        <v>3872.387945103204</v>
+        <v>3872.387945103203</v>
       </c>
       <c r="Q26" t="n">
-        <v>4160.112139796718</v>
+        <v>4160.112139796717</v>
       </c>
       <c r="R26" t="n">
-        <v>4184.862129947452</v>
+        <v>4184.862129947451</v>
       </c>
       <c r="S26" t="n">
-        <v>4184.862129947452</v>
+        <v>4184.862129947451</v>
       </c>
       <c r="T26" t="n">
-        <v>4184.862129947452</v>
+        <v>3971.822049884751</v>
       </c>
       <c r="U26" t="n">
-        <v>4184.862129947452</v>
+        <v>3971.822049884751</v>
       </c>
       <c r="V26" t="n">
-        <v>3945.659677831366</v>
+        <v>3640.759162541181</v>
       </c>
       <c r="W26" t="n">
-        <v>3592.891022561252</v>
+        <v>3287.990507271066</v>
       </c>
       <c r="X26" t="n">
-        <v>3219.425264300172</v>
+        <v>2914.524749009986</v>
       </c>
       <c r="Y26" t="n">
-        <v>2829.28593232436</v>
+        <v>2524.385417034175</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>122.1965121406916</v>
       </c>
       <c r="I27" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J27" t="n">
-        <v>97.44346970195365</v>
+        <v>222.2735946889583</v>
       </c>
       <c r="K27" t="n">
-        <v>199.0927860127526</v>
+        <v>585.7434956422101</v>
       </c>
       <c r="L27" t="n">
-        <v>749.2273191029691</v>
+        <v>1135.878028732426</v>
       </c>
       <c r="M27" t="n">
-        <v>1271.163924126083</v>
+        <v>1368.790289206941</v>
       </c>
       <c r="N27" t="n">
-        <v>1524.649323999044</v>
+        <v>1622.275689079902</v>
       </c>
       <c r="O27" t="n">
-        <v>2124.242843375494</v>
+        <v>1916.266328517004</v>
       </c>
       <c r="P27" t="n">
-        <v>2588.466436096121</v>
+        <v>2380.48992123763</v>
       </c>
       <c r="Q27" t="n">
         <v>2638.113329722987</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="C28" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="D28" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="E28" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="F28" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="G28" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="H28" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="I28" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J28" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="K28" t="n">
         <v>205.2788683970689</v>
@@ -6411,25 +6411,25 @@
         <v>1246.347809466494</v>
       </c>
       <c r="S28" t="n">
-        <v>1042.050116730303</v>
+        <v>1141.7999537653</v>
       </c>
       <c r="T28" t="n">
-        <v>817.1914042603831</v>
+        <v>916.9412412953799</v>
       </c>
       <c r="U28" t="n">
-        <v>554.7628774661493</v>
+        <v>627.7989008417965</v>
       </c>
       <c r="V28" t="n">
-        <v>554.7628774661493</v>
+        <v>373.1144126359096</v>
       </c>
       <c r="W28" t="n">
-        <v>265.3457074291887</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="X28" t="n">
-        <v>265.3457074291887</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="Y28" t="n">
-        <v>265.3457074291887</v>
+        <v>83.69724259894902</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1737.071710530556</v>
+        <v>2338.491461538556</v>
       </c>
       <c r="C29" t="n">
-        <v>1368.109193590144</v>
+        <v>1969.528944598144</v>
       </c>
       <c r="D29" t="n">
-        <v>1297.157175657949</v>
+        <v>1611.263245991394</v>
       </c>
       <c r="E29" t="n">
-        <v>911.3689230597043</v>
+        <v>1225.474993393149</v>
       </c>
       <c r="F29" t="n">
-        <v>500.3830182700968</v>
+        <v>814.4890886035419</v>
       </c>
       <c r="G29" t="n">
-        <v>83.69724259894902</v>
+        <v>397.8033129323941</v>
       </c>
       <c r="H29" t="n">
         <v>83.69724259894902</v>
@@ -6466,10 +6466,10 @@
         <v>305.7779228843443</v>
       </c>
       <c r="K29" t="n">
-        <v>759.3640984023325</v>
+        <v>759.3640984023324</v>
       </c>
       <c r="L29" t="n">
-        <v>1374.354485507893</v>
+        <v>1374.354485507894</v>
       </c>
       <c r="M29" t="n">
         <v>2075.256332597388</v>
@@ -6478,7 +6478,7 @@
         <v>2772.867506797299</v>
       </c>
       <c r="O29" t="n">
-        <v>3386.414318839715</v>
+        <v>3386.414318839714</v>
       </c>
       <c r="P29" t="n">
         <v>3872.387945103203</v>
@@ -6490,25 +6490,25 @@
         <v>4184.862129947451</v>
       </c>
       <c r="S29" t="n">
-        <v>4037.807806275409</v>
+        <v>4184.862129947451</v>
       </c>
       <c r="T29" t="n">
-        <v>3824.767726212709</v>
+        <v>3971.822049884751</v>
       </c>
       <c r="U29" t="n">
-        <v>3571.108183445254</v>
+        <v>3718.162507117296</v>
       </c>
       <c r="V29" t="n">
-        <v>3240.045296101684</v>
+        <v>3718.162507117296</v>
       </c>
       <c r="W29" t="n">
-        <v>2887.276640831569</v>
+        <v>3365.393851847182</v>
       </c>
       <c r="X29" t="n">
-        <v>2513.810882570489</v>
+        <v>3115.23063357849</v>
       </c>
       <c r="Y29" t="n">
-        <v>2123.671550594678</v>
+        <v>2725.091301602678</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>83.69724259894902</v>
       </c>
       <c r="J30" t="n">
-        <v>97.44346970195363</v>
+        <v>222.2735946889583</v>
       </c>
       <c r="K30" t="n">
-        <v>199.0927860127526</v>
+        <v>323.9229109997572</v>
       </c>
       <c r="L30" t="n">
-        <v>749.227319102969</v>
+        <v>874.0574440899736</v>
       </c>
       <c r="M30" t="n">
-        <v>1271.163924126083</v>
+        <v>1106.969704564488</v>
       </c>
       <c r="N30" t="n">
-        <v>1524.649323999044</v>
+        <v>1360.455104437449</v>
       </c>
       <c r="O30" t="n">
-        <v>2124.242843375494</v>
+        <v>1916.266328517004</v>
       </c>
       <c r="P30" t="n">
-        <v>2588.466436096121</v>
+        <v>2380.48992123763</v>
       </c>
       <c r="Q30" t="n">
         <v>2638.113329722987</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.9268025903614</v>
+        <v>349.6759672923179</v>
       </c>
       <c r="C31" t="n">
-        <v>546.9268025903614</v>
+        <v>349.6759672923179</v>
       </c>
       <c r="D31" t="n">
-        <v>546.9268025903614</v>
+        <v>349.6759672923179</v>
       </c>
       <c r="E31" t="n">
-        <v>399.0137090079683</v>
+        <v>349.6759672923179</v>
       </c>
       <c r="F31" t="n">
-        <v>252.1237615100579</v>
+        <v>202.7860197944075</v>
       </c>
       <c r="G31" t="n">
-        <v>83.69724259894902</v>
+        <v>202.7860197944075</v>
       </c>
       <c r="H31" t="n">
-        <v>83.69724259894902</v>
+        <v>202.7860197944075</v>
       </c>
       <c r="I31" t="n">
         <v>83.69724259894902</v>
@@ -6651,22 +6651,22 @@
         <v>1246.347809466494</v>
       </c>
       <c r="T31" t="n">
-        <v>1246.347809466494</v>
+        <v>1021.489096996574</v>
       </c>
       <c r="U31" t="n">
-        <v>983.259755626488</v>
+        <v>832.3500063962221</v>
       </c>
       <c r="V31" t="n">
-        <v>728.5752674206011</v>
+        <v>577.6655181903352</v>
       </c>
       <c r="W31" t="n">
-        <v>728.5752674206011</v>
+        <v>577.6655181903352</v>
       </c>
       <c r="X31" t="n">
-        <v>728.5752674206011</v>
+        <v>349.6759672923179</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.5752674206011</v>
+        <v>349.6759672923179</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2350.825657032753</v>
+        <v>2442.686092260238</v>
       </c>
       <c r="C32" t="n">
-        <v>1981.863140092341</v>
+        <v>2073.723575319827</v>
       </c>
       <c r="D32" t="n">
-        <v>1623.597441485591</v>
+        <v>1715.457876713076</v>
       </c>
       <c r="E32" t="n">
-        <v>1237.809188887347</v>
+        <v>1329.669624114832</v>
       </c>
       <c r="F32" t="n">
-        <v>826.8232840977391</v>
+        <v>918.6837193252242</v>
       </c>
       <c r="G32" t="n">
-        <v>410.1375084265914</v>
+        <v>501.9979436540764</v>
       </c>
       <c r="H32" t="n">
-        <v>96.03143809314628</v>
+        <v>187.8918733206313</v>
       </c>
       <c r="I32" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
       <c r="J32" t="n">
-        <v>305.7779228843447</v>
+        <v>305.7779228843442</v>
       </c>
       <c r="K32" t="n">
-        <v>759.3640984023327</v>
+        <v>759.3640984023323</v>
       </c>
       <c r="L32" t="n">
-        <v>1374.354485507894</v>
+        <v>1374.354485507893</v>
       </c>
       <c r="M32" t="n">
-        <v>2075.256332597389</v>
+        <v>2075.256332597388</v>
       </c>
       <c r="N32" t="n">
-        <v>2772.8675067973</v>
+        <v>2772.867506797299</v>
       </c>
       <c r="O32" t="n">
-        <v>3386.414318839715</v>
+        <v>3386.414318839714</v>
       </c>
       <c r="P32" t="n">
-        <v>3872.387945103204</v>
+        <v>3872.387945103203</v>
       </c>
       <c r="Q32" t="n">
-        <v>4160.112139796718</v>
+        <v>4160.112139796716</v>
       </c>
       <c r="R32" t="n">
-        <v>4184.862129947452</v>
+        <v>4184.86212994745</v>
       </c>
       <c r="S32" t="n">
-        <v>4184.862129947452</v>
+        <v>4037.807806275408</v>
       </c>
       <c r="T32" t="n">
-        <v>4184.862129947452</v>
+        <v>4037.807806275408</v>
       </c>
       <c r="U32" t="n">
-        <v>4184.862129947452</v>
+        <v>3945.659677831366</v>
       </c>
       <c r="V32" t="n">
-        <v>3853.799242603881</v>
+        <v>3945.659677831366</v>
       </c>
       <c r="W32" t="n">
-        <v>3501.030587333767</v>
+        <v>3592.891022561252</v>
       </c>
       <c r="X32" t="n">
-        <v>3127.564829072687</v>
+        <v>3219.425264300172</v>
       </c>
       <c r="Y32" t="n">
-        <v>2737.425497096875</v>
+        <v>2829.28593232436</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>122.1965121406916</v>
       </c>
       <c r="I33" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
       <c r="J33" t="n">
-        <v>97.44346970195365</v>
+        <v>222.2735946889583</v>
       </c>
       <c r="K33" t="n">
-        <v>394.2010592992764</v>
+        <v>585.7434956422101</v>
       </c>
       <c r="L33" t="n">
-        <v>577.2036505390682</v>
+        <v>1135.878028732426</v>
       </c>
       <c r="M33" t="n">
-        <v>1271.163924126083</v>
+        <v>1368.790289206941</v>
       </c>
       <c r="N33" t="n">
-        <v>1524.649323999044</v>
+        <v>1622.275689079902</v>
       </c>
       <c r="O33" t="n">
-        <v>2124.242843375494</v>
+        <v>2221.869208456353</v>
       </c>
       <c r="P33" t="n">
-        <v>2588.466436096121</v>
+        <v>2380.48992123763</v>
       </c>
       <c r="Q33" t="n">
         <v>2638.113329722987</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
       <c r="C34" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
       <c r="D34" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
       <c r="E34" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
       <c r="F34" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
       <c r="G34" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
       <c r="H34" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
       <c r="I34" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
       <c r="J34" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
       <c r="K34" t="n">
         <v>205.2788683970689</v>
@@ -6882,28 +6882,28 @@
         <v>1246.347809466494</v>
       </c>
       <c r="R34" t="n">
-        <v>1123.977965081255</v>
+        <v>1246.347809466494</v>
       </c>
       <c r="S34" t="n">
-        <v>1080.372334626357</v>
+        <v>1246.347809466494</v>
       </c>
       <c r="T34" t="n">
-        <v>855.5136221564367</v>
+        <v>1021.489096996574</v>
       </c>
       <c r="U34" t="n">
-        <v>566.3712817028533</v>
+        <v>1021.489096996574</v>
       </c>
       <c r="V34" t="n">
-        <v>311.6867934969664</v>
+        <v>766.8046087906876</v>
       </c>
       <c r="W34" t="n">
-        <v>311.6867934969664</v>
+        <v>477.3874387537269</v>
       </c>
       <c r="X34" t="n">
-        <v>83.69724259894903</v>
+        <v>249.3978878557096</v>
       </c>
       <c r="Y34" t="n">
-        <v>83.69724259894903</v>
+        <v>83.697242598949</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2123.671550594679</v>
+        <v>2274.265366178409</v>
       </c>
       <c r="C35" t="n">
-        <v>1754.709033654267</v>
+        <v>1905.302849237998</v>
       </c>
       <c r="D35" t="n">
-        <v>1396.443335047516</v>
+        <v>1547.037150631247</v>
       </c>
       <c r="E35" t="n">
-        <v>1015.563553781387</v>
+        <v>1161.248898033003</v>
       </c>
       <c r="F35" t="n">
-        <v>604.5776489917791</v>
+        <v>750.2629932433954</v>
       </c>
       <c r="G35" t="n">
-        <v>187.8918733206313</v>
+        <v>333.5772175722476</v>
       </c>
       <c r="H35" t="n">
-        <v>187.8918733206313</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="I35" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J35" t="n">
-        <v>305.7779228843447</v>
+        <v>305.7779228843438</v>
       </c>
       <c r="K35" t="n">
-        <v>759.3640984023327</v>
+        <v>759.3640984023322</v>
       </c>
       <c r="L35" t="n">
         <v>1374.354485507894</v>
       </c>
       <c r="M35" t="n">
-        <v>2075.256332597389</v>
+        <v>2075.256332597388</v>
       </c>
       <c r="N35" t="n">
-        <v>2772.8675067973</v>
+        <v>2772.867506797299</v>
       </c>
       <c r="O35" t="n">
         <v>3386.414318839715</v>
       </c>
       <c r="P35" t="n">
-        <v>3872.387945103204</v>
+        <v>3872.387945103203</v>
       </c>
       <c r="Q35" t="n">
-        <v>4160.112139796718</v>
+        <v>4160.112139796717</v>
       </c>
       <c r="R35" t="n">
-        <v>4184.862129947452</v>
+        <v>4184.862129947451</v>
       </c>
       <c r="S35" t="n">
-        <v>4037.80780627541</v>
+        <v>4184.862129947451</v>
       </c>
       <c r="T35" t="n">
-        <v>3824.76772621271</v>
+        <v>3971.822049884751</v>
       </c>
       <c r="U35" t="n">
-        <v>3571.108183445255</v>
+        <v>3718.162507117296</v>
       </c>
       <c r="V35" t="n">
-        <v>3240.045296101684</v>
+        <v>3387.099619773725</v>
       </c>
       <c r="W35" t="n">
-        <v>2887.27664083157</v>
+        <v>3034.330964503611</v>
       </c>
       <c r="X35" t="n">
-        <v>2513.81088257049</v>
+        <v>2660.865206242531</v>
       </c>
       <c r="Y35" t="n">
-        <v>2123.671550594679</v>
+        <v>2660.865206242531</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>122.1965121406916</v>
       </c>
       <c r="I36" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J36" t="n">
-        <v>97.44346970195365</v>
+        <v>97.4434697019536</v>
       </c>
       <c r="K36" t="n">
-        <v>199.0927860127526</v>
+        <v>199.0927860127525</v>
       </c>
       <c r="L36" t="n">
-        <v>749.2273191029691</v>
+        <v>382.0953772525443</v>
       </c>
       <c r="M36" t="n">
-        <v>1443.187592689984</v>
+        <v>1076.055650839559</v>
       </c>
       <c r="N36" t="n">
-        <v>1696.672992562945</v>
+        <v>1804.090001312638</v>
       </c>
       <c r="O36" t="n">
-        <v>2296.266511939395</v>
+        <v>2403.683520689089</v>
       </c>
       <c r="P36" t="n">
         <v>2588.466436096121</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>432.3945806539019</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="C37" t="n">
-        <v>432.3945806539019</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="D37" t="n">
-        <v>282.2779412415662</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="E37" t="n">
-        <v>282.2779412415662</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="F37" t="n">
-        <v>282.2779412415662</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="G37" t="n">
-        <v>207.9115527427714</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="H37" t="n">
-        <v>207.9115527427714</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="I37" t="n">
-        <v>88.82277554731292</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="J37" t="n">
-        <v>83.69724259894903</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="K37" t="n">
         <v>205.2788683970689</v>
@@ -7119,28 +7119,28 @@
         <v>1246.347809466494</v>
       </c>
       <c r="R37" t="n">
-        <v>1123.977965081255</v>
+        <v>1246.347809466494</v>
       </c>
       <c r="S37" t="n">
-        <v>1123.977965081255</v>
+        <v>1246.347809466494</v>
       </c>
       <c r="T37" t="n">
-        <v>1123.977965081255</v>
+        <v>1021.489096996574</v>
       </c>
       <c r="U37" t="n">
-        <v>834.8356246276718</v>
+        <v>732.346756542991</v>
       </c>
       <c r="V37" t="n">
-        <v>834.8356246276718</v>
+        <v>477.6622683371041</v>
       </c>
       <c r="W37" t="n">
-        <v>834.8356246276718</v>
+        <v>188.2450983001435</v>
       </c>
       <c r="X37" t="n">
-        <v>834.8356246276718</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="Y37" t="n">
-        <v>614.0430454841417</v>
+        <v>83.69724259894902</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2442.686092260238</v>
+        <v>2338.491461538556</v>
       </c>
       <c r="C38" t="n">
-        <v>2073.723575319827</v>
+        <v>1969.528944598144</v>
       </c>
       <c r="D38" t="n">
-        <v>1715.457876713076</v>
+        <v>1611.263245991394</v>
       </c>
       <c r="E38" t="n">
-        <v>1329.669624114832</v>
+        <v>1225.474993393149</v>
       </c>
       <c r="F38" t="n">
-        <v>918.6837193252242</v>
+        <v>814.4890886035419</v>
       </c>
       <c r="G38" t="n">
-        <v>501.9979436540764</v>
+        <v>397.8033129323941</v>
       </c>
       <c r="H38" t="n">
-        <v>187.8918733206313</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="I38" t="n">
         <v>83.69724259894902</v>
       </c>
       <c r="J38" t="n">
-        <v>305.7779228843443</v>
+        <v>305.7779228843442</v>
       </c>
       <c r="K38" t="n">
-        <v>759.3640984023325</v>
+        <v>759.3640984023326</v>
       </c>
       <c r="L38" t="n">
         <v>1374.354485507894</v>
@@ -7186,7 +7186,7 @@
         <v>2075.256332597389</v>
       </c>
       <c r="N38" t="n">
-        <v>2772.8675067973</v>
+        <v>2772.867506797299</v>
       </c>
       <c r="O38" t="n">
         <v>3386.414318839715</v>
@@ -7204,22 +7204,22 @@
         <v>4037.807806275409</v>
       </c>
       <c r="T38" t="n">
-        <v>3824.767726212709</v>
+        <v>4037.807806275409</v>
       </c>
       <c r="U38" t="n">
-        <v>3571.108183445254</v>
+        <v>3784.148263507954</v>
       </c>
       <c r="V38" t="n">
-        <v>3240.045296101684</v>
+        <v>3453.085376164383</v>
       </c>
       <c r="W38" t="n">
-        <v>3202.75169058544</v>
+        <v>3100.316720894269</v>
       </c>
       <c r="X38" t="n">
-        <v>2829.28593232436</v>
+        <v>2726.850962633189</v>
       </c>
       <c r="Y38" t="n">
-        <v>2829.28593232436</v>
+        <v>2725.091301602678</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>83.69724259894902</v>
       </c>
       <c r="J39" t="n">
-        <v>222.2735946889584</v>
+        <v>222.2735946889583</v>
       </c>
       <c r="K39" t="n">
-        <v>585.7434956422102</v>
+        <v>585.7434956422101</v>
       </c>
       <c r="L39" t="n">
-        <v>878.9808540049877</v>
+        <v>1135.878028732426</v>
       </c>
       <c r="M39" t="n">
-        <v>1111.893114479502</v>
+        <v>1368.790289206941</v>
       </c>
       <c r="N39" t="n">
-        <v>1839.927464952582</v>
+        <v>1622.275689079902</v>
       </c>
       <c r="O39" t="n">
-        <v>2439.520984329032</v>
+        <v>1916.266328517004</v>
       </c>
       <c r="P39" t="n">
-        <v>2588.466436096121</v>
+        <v>2380.48992123763</v>
       </c>
       <c r="Q39" t="n">
         <v>2638.113329722987</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>702.2461512236471</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="C40" t="n">
-        <v>702.2461512236471</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="D40" t="n">
-        <v>552.1295118113113</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="E40" t="n">
-        <v>404.2164182289182</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="F40" t="n">
-        <v>257.3264707310078</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="G40" t="n">
-        <v>257.3264707310078</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="H40" t="n">
-        <v>202.7860197944075</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="I40" t="n">
         <v>83.69724259894902</v>
@@ -7362,22 +7362,22 @@
         <v>1246.347809466494</v>
       </c>
       <c r="T40" t="n">
-        <v>1246.347809466494</v>
+        <v>1021.489096996574</v>
       </c>
       <c r="U40" t="n">
-        <v>1246.347809466494</v>
+        <v>732.346756542991</v>
       </c>
       <c r="V40" t="n">
-        <v>991.6633212606076</v>
+        <v>477.6622683371041</v>
       </c>
       <c r="W40" t="n">
-        <v>702.2461512236471</v>
+        <v>188.2450983001435</v>
       </c>
       <c r="X40" t="n">
-        <v>702.2461512236471</v>
+        <v>83.69724259894902</v>
       </c>
       <c r="Y40" t="n">
-        <v>702.2461512236471</v>
+        <v>83.69724259894902</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2328.786014066227</v>
+        <v>2432.98064478791</v>
       </c>
       <c r="C41" t="n">
-        <v>1959.823497125816</v>
+        <v>2064.018127847498</v>
       </c>
       <c r="D41" t="n">
-        <v>1601.557798519065</v>
+        <v>1705.752429240747</v>
       </c>
       <c r="E41" t="n">
-        <v>1215.769545920821</v>
+        <v>1319.964176642503</v>
       </c>
       <c r="F41" t="n">
-        <v>804.7836411312134</v>
+        <v>908.9782718528957</v>
       </c>
       <c r="G41" t="n">
-        <v>388.0978654600656</v>
+        <v>492.2924961817479</v>
       </c>
       <c r="H41" t="n">
-        <v>73.99179512662049</v>
+        <v>178.1864258483028</v>
       </c>
       <c r="I41" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J41" t="n">
-        <v>128.6668263916626</v>
+        <v>296.0724754120156</v>
       </c>
       <c r="K41" t="n">
-        <v>509.0335556899447</v>
+        <v>749.6586509300037</v>
       </c>
       <c r="L41" t="n">
-        <v>1124.023942795506</v>
+        <v>1364.649038035565</v>
       </c>
       <c r="M41" t="n">
-        <v>1824.925789885001</v>
+        <v>2022.957414148827</v>
       </c>
       <c r="N41" t="n">
-        <v>2522.536964084912</v>
+        <v>2287.595133180874</v>
       </c>
       <c r="O41" t="n">
-        <v>3136.083776127327</v>
+        <v>2901.141945223289</v>
       </c>
       <c r="P41" t="n">
-        <v>3622.057402390816</v>
+        <v>3387.115571486778</v>
       </c>
       <c r="Q41" t="n">
-        <v>3699.589756331024</v>
+        <v>3674.839766180291</v>
       </c>
       <c r="R41" t="n">
-        <v>3699.589756331024</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S41" t="n">
-        <v>3699.589756331024</v>
+        <v>3583.185575088923</v>
       </c>
       <c r="T41" t="n">
-        <v>3699.589756331024</v>
+        <v>3583.185575088923</v>
       </c>
       <c r="U41" t="n">
-        <v>3699.589756331024</v>
+        <v>3583.185575088923</v>
       </c>
       <c r="V41" t="n">
-        <v>3699.589756331024</v>
+        <v>3583.185575088923</v>
       </c>
       <c r="W41" t="n">
-        <v>3478.990944367241</v>
+        <v>3583.185575088923</v>
       </c>
       <c r="X41" t="n">
-        <v>3105.525186106161</v>
+        <v>3209.719816827843</v>
       </c>
       <c r="Y41" t="n">
-        <v>2715.385854130349</v>
+        <v>2819.580484852032</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>211.3297044847806</v>
       </c>
       <c r="H42" t="n">
-        <v>112.491064668363</v>
+        <v>112.4910646683631</v>
       </c>
       <c r="I42" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J42" t="n">
-        <v>87.7380222296251</v>
+        <v>212.5681472166298</v>
       </c>
       <c r="K42" t="n">
-        <v>189.3873385404241</v>
+        <v>576.0380481698816</v>
       </c>
       <c r="L42" t="n">
-        <v>739.5218716306406</v>
+        <v>1126.172581260098</v>
       </c>
       <c r="M42" t="n">
-        <v>1433.482145217655</v>
+        <v>1443.405657879226</v>
       </c>
       <c r="N42" t="n">
-        <v>1686.967545090617</v>
+        <v>1696.891057752187</v>
       </c>
       <c r="O42" t="n">
-        <v>2286.561064467067</v>
+        <v>1906.560881044675</v>
       </c>
       <c r="P42" t="n">
-        <v>2578.760988623792</v>
+        <v>2370.784473765301</v>
       </c>
       <c r="Q42" t="n">
         <v>2628.407882250658</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>395.579358250666</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C43" t="n">
-        <v>226.6431753227591</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D43" t="n">
-        <v>226.6431753227591</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E43" t="n">
-        <v>226.6431753227591</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6431753227591</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G43" t="n">
-        <v>226.6431753227591</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H43" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I43" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J43" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K43" t="n">
         <v>195.5734209247404</v>
@@ -7578,10 +7578,10 @@
         <v>406.6824774606018</v>
       </c>
       <c r="M43" t="n">
-        <v>639.6565009982968</v>
+        <v>639.6565009982967</v>
       </c>
       <c r="N43" t="n">
-        <v>872.525539400665</v>
+        <v>872.5255394006649</v>
       </c>
       <c r="O43" t="n">
         <v>1071.601491796825</v>
@@ -7599,22 +7599,22 @@
         <v>1236.642361994166</v>
       </c>
       <c r="T43" t="n">
-        <v>1236.642361994166</v>
+        <v>1011.783649524246</v>
       </c>
       <c r="U43" t="n">
-        <v>947.5000215405825</v>
+        <v>722.6413090706624</v>
       </c>
       <c r="V43" t="n">
-        <v>905.7891074311567</v>
+        <v>467.9568208647755</v>
       </c>
       <c r="W43" t="n">
-        <v>616.3719373941962</v>
+        <v>178.5396508278149</v>
       </c>
       <c r="X43" t="n">
-        <v>616.3719373941962</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y43" t="n">
-        <v>395.579358250666</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2196.616170759896</v>
+        <v>1645.717426792371</v>
       </c>
       <c r="C44" t="n">
-        <v>1827.653653819485</v>
+        <v>1645.717426792371</v>
       </c>
       <c r="D44" t="n">
-        <v>1469.387955212734</v>
+        <v>1287.45172818562</v>
       </c>
       <c r="E44" t="n">
-        <v>1083.59970261449</v>
+        <v>901.6634755873758</v>
       </c>
       <c r="F44" t="n">
-        <v>672.6137978248823</v>
+        <v>490.6775707977683</v>
       </c>
       <c r="G44" t="n">
-        <v>255.9280221537346</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H44" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I44" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J44" t="n">
         <v>296.0724754120156</v>
       </c>
       <c r="K44" t="n">
-        <v>749.6586509300039</v>
+        <v>749.6586509300037</v>
       </c>
       <c r="L44" t="n">
         <v>1364.649038035565</v>
@@ -7660,40 +7660,40 @@
         <v>1620.532486967156</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.345123331606</v>
+        <v>2318.143661167066</v>
       </c>
       <c r="O44" t="n">
-        <v>2925.891935374022</v>
+        <v>2925.891935374023</v>
       </c>
       <c r="P44" t="n">
-        <v>3411.865561637511</v>
+        <v>3411.865561637512</v>
       </c>
       <c r="Q44" t="n">
-        <v>3699.589756331024</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R44" t="n">
-        <v>3699.589756331024</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S44" t="n">
-        <v>3699.589756331024</v>
+        <v>3552.535432658983</v>
       </c>
       <c r="T44" t="n">
-        <v>3699.589756331024</v>
+        <v>3552.535432658983</v>
       </c>
       <c r="U44" t="n">
-        <v>3699.589756331024</v>
+        <v>3298.875889891528</v>
       </c>
       <c r="V44" t="n">
-        <v>3699.589756331024</v>
+        <v>2967.813002547957</v>
       </c>
       <c r="W44" t="n">
-        <v>3346.82110106091</v>
+        <v>2615.044347277843</v>
       </c>
       <c r="X44" t="n">
-        <v>2973.35534279983</v>
+        <v>2422.456598832304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2583.216010824018</v>
+        <v>2032.317266856492</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>211.3297044847806</v>
       </c>
       <c r="H45" t="n">
-        <v>112.491064668363</v>
+        <v>112.4910646683631</v>
       </c>
       <c r="I45" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J45" t="n">
-        <v>87.7380222296251</v>
+        <v>212.5681472166298</v>
       </c>
       <c r="K45" t="n">
-        <v>189.3873385404241</v>
+        <v>576.0380481698816</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5218716306406</v>
+        <v>1126.172581260098</v>
       </c>
       <c r="M45" t="n">
-        <v>1261.458476653754</v>
+        <v>1359.084841734613</v>
       </c>
       <c r="N45" t="n">
-        <v>1514.943876526715</v>
+        <v>1612.570241607574</v>
       </c>
       <c r="O45" t="n">
-        <v>2114.537395903166</v>
+        <v>1906.560881044675</v>
       </c>
       <c r="P45" t="n">
-        <v>2578.760988623792</v>
+        <v>2370.784473765301</v>
       </c>
       <c r="Q45" t="n">
         <v>2628.407882250658</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126.6685664465718</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="C46" t="n">
-        <v>126.6685664465718</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="D46" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E46" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F46" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G46" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H46" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I46" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J46" t="n">
-        <v>73.99179512662049</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K46" t="n">
         <v>195.5734209247404</v>
@@ -7815,10 +7815,10 @@
         <v>406.6824774606018</v>
       </c>
       <c r="M46" t="n">
-        <v>639.6565009982968</v>
+        <v>639.6565009982967</v>
       </c>
       <c r="N46" t="n">
-        <v>872.525539400665</v>
+        <v>872.5255394006649</v>
       </c>
       <c r="O46" t="n">
         <v>1071.601491796825</v>
@@ -7839,19 +7839,19 @@
         <v>1011.783649524246</v>
       </c>
       <c r="U46" t="n">
-        <v>1011.783649524246</v>
+        <v>722.6413090706624</v>
       </c>
       <c r="V46" t="n">
-        <v>757.0991613183589</v>
+        <v>467.9568208647755</v>
       </c>
       <c r="W46" t="n">
-        <v>757.0991613183589</v>
+        <v>178.5396508278149</v>
       </c>
       <c r="X46" t="n">
-        <v>529.1096104203416</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="Y46" t="n">
-        <v>308.3170312768115</v>
+        <v>73.9917951266205</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>48.10560617264085</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>15.92129162593254</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>85.17254156021528</v>
+        <v>85.17254156021534</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9488,7 +9488,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>85.17254156021539</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>148.0075341860015</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>62.1505675869451</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.47854535974368</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>291.9437823723222</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>85.17254156021534</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,19 +10199,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>291.9437823723223</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>349.6377785727942</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,16 +10427,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>197.0790639257816</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10445,10 +10445,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>9.772990923423237</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,19 +10670,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>144.7014872622599</v>
+        <v>36.19945822216528</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>111.3482496191774</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>85.17254156021534</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>250.186375985603</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>406.4898254360322</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>40.71642982173623</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>85.17254156021517</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>144.7014872622594</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11308,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>431.4898154872767</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>374.9430723380395</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>40.71642982173623</v>
+        <v>40.71642982173626</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>291.9437823723221</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>85.17254156021534</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>80.34042215652607</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>362.5617308895322</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>123.3005320191913</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
         <v>17.69584188176918</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>5.623486053399247</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
         <v>286.260654658097</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>71.43590749695704</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>118.4960408938905</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>175.8567869293057</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,7 +23670,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>123.2665578794171</v>
@@ -23706,7 +23706,7 @@
         <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>58.35886639452562</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>154.9448794416275</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>133.3729268960664</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.9096792620724</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.1229473397806</v>
@@ -23794,7 +23794,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>344.2826061581395</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.7422537219978</v>
@@ -23913,7 +23913,7 @@
         <v>117.8978894235039</v>
       </c>
       <c r="J19" t="n">
-        <v>5.074277618880245</v>
+        <v>5.074277618880259</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>202.2547158088292</v>
       </c>
       <c r="T19" t="n">
-        <v>122.2072782448547</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>11.46521095083176</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>238.9120938005253</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>103.1526844144655</v>
@@ -24022,7 +24022,7 @@
         <v>145.5837804353215</v>
       </c>
       <c r="T20" t="n">
-        <v>210.9096792620724</v>
+        <v>84.54888129159079</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7422537219978</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>151.1248663941772</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>117.8978894235039</v>
       </c>
       <c r="J22" t="n">
-        <v>5.074277618880245</v>
+        <v>5.074277618880259</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>121.1461459413868</v>
       </c>
       <c r="S22" t="n">
-        <v>202.2547158088292</v>
+        <v>158.7925383697116</v>
       </c>
       <c r="T22" t="n">
-        <v>181.6423333779493</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2509170490476</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>284.4405438678092</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>310.9650096301106</v>
       </c>
       <c r="I23" t="n">
-        <v>90.94183087521108</v>
+        <v>103.1526844144655</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>145.5837804353215</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.9096792620724</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1229473397806</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.78834137774433</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7422537219978</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>151.1248663941772</v>
@@ -24387,7 +24387,7 @@
         <v>117.8978894235039</v>
       </c>
       <c r="J25" t="n">
-        <v>5.074277618880245</v>
+        <v>5.074277618880259</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>202.2547158088292</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.6101253452209</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2509170490476</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>239.0463847666265</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>301.8515101372835</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24496,13 +24496,13 @@
         <v>145.5837804353215</v>
       </c>
       <c r="T26" t="n">
-        <v>210.9096792620724</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.1229473397806</v>
       </c>
       <c r="V26" t="n">
-        <v>90.94183087521014</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24624,7 +24624,7 @@
         <v>117.8978894235039</v>
       </c>
       <c r="J28" t="n">
-        <v>5.074277618880245</v>
+        <v>5.074277618880259</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>121.1461459413868</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>98.75233866464667</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>26.44667552275615</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>284.4405438678091</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>310.9650096301106</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>103.1526844144655</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>145.5837804353215</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>122.0695145924638</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,22 +24846,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.7422537219978</v>
       </c>
       <c r="H31" t="n">
         <v>151.1248663941772</v>
       </c>
       <c r="I31" t="n">
-        <v>117.8978894235039</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>5.074277618880245</v>
+        <v>5.074277618880259</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>202.2547158088292</v>
       </c>
       <c r="T31" t="n">
-        <v>222.6101253452209</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>25.79374374744117</v>
+        <v>99.00321735469876</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>90.9418308752102</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>145.5837804353215</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.9096792620724</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1229473397806</v>
+        <v>159.8963001801791</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25098,7 +25098,7 @@
         <v>117.8978894235039</v>
       </c>
       <c r="J34" t="n">
-        <v>5.074277618880245</v>
+        <v>5.074277618880259</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>121.1461459413868</v>
       </c>
       <c r="S34" t="n">
-        <v>159.0851416584799</v>
+        <v>202.2547158088292</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2509170490476</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>54.54101454790182</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,7 +25162,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>4.85938661879328</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>310.9650096301106</v>
+        <v>63.58383440654501</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>103.1526844144655</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>145.5837804353215</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,16 +25326,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>93.11952910819095</v>
+        <v>166.7422537219978</v>
       </c>
       <c r="H37" t="n">
         <v>151.1248663941772</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>117.8978894235039</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.074277618880259</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>121.1461459413868</v>
       </c>
       <c r="S37" t="n">
         <v>202.2547158088292</v>
       </c>
       <c r="T37" t="n">
-        <v>222.6101253452209</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>122.2072782448546</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>103.1526844144655</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.9096792620724</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,13 +25453,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>312.3202992563319</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>384.4958742358479</v>
       </c>
     </row>
     <row r="39">
@@ -25554,25 +25554,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.7422537219978</v>
       </c>
       <c r="H40" t="n">
-        <v>97.12981996694295</v>
+        <v>151.1248663941772</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>117.8978894235039</v>
       </c>
       <c r="J40" t="n">
-        <v>5.074277618880245</v>
+        <v>5.074277618880259</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>202.2547158088292</v>
       </c>
       <c r="T40" t="n">
-        <v>222.6101253452209</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2509170490476</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>122.2072782448546</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>103.1526844144655</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>145.5837804353215</v>
+        <v>30.34364100564059</v>
       </c>
       <c r="T41" t="n">
         <v>210.9096792620724</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>130.8481448732677</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25803,13 +25803,13 @@
         <v>166.7422537219978</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>151.1248663941772</v>
       </c>
       <c r="I43" t="n">
         <v>117.8978894235039</v>
       </c>
       <c r="J43" t="n">
-        <v>5.074277618880245</v>
+        <v>5.074277618880259</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>202.2547158088292</v>
       </c>
       <c r="T43" t="n">
-        <v>222.6101253452209</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>210.8438383554965</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>122.2072782448547</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>130.8481448732677</v>
+        <v>310.9650096301106</v>
       </c>
       <c r="I44" t="n">
         <v>103.1526844144655</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>145.5837804353215</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.9096792620724</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1229473397806</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>179.0692297173854</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>96.4654694114606</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26046,7 +26046,7 @@
         <v>117.8978894235039</v>
       </c>
       <c r="J46" t="n">
-        <v>5.074277618880245</v>
+        <v>5.074277618880259</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26079,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2509170490476</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>122.2072782448547</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>722854.55390414</v>
+        <v>722854.5539041399</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>763258.6172679838</v>
+        <v>763258.6172679837</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>763258.6172679838</v>
+        <v>763258.6172679837</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>763258.617267984</v>
+        <v>763258.6172679837</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>763258.617267984</v>
+        <v>763258.6172679837</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763258.6172679837</v>
+        <v>763258.6172679838</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>719071.4551524176</v>
+        <v>719071.4551524179</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>719071.4551524176</v>
+        <v>719071.4551524179</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="E2" t="n">
+        <v>523490.2663246512</v>
+      </c>
+      <c r="F2" t="n">
         <v>523490.2663246511</v>
       </c>
-      <c r="F2" t="n">
-        <v>523490.2663246514</v>
-      </c>
       <c r="G2" t="n">
+        <v>558011.3005501882</v>
+      </c>
+      <c r="H2" t="n">
         <v>558011.3005501881</v>
-      </c>
-      <c r="H2" t="n">
-        <v>558011.3005501882</v>
       </c>
       <c r="I2" t="n">
         <v>558011.3005501881</v>
       </c>
       <c r="J2" t="n">
+        <v>558011.3005501881</v>
+      </c>
+      <c r="K2" t="n">
+        <v>558011.3005501881</v>
+      </c>
+      <c r="L2" t="n">
+        <v>558011.3005501879</v>
+      </c>
+      <c r="M2" t="n">
+        <v>558011.3005501881</v>
+      </c>
+      <c r="N2" t="n">
         <v>558011.3005501883</v>
       </c>
-      <c r="K2" t="n">
-        <v>558011.3005501879</v>
-      </c>
-      <c r="L2" t="n">
-        <v>558011.3005501884</v>
-      </c>
-      <c r="M2" t="n">
-        <v>558011.3005501883</v>
-      </c>
-      <c r="N2" t="n">
-        <v>558011.3005501882</v>
-      </c>
       <c r="O2" t="n">
-        <v>528966.9541130968</v>
+        <v>528966.9541130972</v>
       </c>
       <c r="P2" t="n">
-        <v>528966.954113097</v>
+        <v>528966.9541130973</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>110221.9248418905</v>
+        <v>110221.9248418904</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910624</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>349658.5333084539</v>
+        <v>349658.533308454</v>
       </c>
       <c r="C4" t="n">
         <v>349658.533308454</v>
@@ -26447,19 +26447,19 @@
         <v>65232.52190779891</v>
       </c>
       <c r="L4" t="n">
+        <v>65232.52190779892</v>
+      </c>
+      <c r="M4" t="n">
         <v>65232.5219077989</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>65232.52190779891</v>
       </c>
-      <c r="N4" t="n">
-        <v>65232.5219077989</v>
-      </c>
       <c r="O4" t="n">
-        <v>57117.20771921512</v>
+        <v>57117.20771921515</v>
       </c>
       <c r="P4" t="n">
-        <v>57117.20771921513</v>
+        <v>57117.20771921515</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>69171.54328360138</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="F5" t="n">
         <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>78705.86211489067</v>
+        <v>78705.86211489065</v>
       </c>
       <c r="H5" t="n">
-        <v>78705.86211489067</v>
+        <v>78705.86211489065</v>
       </c>
       <c r="I5" t="n">
         <v>78705.86211489065</v>
       </c>
       <c r="J5" t="n">
-        <v>78705.86211489067</v>
+        <v>78705.86211489065</v>
       </c>
       <c r="K5" t="n">
         <v>78705.86211489065</v>
       </c>
       <c r="L5" t="n">
-        <v>78705.86211489067</v>
+        <v>78705.86211489064</v>
       </c>
       <c r="M5" t="n">
-        <v>78705.86211489067</v>
+        <v>78705.86211489065</v>
       </c>
       <c r="N5" t="n">
         <v>78705.86211489065</v>
       </c>
       <c r="O5" t="n">
-        <v>71329.72203592098</v>
+        <v>71329.72203592099</v>
       </c>
       <c r="P5" t="n">
-        <v>71329.72203592098</v>
+        <v>71329.72203592099</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>157598.1380410565</v>
+        <v>157598.1380410562</v>
       </c>
       <c r="C6" t="n">
-        <v>238367.5695726043</v>
+        <v>238367.5695726039</v>
       </c>
       <c r="D6" t="n">
-        <v>238367.5695726039</v>
+        <v>238367.569572604</v>
       </c>
       <c r="E6" t="n">
-        <v>-298672.5405379181</v>
+        <v>-295397.2052221712</v>
       </c>
       <c r="F6" t="n">
-        <v>382320.402123921</v>
+        <v>385595.7374396676</v>
       </c>
       <c r="G6" t="n">
-        <v>301325.3119728779</v>
+        <v>303598.4237143353</v>
       </c>
       <c r="H6" t="n">
-        <v>411547.2368147686</v>
+        <v>413820.3485562255</v>
       </c>
       <c r="I6" t="n">
-        <v>411547.2368147685</v>
+        <v>413820.3485562255</v>
       </c>
       <c r="J6" t="n">
-        <v>348487.2942156625</v>
+        <v>350760.4059571193</v>
       </c>
       <c r="K6" t="n">
-        <v>411547.2368147683</v>
+        <v>413820.3485562255</v>
       </c>
       <c r="L6" t="n">
-        <v>411547.2368147688</v>
+        <v>413820.3485562254</v>
       </c>
       <c r="M6" t="n">
-        <v>241120.8202510577</v>
+        <v>243393.9319925145</v>
       </c>
       <c r="N6" t="n">
-        <v>411547.2368147686</v>
+        <v>413820.3485562258</v>
       </c>
       <c r="O6" t="n">
-        <v>397057.4302440342</v>
+        <v>400173.7649465683</v>
       </c>
       <c r="P6" t="n">
-        <v>397057.4302440344</v>
+        <v>400173.7649465685</v>
       </c>
     </row>
   </sheetData>
@@ -26752,34 +26752,34 @@
         <v>593.4761003380636</v>
       </c>
       <c r="G3" t="n">
-        <v>692.475125673826</v>
+        <v>692.4751256738259</v>
       </c>
       <c r="H3" t="n">
-        <v>692.475125673826</v>
+        <v>692.4751256738259</v>
       </c>
       <c r="I3" t="n">
-        <v>692.475125673826</v>
+        <v>692.4751256738259</v>
       </c>
       <c r="J3" t="n">
-        <v>692.475125673826</v>
+        <v>692.4751256738259</v>
       </c>
       <c r="K3" t="n">
-        <v>692.475125673826</v>
+        <v>692.4751256738259</v>
       </c>
       <c r="L3" t="n">
-        <v>692.475125673826</v>
+        <v>692.4751256738259</v>
       </c>
       <c r="M3" t="n">
-        <v>692.475125673826</v>
+        <v>692.4751256738259</v>
       </c>
       <c r="N3" t="n">
-        <v>692.475125673826</v>
+        <v>692.4751256738259</v>
       </c>
       <c r="O3" t="n">
-        <v>692.475125673826</v>
+        <v>692.4751256738259</v>
       </c>
       <c r="P3" t="n">
-        <v>692.475125673826</v>
+        <v>692.4751256738259</v>
       </c>
     </row>
     <row r="4">
@@ -26798,7 +26798,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>924.8974390827564</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="F4" t="n">
         <v>924.8974390827563</v>
@@ -26819,7 +26819,7 @@
         <v>1046.215532486863</v>
       </c>
       <c r="L4" t="n">
-        <v>1046.215532486863</v>
+        <v>1046.215532486862</v>
       </c>
       <c r="M4" t="n">
         <v>1046.215532486863</v>
@@ -26828,10 +26828,10 @@
         <v>1046.215532486863</v>
       </c>
       <c r="O4" t="n">
-        <v>924.897439082756</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="P4" t="n">
-        <v>924.897439082756</v>
+        <v>924.8974390827563</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>98.99902533576244</v>
+        <v>98.99902533576233</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>121.3180934041067</v>
+        <v>121.3180934041064</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>121.3180934041067</v>
+        <v>121.3180934041064</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>335.8613673013232</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>152.5970991193535</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27466,16 +27466,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>26.23646281822221</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27517,13 +27517,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>126.917111089838</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>178.7568658833995</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>314.5236871822507</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>164.4321425566175</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>156.2624978146279</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3983415011524</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,16 +27858,16 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>184.536429376013</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>224.9573404408503</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27903,7 +27903,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27931,19 +27931,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27952,7 +27952,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27985,19 +27985,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>54.23751747000892</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>59.59762388653243</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>37.52545250819722</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.783819600698796</v>
+        <v>2.783819600698795</v>
       </c>
       <c r="H17" t="n">
         <v>28.50979248565655</v>
@@ -32235,7 +32235,7 @@
         <v>107.3232051559404</v>
       </c>
       <c r="J17" t="n">
-        <v>236.2732088348097</v>
+        <v>236.2732088348096</v>
       </c>
       <c r="K17" t="n">
         <v>354.1122925323897</v>
@@ -32244,13 +32244,13 @@
         <v>439.3076116372756</v>
       </c>
       <c r="M17" t="n">
-        <v>488.8143634612028</v>
+        <v>488.8143634612027</v>
       </c>
       <c r="N17" t="n">
-        <v>496.7238909016883</v>
+        <v>496.7238909016882</v>
       </c>
       <c r="O17" t="n">
-        <v>469.0422847472396</v>
+        <v>469.0422847472395</v>
       </c>
       <c r="P17" t="n">
         <v>400.316738354988</v>
@@ -32262,10 +32262,10 @@
         <v>174.8691079923959</v>
       </c>
       <c r="S17" t="n">
-        <v>63.43628915092388</v>
+        <v>63.43628915092387</v>
       </c>
       <c r="T17" t="n">
-        <v>12.18617030205899</v>
+        <v>12.18617030205898</v>
       </c>
       <c r="U17" t="n">
         <v>0.2227055680559036</v>
@@ -32311,7 +32311,7 @@
         <v>14.38519081824307</v>
       </c>
       <c r="I18" t="n">
-        <v>51.28235600508995</v>
+        <v>51.28235600508994</v>
       </c>
       <c r="J18" t="n">
         <v>140.7227045484895</v>
@@ -32320,34 +32320,34 @@
         <v>240.5175160559741</v>
       </c>
       <c r="L18" t="n">
-        <v>323.4054820422902</v>
+        <v>323.4054820422901</v>
       </c>
       <c r="M18" t="n">
-        <v>377.3989434922352</v>
+        <v>377.398943492235</v>
       </c>
       <c r="N18" t="n">
         <v>387.3875705408699</v>
       </c>
       <c r="O18" t="n">
-        <v>354.3839447398872</v>
+        <v>354.3839447398871</v>
       </c>
       <c r="P18" t="n">
         <v>284.4243586942173</v>
       </c>
       <c r="Q18" t="n">
-        <v>190.1301514868966</v>
+        <v>190.1301514868965</v>
       </c>
       <c r="R18" t="n">
-        <v>92.47809319847816</v>
+        <v>92.47809319847815</v>
       </c>
       <c r="S18" t="n">
         <v>27.66634110593067</v>
       </c>
       <c r="T18" t="n">
-        <v>6.00362868390798</v>
+        <v>6.003628683907979</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09799176306705089</v>
+        <v>0.09799176306705087</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.248725636460998</v>
+        <v>1.248725636460997</v>
       </c>
       <c r="H19" t="n">
         <v>11.10230611326233</v>
       </c>
       <c r="I19" t="n">
-        <v>37.55258550375438</v>
+        <v>37.55258550375437</v>
       </c>
       <c r="J19" t="n">
-        <v>88.28490249779253</v>
+        <v>88.28490249779252</v>
       </c>
       <c r="K19" t="n">
         <v>145.0792148542868</v>
@@ -32417,16 +32417,16 @@
         <v>104.5637439767477</v>
       </c>
       <c r="R19" t="n">
-        <v>56.14724543578266</v>
+        <v>56.14724543578265</v>
       </c>
       <c r="S19" t="n">
-        <v>21.76188222814302</v>
+        <v>21.76188222814301</v>
       </c>
       <c r="T19" t="n">
-        <v>5.335464083060625</v>
+        <v>5.335464083060624</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06811230744332722</v>
+        <v>0.06811230744332721</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.783819600698796</v>
+        <v>2.783819600698795</v>
       </c>
       <c r="H20" t="n">
         <v>28.50979248565655</v>
@@ -32472,7 +32472,7 @@
         <v>107.3232051559404</v>
       </c>
       <c r="J20" t="n">
-        <v>236.2732088348097</v>
+        <v>236.2732088348096</v>
       </c>
       <c r="K20" t="n">
         <v>354.1122925323897</v>
@@ -32481,13 +32481,13 @@
         <v>439.3076116372756</v>
       </c>
       <c r="M20" t="n">
-        <v>488.8143634612028</v>
+        <v>488.8143634612027</v>
       </c>
       <c r="N20" t="n">
-        <v>496.7238909016883</v>
+        <v>496.7238909016882</v>
       </c>
       <c r="O20" t="n">
-        <v>469.0422847472396</v>
+        <v>469.0422847472395</v>
       </c>
       <c r="P20" t="n">
         <v>400.316738354988</v>
@@ -32499,10 +32499,10 @@
         <v>174.8691079923959</v>
       </c>
       <c r="S20" t="n">
-        <v>63.43628915092388</v>
+        <v>63.43628915092387</v>
       </c>
       <c r="T20" t="n">
-        <v>12.18617030205899</v>
+        <v>12.18617030205898</v>
       </c>
       <c r="U20" t="n">
         <v>0.2227055680559036</v>
@@ -32548,7 +32548,7 @@
         <v>14.38519081824307</v>
       </c>
       <c r="I21" t="n">
-        <v>51.28235600508995</v>
+        <v>51.28235600508994</v>
       </c>
       <c r="J21" t="n">
         <v>140.7227045484895</v>
@@ -32557,34 +32557,34 @@
         <v>240.5175160559741</v>
       </c>
       <c r="L21" t="n">
-        <v>323.4054820422902</v>
+        <v>323.4054820422901</v>
       </c>
       <c r="M21" t="n">
-        <v>377.3989434922352</v>
+        <v>377.398943492235</v>
       </c>
       <c r="N21" t="n">
         <v>387.3875705408699</v>
       </c>
       <c r="O21" t="n">
-        <v>354.3839447398872</v>
+        <v>354.3839447398871</v>
       </c>
       <c r="P21" t="n">
         <v>284.4243586942173</v>
       </c>
       <c r="Q21" t="n">
-        <v>190.1301514868966</v>
+        <v>190.1301514868965</v>
       </c>
       <c r="R21" t="n">
-        <v>92.47809319847816</v>
+        <v>92.47809319847815</v>
       </c>
       <c r="S21" t="n">
         <v>27.66634110593067</v>
       </c>
       <c r="T21" t="n">
-        <v>6.00362868390798</v>
+        <v>6.003628683907979</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09799176306705089</v>
+        <v>0.09799176306705087</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.248725636460998</v>
+        <v>1.248725636460997</v>
       </c>
       <c r="H22" t="n">
         <v>11.10230611326233</v>
       </c>
       <c r="I22" t="n">
-        <v>37.55258550375438</v>
+        <v>37.55258550375437</v>
       </c>
       <c r="J22" t="n">
-        <v>88.28490249779253</v>
+        <v>88.28490249779252</v>
       </c>
       <c r="K22" t="n">
         <v>145.0792148542868</v>
@@ -32654,16 +32654,16 @@
         <v>104.5637439767477</v>
       </c>
       <c r="R22" t="n">
-        <v>56.14724543578266</v>
+        <v>56.14724543578265</v>
       </c>
       <c r="S22" t="n">
-        <v>21.76188222814302</v>
+        <v>21.76188222814301</v>
       </c>
       <c r="T22" t="n">
-        <v>5.335464083060625</v>
+        <v>5.335464083060624</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06811230744332722</v>
+        <v>0.06811230744332721</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.783819600698796</v>
+        <v>2.783819600698795</v>
       </c>
       <c r="H23" t="n">
         <v>28.50979248565655</v>
@@ -32709,7 +32709,7 @@
         <v>107.3232051559404</v>
       </c>
       <c r="J23" t="n">
-        <v>236.2732088348097</v>
+        <v>236.2732088348096</v>
       </c>
       <c r="K23" t="n">
         <v>354.1122925323897</v>
@@ -32718,13 +32718,13 @@
         <v>439.3076116372756</v>
       </c>
       <c r="M23" t="n">
-        <v>488.8143634612028</v>
+        <v>488.8143634612027</v>
       </c>
       <c r="N23" t="n">
-        <v>496.7238909016883</v>
+        <v>496.7238909016882</v>
       </c>
       <c r="O23" t="n">
-        <v>469.0422847472396</v>
+        <v>469.0422847472395</v>
       </c>
       <c r="P23" t="n">
         <v>400.316738354988</v>
@@ -32736,10 +32736,10 @@
         <v>174.8691079923959</v>
       </c>
       <c r="S23" t="n">
-        <v>63.43628915092388</v>
+        <v>63.43628915092387</v>
       </c>
       <c r="T23" t="n">
-        <v>12.18617030205899</v>
+        <v>12.18617030205898</v>
       </c>
       <c r="U23" t="n">
         <v>0.2227055680559036</v>
@@ -32785,7 +32785,7 @@
         <v>14.38519081824307</v>
       </c>
       <c r="I24" t="n">
-        <v>51.28235600508995</v>
+        <v>51.28235600508994</v>
       </c>
       <c r="J24" t="n">
         <v>140.7227045484895</v>
@@ -32794,34 +32794,34 @@
         <v>240.5175160559741</v>
       </c>
       <c r="L24" t="n">
-        <v>323.4054820422902</v>
+        <v>323.4054820422901</v>
       </c>
       <c r="M24" t="n">
-        <v>377.3989434922352</v>
+        <v>377.398943492235</v>
       </c>
       <c r="N24" t="n">
         <v>387.3875705408699</v>
       </c>
       <c r="O24" t="n">
-        <v>354.3839447398872</v>
+        <v>354.3839447398871</v>
       </c>
       <c r="P24" t="n">
         <v>284.4243586942173</v>
       </c>
       <c r="Q24" t="n">
-        <v>190.1301514868966</v>
+        <v>190.1301514868965</v>
       </c>
       <c r="R24" t="n">
-        <v>92.47809319847816</v>
+        <v>92.47809319847815</v>
       </c>
       <c r="S24" t="n">
         <v>27.66634110593067</v>
       </c>
       <c r="T24" t="n">
-        <v>6.00362868390798</v>
+        <v>6.003628683907979</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09799176306705089</v>
+        <v>0.09799176306705087</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.248725636460998</v>
+        <v>1.248725636460997</v>
       </c>
       <c r="H25" t="n">
         <v>11.10230611326233</v>
       </c>
       <c r="I25" t="n">
-        <v>37.55258550375438</v>
+        <v>37.55258550375437</v>
       </c>
       <c r="J25" t="n">
-        <v>88.28490249779253</v>
+        <v>88.28490249779252</v>
       </c>
       <c r="K25" t="n">
         <v>145.0792148542868</v>
@@ -32891,16 +32891,16 @@
         <v>104.5637439767477</v>
       </c>
       <c r="R25" t="n">
-        <v>56.14724543578266</v>
+        <v>56.14724543578265</v>
       </c>
       <c r="S25" t="n">
-        <v>21.76188222814302</v>
+        <v>21.76188222814301</v>
       </c>
       <c r="T25" t="n">
-        <v>5.335464083060625</v>
+        <v>5.335464083060624</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06811230744332722</v>
+        <v>0.06811230744332721</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.783819600698796</v>
+        <v>2.783819600698795</v>
       </c>
       <c r="H26" t="n">
         <v>28.50979248565655</v>
@@ -32946,7 +32946,7 @@
         <v>107.3232051559404</v>
       </c>
       <c r="J26" t="n">
-        <v>236.2732088348097</v>
+        <v>236.2732088348096</v>
       </c>
       <c r="K26" t="n">
         <v>354.1122925323897</v>
@@ -32955,13 +32955,13 @@
         <v>439.3076116372756</v>
       </c>
       <c r="M26" t="n">
-        <v>488.8143634612028</v>
+        <v>488.8143634612027</v>
       </c>
       <c r="N26" t="n">
-        <v>496.7238909016883</v>
+        <v>496.7238909016882</v>
       </c>
       <c r="O26" t="n">
-        <v>469.0422847472396</v>
+        <v>469.0422847472395</v>
       </c>
       <c r="P26" t="n">
         <v>400.316738354988</v>
@@ -32973,10 +32973,10 @@
         <v>174.8691079923959</v>
       </c>
       <c r="S26" t="n">
-        <v>63.43628915092388</v>
+        <v>63.43628915092387</v>
       </c>
       <c r="T26" t="n">
-        <v>12.18617030205899</v>
+        <v>12.18617030205898</v>
       </c>
       <c r="U26" t="n">
         <v>0.2227055680559036</v>
@@ -33022,7 +33022,7 @@
         <v>14.38519081824307</v>
       </c>
       <c r="I27" t="n">
-        <v>51.28235600508995</v>
+        <v>51.28235600508994</v>
       </c>
       <c r="J27" t="n">
         <v>140.7227045484895</v>
@@ -33031,34 +33031,34 @@
         <v>240.5175160559741</v>
       </c>
       <c r="L27" t="n">
-        <v>323.4054820422902</v>
+        <v>323.4054820422901</v>
       </c>
       <c r="M27" t="n">
-        <v>377.3989434922352</v>
+        <v>377.398943492235</v>
       </c>
       <c r="N27" t="n">
         <v>387.3875705408699</v>
       </c>
       <c r="O27" t="n">
-        <v>354.3839447398872</v>
+        <v>354.3839447398871</v>
       </c>
       <c r="P27" t="n">
         <v>284.4243586942173</v>
       </c>
       <c r="Q27" t="n">
-        <v>190.1301514868966</v>
+        <v>190.1301514868965</v>
       </c>
       <c r="R27" t="n">
-        <v>92.47809319847816</v>
+        <v>92.47809319847815</v>
       </c>
       <c r="S27" t="n">
         <v>27.66634110593067</v>
       </c>
       <c r="T27" t="n">
-        <v>6.00362868390798</v>
+        <v>6.003628683907979</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09799176306705089</v>
+        <v>0.09799176306705087</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.248725636460998</v>
+        <v>1.248725636460997</v>
       </c>
       <c r="H28" t="n">
         <v>11.10230611326233</v>
       </c>
       <c r="I28" t="n">
-        <v>37.55258550375438</v>
+        <v>37.55258550375437</v>
       </c>
       <c r="J28" t="n">
-        <v>88.28490249779253</v>
+        <v>88.28490249779252</v>
       </c>
       <c r="K28" t="n">
         <v>145.0792148542868</v>
@@ -33128,16 +33128,16 @@
         <v>104.5637439767477</v>
       </c>
       <c r="R28" t="n">
-        <v>56.14724543578266</v>
+        <v>56.14724543578265</v>
       </c>
       <c r="S28" t="n">
-        <v>21.76188222814302</v>
+        <v>21.76188222814301</v>
       </c>
       <c r="T28" t="n">
-        <v>5.335464083060625</v>
+        <v>5.335464083060624</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06811230744332722</v>
+        <v>0.06811230744332721</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.783819600698796</v>
+        <v>2.783819600698795</v>
       </c>
       <c r="H29" t="n">
         <v>28.50979248565655</v>
@@ -33183,7 +33183,7 @@
         <v>107.3232051559404</v>
       </c>
       <c r="J29" t="n">
-        <v>236.2732088348097</v>
+        <v>236.2732088348096</v>
       </c>
       <c r="K29" t="n">
         <v>354.1122925323897</v>
@@ -33192,13 +33192,13 @@
         <v>439.3076116372756</v>
       </c>
       <c r="M29" t="n">
-        <v>488.8143634612028</v>
+        <v>488.8143634612027</v>
       </c>
       <c r="N29" t="n">
-        <v>496.7238909016883</v>
+        <v>496.7238909016882</v>
       </c>
       <c r="O29" t="n">
-        <v>469.0422847472396</v>
+        <v>469.0422847472395</v>
       </c>
       <c r="P29" t="n">
         <v>400.316738354988</v>
@@ -33210,10 +33210,10 @@
         <v>174.8691079923959</v>
       </c>
       <c r="S29" t="n">
-        <v>63.43628915092388</v>
+        <v>63.43628915092387</v>
       </c>
       <c r="T29" t="n">
-        <v>12.18617030205899</v>
+        <v>12.18617030205898</v>
       </c>
       <c r="U29" t="n">
         <v>0.2227055680559036</v>
@@ -33259,7 +33259,7 @@
         <v>14.38519081824307</v>
       </c>
       <c r="I30" t="n">
-        <v>51.28235600508995</v>
+        <v>51.28235600508994</v>
       </c>
       <c r="J30" t="n">
         <v>140.7227045484895</v>
@@ -33268,34 +33268,34 @@
         <v>240.5175160559741</v>
       </c>
       <c r="L30" t="n">
-        <v>323.4054820422902</v>
+        <v>323.4054820422901</v>
       </c>
       <c r="M30" t="n">
-        <v>377.3989434922352</v>
+        <v>377.398943492235</v>
       </c>
       <c r="N30" t="n">
         <v>387.3875705408699</v>
       </c>
       <c r="O30" t="n">
-        <v>354.3839447398872</v>
+        <v>354.3839447398871</v>
       </c>
       <c r="P30" t="n">
         <v>284.4243586942173</v>
       </c>
       <c r="Q30" t="n">
-        <v>190.1301514868966</v>
+        <v>190.1301514868965</v>
       </c>
       <c r="R30" t="n">
-        <v>92.47809319847816</v>
+        <v>92.47809319847815</v>
       </c>
       <c r="S30" t="n">
         <v>27.66634110593067</v>
       </c>
       <c r="T30" t="n">
-        <v>6.00362868390798</v>
+        <v>6.003628683907979</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09799176306705089</v>
+        <v>0.09799176306705087</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.248725636460998</v>
+        <v>1.248725636460997</v>
       </c>
       <c r="H31" t="n">
         <v>11.10230611326233</v>
       </c>
       <c r="I31" t="n">
-        <v>37.55258550375438</v>
+        <v>37.55258550375437</v>
       </c>
       <c r="J31" t="n">
-        <v>88.28490249779253</v>
+        <v>88.28490249779252</v>
       </c>
       <c r="K31" t="n">
         <v>145.0792148542868</v>
@@ -33365,16 +33365,16 @@
         <v>104.5637439767477</v>
       </c>
       <c r="R31" t="n">
-        <v>56.14724543578266</v>
+        <v>56.14724543578265</v>
       </c>
       <c r="S31" t="n">
-        <v>21.76188222814302</v>
+        <v>21.76188222814301</v>
       </c>
       <c r="T31" t="n">
-        <v>5.335464083060625</v>
+        <v>5.335464083060624</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06811230744332722</v>
+        <v>0.06811230744332721</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.783819600698796</v>
+        <v>2.783819600698795</v>
       </c>
       <c r="H32" t="n">
         <v>28.50979248565655</v>
@@ -33420,7 +33420,7 @@
         <v>107.3232051559404</v>
       </c>
       <c r="J32" t="n">
-        <v>236.2732088348097</v>
+        <v>236.2732088348096</v>
       </c>
       <c r="K32" t="n">
         <v>354.1122925323897</v>
@@ -33429,13 +33429,13 @@
         <v>439.3076116372756</v>
       </c>
       <c r="M32" t="n">
-        <v>488.8143634612028</v>
+        <v>488.8143634612027</v>
       </c>
       <c r="N32" t="n">
-        <v>496.7238909016883</v>
+        <v>496.7238909016882</v>
       </c>
       <c r="O32" t="n">
-        <v>469.0422847472396</v>
+        <v>469.0422847472395</v>
       </c>
       <c r="P32" t="n">
         <v>400.316738354988</v>
@@ -33447,10 +33447,10 @@
         <v>174.8691079923959</v>
       </c>
       <c r="S32" t="n">
-        <v>63.43628915092388</v>
+        <v>63.43628915092387</v>
       </c>
       <c r="T32" t="n">
-        <v>12.18617030205899</v>
+        <v>12.18617030205898</v>
       </c>
       <c r="U32" t="n">
         <v>0.2227055680559036</v>
@@ -33496,7 +33496,7 @@
         <v>14.38519081824307</v>
       </c>
       <c r="I33" t="n">
-        <v>51.28235600508995</v>
+        <v>51.28235600508994</v>
       </c>
       <c r="J33" t="n">
         <v>140.7227045484895</v>
@@ -33505,34 +33505,34 @@
         <v>240.5175160559741</v>
       </c>
       <c r="L33" t="n">
-        <v>323.4054820422902</v>
+        <v>323.4054820422901</v>
       </c>
       <c r="M33" t="n">
-        <v>377.3989434922352</v>
+        <v>377.398943492235</v>
       </c>
       <c r="N33" t="n">
         <v>387.3875705408699</v>
       </c>
       <c r="O33" t="n">
-        <v>354.3839447398872</v>
+        <v>354.3839447398871</v>
       </c>
       <c r="P33" t="n">
         <v>284.4243586942173</v>
       </c>
       <c r="Q33" t="n">
-        <v>190.1301514868966</v>
+        <v>190.1301514868965</v>
       </c>
       <c r="R33" t="n">
-        <v>92.47809319847816</v>
+        <v>92.47809319847815</v>
       </c>
       <c r="S33" t="n">
         <v>27.66634110593067</v>
       </c>
       <c r="T33" t="n">
-        <v>6.00362868390798</v>
+        <v>6.003628683907979</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09799176306705089</v>
+        <v>0.09799176306705087</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.248725636460998</v>
+        <v>1.248725636460997</v>
       </c>
       <c r="H34" t="n">
         <v>11.10230611326233</v>
       </c>
       <c r="I34" t="n">
-        <v>37.55258550375438</v>
+        <v>37.55258550375437</v>
       </c>
       <c r="J34" t="n">
-        <v>88.28490249779253</v>
+        <v>88.28490249779252</v>
       </c>
       <c r="K34" t="n">
         <v>145.0792148542868</v>
@@ -33602,16 +33602,16 @@
         <v>104.5637439767477</v>
       </c>
       <c r="R34" t="n">
-        <v>56.14724543578266</v>
+        <v>56.14724543578265</v>
       </c>
       <c r="S34" t="n">
-        <v>21.76188222814302</v>
+        <v>21.76188222814301</v>
       </c>
       <c r="T34" t="n">
-        <v>5.335464083060625</v>
+        <v>5.335464083060624</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06811230744332722</v>
+        <v>0.06811230744332721</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.783819600698796</v>
+        <v>2.783819600698795</v>
       </c>
       <c r="H35" t="n">
         <v>28.50979248565655</v>
@@ -33657,7 +33657,7 @@
         <v>107.3232051559404</v>
       </c>
       <c r="J35" t="n">
-        <v>236.2732088348097</v>
+        <v>236.2732088348096</v>
       </c>
       <c r="K35" t="n">
         <v>354.1122925323897</v>
@@ -33666,13 +33666,13 @@
         <v>439.3076116372756</v>
       </c>
       <c r="M35" t="n">
-        <v>488.8143634612028</v>
+        <v>488.8143634612027</v>
       </c>
       <c r="N35" t="n">
-        <v>496.7238909016883</v>
+        <v>496.7238909016882</v>
       </c>
       <c r="O35" t="n">
-        <v>469.0422847472396</v>
+        <v>469.0422847472395</v>
       </c>
       <c r="P35" t="n">
         <v>400.316738354988</v>
@@ -33684,10 +33684,10 @@
         <v>174.8691079923959</v>
       </c>
       <c r="S35" t="n">
-        <v>63.43628915092388</v>
+        <v>63.43628915092387</v>
       </c>
       <c r="T35" t="n">
-        <v>12.18617030205899</v>
+        <v>12.18617030205898</v>
       </c>
       <c r="U35" t="n">
         <v>0.2227055680559036</v>
@@ -33733,7 +33733,7 @@
         <v>14.38519081824307</v>
       </c>
       <c r="I36" t="n">
-        <v>51.28235600508995</v>
+        <v>51.28235600508994</v>
       </c>
       <c r="J36" t="n">
         <v>140.7227045484895</v>
@@ -33742,34 +33742,34 @@
         <v>240.5175160559741</v>
       </c>
       <c r="L36" t="n">
-        <v>323.4054820422902</v>
+        <v>323.4054820422901</v>
       </c>
       <c r="M36" t="n">
-        <v>377.3989434922352</v>
+        <v>377.398943492235</v>
       </c>
       <c r="N36" t="n">
         <v>387.3875705408699</v>
       </c>
       <c r="O36" t="n">
-        <v>354.3839447398872</v>
+        <v>354.3839447398871</v>
       </c>
       <c r="P36" t="n">
         <v>284.4243586942173</v>
       </c>
       <c r="Q36" t="n">
-        <v>190.1301514868966</v>
+        <v>190.1301514868965</v>
       </c>
       <c r="R36" t="n">
-        <v>92.47809319847816</v>
+        <v>92.47809319847815</v>
       </c>
       <c r="S36" t="n">
         <v>27.66634110593067</v>
       </c>
       <c r="T36" t="n">
-        <v>6.00362868390798</v>
+        <v>6.003628683907979</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09799176306705089</v>
+        <v>0.09799176306705087</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.248725636460998</v>
+        <v>1.248725636460997</v>
       </c>
       <c r="H37" t="n">
         <v>11.10230611326233</v>
       </c>
       <c r="I37" t="n">
-        <v>37.55258550375438</v>
+        <v>37.55258550375437</v>
       </c>
       <c r="J37" t="n">
-        <v>88.28490249779253</v>
+        <v>88.28490249779252</v>
       </c>
       <c r="K37" t="n">
         <v>145.0792148542868</v>
@@ -33839,16 +33839,16 @@
         <v>104.5637439767477</v>
       </c>
       <c r="R37" t="n">
-        <v>56.14724543578266</v>
+        <v>56.14724543578265</v>
       </c>
       <c r="S37" t="n">
-        <v>21.76188222814302</v>
+        <v>21.76188222814301</v>
       </c>
       <c r="T37" t="n">
-        <v>5.335464083060625</v>
+        <v>5.335464083060624</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06811230744332722</v>
+        <v>0.06811230744332721</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.783819600698796</v>
+        <v>2.783819600698795</v>
       </c>
       <c r="H38" t="n">
         <v>28.50979248565655</v>
@@ -33894,7 +33894,7 @@
         <v>107.3232051559404</v>
       </c>
       <c r="J38" t="n">
-        <v>236.2732088348097</v>
+        <v>236.2732088348096</v>
       </c>
       <c r="K38" t="n">
         <v>354.1122925323897</v>
@@ -33903,13 +33903,13 @@
         <v>439.3076116372756</v>
       </c>
       <c r="M38" t="n">
-        <v>488.8143634612028</v>
+        <v>488.8143634612027</v>
       </c>
       <c r="N38" t="n">
-        <v>496.7238909016883</v>
+        <v>496.7238909016882</v>
       </c>
       <c r="O38" t="n">
-        <v>469.0422847472396</v>
+        <v>469.0422847472395</v>
       </c>
       <c r="P38" t="n">
         <v>400.316738354988</v>
@@ -33921,10 +33921,10 @@
         <v>174.8691079923959</v>
       </c>
       <c r="S38" t="n">
-        <v>63.43628915092388</v>
+        <v>63.43628915092387</v>
       </c>
       <c r="T38" t="n">
-        <v>12.18617030205899</v>
+        <v>12.18617030205898</v>
       </c>
       <c r="U38" t="n">
         <v>0.2227055680559036</v>
@@ -33970,7 +33970,7 @@
         <v>14.38519081824307</v>
       </c>
       <c r="I39" t="n">
-        <v>51.28235600508995</v>
+        <v>51.28235600508994</v>
       </c>
       <c r="J39" t="n">
         <v>140.7227045484895</v>
@@ -33979,34 +33979,34 @@
         <v>240.5175160559741</v>
       </c>
       <c r="L39" t="n">
-        <v>323.4054820422902</v>
+        <v>323.4054820422901</v>
       </c>
       <c r="M39" t="n">
-        <v>377.3989434922352</v>
+        <v>377.398943492235</v>
       </c>
       <c r="N39" t="n">
         <v>387.3875705408699</v>
       </c>
       <c r="O39" t="n">
-        <v>354.3839447398872</v>
+        <v>354.3839447398871</v>
       </c>
       <c r="P39" t="n">
         <v>284.4243586942173</v>
       </c>
       <c r="Q39" t="n">
-        <v>190.1301514868966</v>
+        <v>190.1301514868965</v>
       </c>
       <c r="R39" t="n">
-        <v>92.47809319847816</v>
+        <v>92.47809319847815</v>
       </c>
       <c r="S39" t="n">
         <v>27.66634110593067</v>
       </c>
       <c r="T39" t="n">
-        <v>6.00362868390798</v>
+        <v>6.003628683907979</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09799176306705089</v>
+        <v>0.09799176306705087</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.248725636460998</v>
+        <v>1.248725636460997</v>
       </c>
       <c r="H40" t="n">
         <v>11.10230611326233</v>
       </c>
       <c r="I40" t="n">
-        <v>37.55258550375438</v>
+        <v>37.55258550375437</v>
       </c>
       <c r="J40" t="n">
-        <v>88.28490249779253</v>
+        <v>88.28490249779252</v>
       </c>
       <c r="K40" t="n">
         <v>145.0792148542868</v>
@@ -34076,16 +34076,16 @@
         <v>104.5637439767477</v>
       </c>
       <c r="R40" t="n">
-        <v>56.14724543578266</v>
+        <v>56.14724543578265</v>
       </c>
       <c r="S40" t="n">
-        <v>21.76188222814302</v>
+        <v>21.76188222814301</v>
       </c>
       <c r="T40" t="n">
-        <v>5.335464083060625</v>
+        <v>5.335464083060624</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06811230744332722</v>
+        <v>0.06811230744332721</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.783819600698796</v>
+        <v>2.783819600698795</v>
       </c>
       <c r="H41" t="n">
         <v>28.50979248565655</v>
@@ -34131,7 +34131,7 @@
         <v>107.3232051559404</v>
       </c>
       <c r="J41" t="n">
-        <v>236.2732088348097</v>
+        <v>236.2732088348096</v>
       </c>
       <c r="K41" t="n">
         <v>354.1122925323897</v>
@@ -34140,13 +34140,13 @@
         <v>439.3076116372756</v>
       </c>
       <c r="M41" t="n">
-        <v>488.8143634612028</v>
+        <v>488.8143634612027</v>
       </c>
       <c r="N41" t="n">
-        <v>496.7238909016883</v>
+        <v>496.7238909016882</v>
       </c>
       <c r="O41" t="n">
-        <v>469.0422847472396</v>
+        <v>469.0422847472395</v>
       </c>
       <c r="P41" t="n">
         <v>400.316738354988</v>
@@ -34158,10 +34158,10 @@
         <v>174.8691079923959</v>
       </c>
       <c r="S41" t="n">
-        <v>63.43628915092388</v>
+        <v>63.43628915092387</v>
       </c>
       <c r="T41" t="n">
-        <v>12.18617030205899</v>
+        <v>12.18617030205898</v>
       </c>
       <c r="U41" t="n">
         <v>0.2227055680559036</v>
@@ -34207,7 +34207,7 @@
         <v>14.38519081824307</v>
       </c>
       <c r="I42" t="n">
-        <v>51.28235600508995</v>
+        <v>51.28235600508994</v>
       </c>
       <c r="J42" t="n">
         <v>140.7227045484895</v>
@@ -34216,34 +34216,34 @@
         <v>240.5175160559741</v>
       </c>
       <c r="L42" t="n">
-        <v>323.4054820422902</v>
+        <v>323.4054820422901</v>
       </c>
       <c r="M42" t="n">
-        <v>377.3989434922352</v>
+        <v>377.398943492235</v>
       </c>
       <c r="N42" t="n">
         <v>387.3875705408699</v>
       </c>
       <c r="O42" t="n">
-        <v>354.3839447398872</v>
+        <v>354.3839447398871</v>
       </c>
       <c r="P42" t="n">
         <v>284.4243586942173</v>
       </c>
       <c r="Q42" t="n">
-        <v>190.1301514868966</v>
+        <v>190.1301514868965</v>
       </c>
       <c r="R42" t="n">
-        <v>92.47809319847816</v>
+        <v>92.47809319847815</v>
       </c>
       <c r="S42" t="n">
         <v>27.66634110593067</v>
       </c>
       <c r="T42" t="n">
-        <v>6.00362868390798</v>
+        <v>6.003628683907979</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09799176306705089</v>
+        <v>0.09799176306705087</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.248725636460998</v>
+        <v>1.248725636460997</v>
       </c>
       <c r="H43" t="n">
         <v>11.10230611326233</v>
       </c>
       <c r="I43" t="n">
-        <v>37.55258550375438</v>
+        <v>37.55258550375437</v>
       </c>
       <c r="J43" t="n">
-        <v>88.28490249779253</v>
+        <v>88.28490249779252</v>
       </c>
       <c r="K43" t="n">
         <v>145.0792148542868</v>
@@ -34313,16 +34313,16 @@
         <v>104.5637439767477</v>
       </c>
       <c r="R43" t="n">
-        <v>56.14724543578266</v>
+        <v>56.14724543578265</v>
       </c>
       <c r="S43" t="n">
-        <v>21.76188222814302</v>
+        <v>21.76188222814301</v>
       </c>
       <c r="T43" t="n">
-        <v>5.335464083060625</v>
+        <v>5.335464083060624</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06811230744332722</v>
+        <v>0.06811230744332721</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.783819600698796</v>
+        <v>2.783819600698795</v>
       </c>
       <c r="H44" t="n">
         <v>28.50979248565655</v>
@@ -34368,7 +34368,7 @@
         <v>107.3232051559404</v>
       </c>
       <c r="J44" t="n">
-        <v>236.2732088348097</v>
+        <v>236.2732088348096</v>
       </c>
       <c r="K44" t="n">
         <v>354.1122925323897</v>
@@ -34377,13 +34377,13 @@
         <v>439.3076116372756</v>
       </c>
       <c r="M44" t="n">
-        <v>488.8143634612028</v>
+        <v>488.8143634612027</v>
       </c>
       <c r="N44" t="n">
-        <v>496.7238909016883</v>
+        <v>496.7238909016882</v>
       </c>
       <c r="O44" t="n">
-        <v>469.0422847472396</v>
+        <v>469.0422847472395</v>
       </c>
       <c r="P44" t="n">
         <v>400.316738354988</v>
@@ -34395,10 +34395,10 @@
         <v>174.8691079923959</v>
       </c>
       <c r="S44" t="n">
-        <v>63.43628915092388</v>
+        <v>63.43628915092387</v>
       </c>
       <c r="T44" t="n">
-        <v>12.18617030205899</v>
+        <v>12.18617030205898</v>
       </c>
       <c r="U44" t="n">
         <v>0.2227055680559036</v>
@@ -34444,7 +34444,7 @@
         <v>14.38519081824307</v>
       </c>
       <c r="I45" t="n">
-        <v>51.28235600508995</v>
+        <v>51.28235600508994</v>
       </c>
       <c r="J45" t="n">
         <v>140.7227045484895</v>
@@ -34453,34 +34453,34 @@
         <v>240.5175160559741</v>
       </c>
       <c r="L45" t="n">
-        <v>323.4054820422902</v>
+        <v>323.4054820422901</v>
       </c>
       <c r="M45" t="n">
-        <v>377.3989434922352</v>
+        <v>377.398943492235</v>
       </c>
       <c r="N45" t="n">
         <v>387.3875705408699</v>
       </c>
       <c r="O45" t="n">
-        <v>354.3839447398872</v>
+        <v>354.3839447398871</v>
       </c>
       <c r="P45" t="n">
         <v>284.4243586942173</v>
       </c>
       <c r="Q45" t="n">
-        <v>190.1301514868966</v>
+        <v>190.1301514868965</v>
       </c>
       <c r="R45" t="n">
-        <v>92.47809319847816</v>
+        <v>92.47809319847815</v>
       </c>
       <c r="S45" t="n">
         <v>27.66634110593067</v>
       </c>
       <c r="T45" t="n">
-        <v>6.00362868390798</v>
+        <v>6.003628683907979</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09799176306705089</v>
+        <v>0.09799176306705087</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.248725636460998</v>
+        <v>1.248725636460997</v>
       </c>
       <c r="H46" t="n">
         <v>11.10230611326233</v>
       </c>
       <c r="I46" t="n">
-        <v>37.55258550375438</v>
+        <v>37.55258550375437</v>
       </c>
       <c r="J46" t="n">
-        <v>88.28490249779253</v>
+        <v>88.28490249779252</v>
       </c>
       <c r="K46" t="n">
         <v>145.0792148542868</v>
@@ -34550,16 +34550,16 @@
         <v>104.5637439767477</v>
       </c>
       <c r="R46" t="n">
-        <v>56.14724543578266</v>
+        <v>56.14724543578265</v>
       </c>
       <c r="S46" t="n">
-        <v>21.76188222814302</v>
+        <v>21.76188222814301</v>
       </c>
       <c r="T46" t="n">
-        <v>5.335464083060625</v>
+        <v>5.335464083060624</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06811230744332722</v>
+        <v>0.06811230744332721</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584801</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>332.7559639452619</v>
+        <v>68.29072693268333</v>
       </c>
       <c r="L12" t="n">
         <v>509.4561008748665</v>
       </c>
       <c r="M12" t="n">
-        <v>229.4160469348671</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N12" t="n">
-        <v>200.6633754067311</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>125.708794178759</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105729</v>
+        <v>22.96660727472377</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>458.1678540585739</v>
       </c>
       <c r="L17" t="n">
-        <v>621.2024112177388</v>
+        <v>621.2024112177387</v>
       </c>
       <c r="M17" t="n">
-        <v>707.9816637267626</v>
+        <v>707.9816637267625</v>
       </c>
       <c r="N17" t="n">
         <v>704.6577517170815</v>
       </c>
       <c r="O17" t="n">
-        <v>619.7442545882983</v>
+        <v>619.7442545882982</v>
       </c>
       <c r="P17" t="n">
         <v>490.8824507712011</v>
@@ -35907,7 +35907,7 @@
         <v>290.6304996904175</v>
       </c>
       <c r="R17" t="n">
-        <v>24.99999005124621</v>
+        <v>24.99999005124619</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>139.9761132222317</v>
+        <v>139.9761132222316</v>
       </c>
       <c r="K18" t="n">
         <v>367.1413140941937</v>
       </c>
       <c r="L18" t="n">
-        <v>555.6914475658753</v>
+        <v>555.6914475658751</v>
       </c>
       <c r="M18" t="n">
-        <v>235.2649095702168</v>
+        <v>235.2649095702167</v>
       </c>
       <c r="N18" t="n">
         <v>256.0458584575366</v>
@@ -35983,7 +35983,7 @@
         <v>468.9127199198243</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.2256651367242</v>
+        <v>260.2256651367241</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,7 +36047,7 @@
         <v>122.8097230284039</v>
       </c>
       <c r="L19" t="n">
-        <v>213.2414712483449</v>
+        <v>213.2414712483448</v>
       </c>
       <c r="M19" t="n">
         <v>235.3272965027222</v>
@@ -36062,7 +36062,7 @@
         <v>148.3062489692308</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.40170072505335</v>
+        <v>18.40170072505333</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,16 +36126,16 @@
         <v>458.1678540585739</v>
       </c>
       <c r="L20" t="n">
-        <v>621.2024112177388</v>
+        <v>621.2024112177387</v>
       </c>
       <c r="M20" t="n">
-        <v>707.9816637267626</v>
+        <v>707.9816637267625</v>
       </c>
       <c r="N20" t="n">
         <v>704.6577517170815</v>
       </c>
       <c r="O20" t="n">
-        <v>619.7442545882983</v>
+        <v>619.7442545882982</v>
       </c>
       <c r="P20" t="n">
         <v>490.8824507712011</v>
@@ -36144,7 +36144,7 @@
         <v>290.6304996904175</v>
       </c>
       <c r="R20" t="n">
-        <v>24.99999005124621</v>
+        <v>24.99999005124619</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>139.9761132222317</v>
+        <v>139.9761132222316</v>
       </c>
       <c r="K21" t="n">
         <v>367.1413140941937</v>
       </c>
       <c r="L21" t="n">
-        <v>555.6914475658753</v>
+        <v>555.6914475658751</v>
       </c>
       <c r="M21" t="n">
-        <v>700.9699733202167</v>
+        <v>320.4374511304321</v>
       </c>
       <c r="N21" t="n">
         <v>256.0458584575366</v>
@@ -36217,10 +36217,10 @@
         <v>211.7877002954427</v>
       </c>
       <c r="P21" t="n">
-        <v>150.4499512798871</v>
+        <v>468.9127199198243</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.1559115868765</v>
+        <v>260.2256651367241</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,7 +36284,7 @@
         <v>122.8097230284039</v>
       </c>
       <c r="L22" t="n">
-        <v>213.2414712483449</v>
+        <v>213.2414712483448</v>
       </c>
       <c r="M22" t="n">
         <v>235.3272965027222</v>
@@ -36299,7 +36299,7 @@
         <v>148.3062489692308</v>
       </c>
       <c r="Q22" t="n">
-        <v>18.40170072505335</v>
+        <v>18.40170072505333</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>458.1678540585739</v>
       </c>
       <c r="L23" t="n">
-        <v>621.2024112177388</v>
+        <v>621.2024112177387</v>
       </c>
       <c r="M23" t="n">
-        <v>707.9816637267626</v>
+        <v>707.9816637267625</v>
       </c>
       <c r="N23" t="n">
         <v>704.6577517170815</v>
       </c>
       <c r="O23" t="n">
-        <v>619.7442545882983</v>
+        <v>619.7442545882982</v>
       </c>
       <c r="P23" t="n">
         <v>490.8824507712011</v>
@@ -36381,7 +36381,7 @@
         <v>290.6304996904175</v>
       </c>
       <c r="R23" t="n">
-        <v>24.99999005124621</v>
+        <v>24.99999005124619</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>13.88507788182284</v>
+        <v>139.9761132222316</v>
       </c>
       <c r="K24" t="n">
         <v>367.1413140941937</v>
       </c>
       <c r="L24" t="n">
-        <v>555.6914475658753</v>
+        <v>247.0016698493611</v>
       </c>
       <c r="M24" t="n">
-        <v>235.2649095702168</v>
+        <v>235.2649095702167</v>
       </c>
       <c r="N24" t="n">
         <v>256.0458584575366</v>
       </c>
       <c r="O24" t="n">
-        <v>605.6500195721723</v>
+        <v>605.6500195721721</v>
       </c>
       <c r="P24" t="n">
         <v>468.9127199198243</v>
       </c>
       <c r="Q24" t="n">
-        <v>77.62692276061871</v>
+        <v>260.2256651367241</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36521,7 +36521,7 @@
         <v>122.8097230284039</v>
       </c>
       <c r="L25" t="n">
-        <v>213.2414712483449</v>
+        <v>213.2414712483448</v>
       </c>
       <c r="M25" t="n">
         <v>235.3272965027222</v>
@@ -36536,7 +36536,7 @@
         <v>148.3062489692308</v>
       </c>
       <c r="Q25" t="n">
-        <v>18.40170072505335</v>
+        <v>18.40170072505333</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>458.1678540585739</v>
       </c>
       <c r="L26" t="n">
-        <v>621.2024112177388</v>
+        <v>621.2024112177387</v>
       </c>
       <c r="M26" t="n">
-        <v>707.9816637267626</v>
+        <v>707.9816637267625</v>
       </c>
       <c r="N26" t="n">
         <v>704.6577517170815</v>
       </c>
       <c r="O26" t="n">
-        <v>619.7442545882983</v>
+        <v>619.7442545882982</v>
       </c>
       <c r="P26" t="n">
         <v>490.8824507712011</v>
@@ -36618,7 +36618,7 @@
         <v>290.6304996904175</v>
       </c>
       <c r="R26" t="n">
-        <v>24.99999005124621</v>
+        <v>24.99999005124619</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>13.88507788182284</v>
+        <v>139.9761132222316</v>
       </c>
       <c r="K27" t="n">
-        <v>102.6760770816151</v>
+        <v>367.1413140941937</v>
       </c>
       <c r="L27" t="n">
-        <v>555.6914475658753</v>
+        <v>555.6914475658751</v>
       </c>
       <c r="M27" t="n">
-        <v>527.2086919425391</v>
+        <v>235.2649095702167</v>
       </c>
       <c r="N27" t="n">
         <v>256.0458584575366</v>
       </c>
       <c r="O27" t="n">
-        <v>605.6500195721723</v>
+        <v>296.960241855658</v>
       </c>
       <c r="P27" t="n">
         <v>468.9127199198243</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.14837740087503</v>
+        <v>260.2256651367241</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>122.8097230284039</v>
       </c>
       <c r="L28" t="n">
-        <v>213.2414712483449</v>
+        <v>213.2414712483448</v>
       </c>
       <c r="M28" t="n">
         <v>235.3272965027222</v>
@@ -36773,7 +36773,7 @@
         <v>148.3062489692308</v>
       </c>
       <c r="Q28" t="n">
-        <v>18.40170072505335</v>
+        <v>18.40170072505333</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>458.1678540585739</v>
       </c>
       <c r="L29" t="n">
-        <v>621.2024112177388</v>
+        <v>621.2024112177387</v>
       </c>
       <c r="M29" t="n">
-        <v>707.9816637267626</v>
+        <v>707.9816637267625</v>
       </c>
       <c r="N29" t="n">
         <v>704.6577517170815</v>
       </c>
       <c r="O29" t="n">
-        <v>619.7442545882983</v>
+        <v>619.7442545882982</v>
       </c>
       <c r="P29" t="n">
         <v>490.8824507712011</v>
@@ -36855,7 +36855,7 @@
         <v>290.6304996904175</v>
       </c>
       <c r="R29" t="n">
-        <v>24.99999005124621</v>
+        <v>24.99999005124619</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>13.88507788182284</v>
+        <v>139.9761132222316</v>
       </c>
       <c r="K30" t="n">
         <v>102.6760770816151</v>
       </c>
       <c r="L30" t="n">
-        <v>555.6914475658753</v>
+        <v>555.6914475658751</v>
       </c>
       <c r="M30" t="n">
-        <v>527.2086919425392</v>
+        <v>235.2649095702167</v>
       </c>
       <c r="N30" t="n">
         <v>256.0458584575366</v>
       </c>
       <c r="O30" t="n">
-        <v>605.6500195721723</v>
+        <v>561.4254788682368</v>
       </c>
       <c r="P30" t="n">
         <v>468.9127199198243</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.14837740087503</v>
+        <v>260.2256651367241</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>122.8097230284039</v>
       </c>
       <c r="L31" t="n">
-        <v>213.2414712483449</v>
+        <v>213.2414712483448</v>
       </c>
       <c r="M31" t="n">
         <v>235.3272965027222</v>
@@ -37010,7 +37010,7 @@
         <v>148.3062489692308</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.40170072505335</v>
+        <v>18.40170072505333</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>458.1678540585739</v>
       </c>
       <c r="L32" t="n">
-        <v>621.2024112177388</v>
+        <v>621.2024112177387</v>
       </c>
       <c r="M32" t="n">
-        <v>707.9816637267626</v>
+        <v>707.9816637267625</v>
       </c>
       <c r="N32" t="n">
         <v>704.6577517170815</v>
       </c>
       <c r="O32" t="n">
-        <v>619.7442545882983</v>
+        <v>619.7442545882982</v>
       </c>
       <c r="P32" t="n">
         <v>490.8824507712011</v>
@@ -37092,7 +37092,7 @@
         <v>290.6304996904175</v>
       </c>
       <c r="R32" t="n">
-        <v>24.99999005124621</v>
+        <v>24.99999005124619</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>13.88507788182284</v>
+        <v>139.9761132222316</v>
       </c>
       <c r="K33" t="n">
-        <v>299.7551410073967</v>
+        <v>367.1413140941937</v>
       </c>
       <c r="L33" t="n">
-        <v>184.851102262416</v>
+        <v>555.6914475658751</v>
       </c>
       <c r="M33" t="n">
-        <v>700.9699733202167</v>
+        <v>235.2649095702167</v>
       </c>
       <c r="N33" t="n">
         <v>256.0458584575366</v>
       </c>
       <c r="O33" t="n">
-        <v>605.6500195721723</v>
+        <v>605.6500195721721</v>
       </c>
       <c r="P33" t="n">
-        <v>468.9127199198243</v>
+        <v>160.2229422033103</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.14837740087503</v>
+        <v>260.2256651367241</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37232,7 +37232,7 @@
         <v>122.8097230284039</v>
       </c>
       <c r="L34" t="n">
-        <v>213.2414712483449</v>
+        <v>213.2414712483448</v>
       </c>
       <c r="M34" t="n">
         <v>235.3272965027222</v>
@@ -37247,7 +37247,7 @@
         <v>148.3062489692308</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.40170072505335</v>
+        <v>18.40170072505333</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>458.1678540585739</v>
       </c>
       <c r="L35" t="n">
-        <v>621.2024112177388</v>
+        <v>621.2024112177387</v>
       </c>
       <c r="M35" t="n">
-        <v>707.9816637267626</v>
+        <v>707.9816637267625</v>
       </c>
       <c r="N35" t="n">
         <v>704.6577517170815</v>
       </c>
       <c r="O35" t="n">
-        <v>619.7442545882983</v>
+        <v>619.7442545882982</v>
       </c>
       <c r="P35" t="n">
         <v>490.8824507712011</v>
@@ -37329,7 +37329,7 @@
         <v>290.6304996904175</v>
       </c>
       <c r="R35" t="n">
-        <v>24.99999005124621</v>
+        <v>24.99999005124619</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13.88507788182284</v>
+        <v>13.88507788182281</v>
       </c>
       <c r="K36" t="n">
         <v>102.6760770816151</v>
       </c>
       <c r="L36" t="n">
-        <v>555.6914475658753</v>
+        <v>184.851102262416</v>
       </c>
       <c r="M36" t="n">
         <v>700.9699733202167</v>
       </c>
       <c r="N36" t="n">
-        <v>256.0458584575366</v>
+        <v>735.3882328010901</v>
       </c>
       <c r="O36" t="n">
-        <v>605.6500195721723</v>
+        <v>605.6500195721721</v>
       </c>
       <c r="P36" t="n">
-        <v>295.151438542147</v>
+        <v>186.6494095020524</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.14837740087503</v>
+        <v>50.14837740087501</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>122.8097230284039</v>
       </c>
       <c r="L37" t="n">
-        <v>213.2414712483449</v>
+        <v>213.2414712483448</v>
       </c>
       <c r="M37" t="n">
         <v>235.3272965027222</v>
@@ -37484,7 +37484,7 @@
         <v>148.3062489692308</v>
       </c>
       <c r="Q37" t="n">
-        <v>18.40170072505335</v>
+        <v>18.40170072505333</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>458.1678540585739</v>
       </c>
       <c r="L38" t="n">
-        <v>621.2024112177388</v>
+        <v>621.2024112177387</v>
       </c>
       <c r="M38" t="n">
-        <v>707.9816637267626</v>
+        <v>707.9816637267625</v>
       </c>
       <c r="N38" t="n">
         <v>704.6577517170815</v>
       </c>
       <c r="O38" t="n">
-        <v>619.7442545882983</v>
+        <v>619.7442545882982</v>
       </c>
       <c r="P38" t="n">
         <v>490.8824507712011</v>
@@ -37566,7 +37566,7 @@
         <v>290.6304996904175</v>
       </c>
       <c r="R38" t="n">
-        <v>24.99999005124621</v>
+        <v>24.99999005124619</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>139.9761132222317</v>
+        <v>139.9761132222316</v>
       </c>
       <c r="K39" t="n">
         <v>367.1413140941937</v>
       </c>
       <c r="L39" t="n">
-        <v>296.1993518815934</v>
+        <v>555.6914475658751</v>
       </c>
       <c r="M39" t="n">
-        <v>235.2649095702168</v>
+        <v>235.2649095702167</v>
       </c>
       <c r="N39" t="n">
-        <v>735.3882328010902</v>
+        <v>256.0458584575366</v>
       </c>
       <c r="O39" t="n">
-        <v>605.6500195721723</v>
+        <v>296.960241855658</v>
       </c>
       <c r="P39" t="n">
-        <v>150.4499512798871</v>
+        <v>468.9127199198243</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.14837740087503</v>
+        <v>260.2256651367241</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>122.8097230284039</v>
       </c>
       <c r="L40" t="n">
-        <v>213.2414712483449</v>
+        <v>213.2414712483448</v>
       </c>
       <c r="M40" t="n">
         <v>235.3272965027222</v>
@@ -37721,7 +37721,7 @@
         <v>148.3062489692308</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.40170072505335</v>
+        <v>18.40170072505333</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>55.22730430812337</v>
+        <v>224.3239194801971</v>
       </c>
       <c r="K41" t="n">
-        <v>384.2088174730122</v>
+        <v>458.1678540585739</v>
       </c>
       <c r="L41" t="n">
-        <v>621.2024112177388</v>
+        <v>621.2024112177387</v>
       </c>
       <c r="M41" t="n">
-        <v>707.9816637267626</v>
+        <v>664.9579556699622</v>
       </c>
       <c r="N41" t="n">
-        <v>704.6577517170815</v>
+        <v>267.3108273050973</v>
       </c>
       <c r="O41" t="n">
-        <v>619.7442545882983</v>
+        <v>619.7442545882982</v>
       </c>
       <c r="P41" t="n">
         <v>490.8824507712011</v>
       </c>
       <c r="Q41" t="n">
-        <v>78.31550903051286</v>
+        <v>290.6304996904175</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>24.99999005124619</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>13.88507788182284</v>
+        <v>139.9761132222316</v>
       </c>
       <c r="K42" t="n">
-        <v>102.6760770816151</v>
+        <v>367.1413140941937</v>
       </c>
       <c r="L42" t="n">
-        <v>555.6914475658753</v>
+        <v>555.6914475658751</v>
       </c>
       <c r="M42" t="n">
-        <v>700.9699733202167</v>
+        <v>320.4374511304319</v>
       </c>
       <c r="N42" t="n">
         <v>256.0458584575366</v>
       </c>
       <c r="O42" t="n">
-        <v>605.6500195721723</v>
+        <v>211.7877002954427</v>
       </c>
       <c r="P42" t="n">
-        <v>295.1514385421465</v>
+        <v>468.9127199198243</v>
       </c>
       <c r="Q42" t="n">
-        <v>50.14837740087503</v>
+        <v>260.2256651367241</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,7 +37943,7 @@
         <v>122.8097230284039</v>
       </c>
       <c r="L43" t="n">
-        <v>213.2414712483449</v>
+        <v>213.2414712483448</v>
       </c>
       <c r="M43" t="n">
         <v>235.3272965027222</v>
@@ -37958,7 +37958,7 @@
         <v>148.3062489692308</v>
       </c>
       <c r="Q43" t="n">
-        <v>18.40170072505335</v>
+        <v>18.40170072505333</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>458.1678540585739</v>
       </c>
       <c r="L44" t="n">
-        <v>621.2024112177388</v>
+        <v>621.2024112177387</v>
       </c>
       <c r="M44" t="n">
-        <v>258.4681302339301</v>
+        <v>258.46813023393</v>
       </c>
       <c r="N44" t="n">
-        <v>698.8006427923741</v>
+        <v>704.6577517170815</v>
       </c>
       <c r="O44" t="n">
-        <v>619.7442545882983</v>
+        <v>613.8871456635924</v>
       </c>
       <c r="P44" t="n">
         <v>490.8824507712011</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>13.88507788182284</v>
+        <v>139.9761132222316</v>
       </c>
       <c r="K45" t="n">
-        <v>102.6760770816151</v>
+        <v>367.1413140941937</v>
       </c>
       <c r="L45" t="n">
-        <v>555.6914475658753</v>
+        <v>555.6914475658751</v>
       </c>
       <c r="M45" t="n">
-        <v>527.208691942539</v>
+        <v>235.2649095702167</v>
       </c>
       <c r="N45" t="n">
         <v>256.0458584575366</v>
       </c>
       <c r="O45" t="n">
-        <v>605.6500195721723</v>
+        <v>296.960241855658</v>
       </c>
       <c r="P45" t="n">
         <v>468.9127199198243</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.14837740087503</v>
+        <v>260.2256651367241</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38180,7 +38180,7 @@
         <v>122.8097230284039</v>
       </c>
       <c r="L46" t="n">
-        <v>213.2414712483449</v>
+        <v>213.2414712483448</v>
       </c>
       <c r="M46" t="n">
         <v>235.3272965027222</v>
@@ -38195,7 +38195,7 @@
         <v>148.3062489692308</v>
       </c>
       <c r="Q46" t="n">
-        <v>18.40170072505335</v>
+        <v>18.40170072505333</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
